--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_1_12.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_1_12.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>437838.0646389918</v>
+        <v>439542.8206532585</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>925399.3994514376</v>
+        <v>925399.399451438</v>
       </c>
     </row>
     <row r="8">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5668630.558955723</v>
+        <v>5668630.558955725</v>
       </c>
     </row>
     <row r="11">
@@ -701,7 +703,7 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -710,10 +712,10 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>212.285385643442</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>202.2946864288972</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -738,10 +740,10 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>145.4467082856156</v>
       </c>
       <c r="D3" t="n">
-        <v>21.0507685937734</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
         <v>157.6450804554009</v>
@@ -783,10 +785,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -908,58 +910,58 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>230.8744955960827</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>0</v>
+      </c>
+      <c r="R5" t="n">
+        <v>0</v>
+      </c>
+      <c r="S5" t="n">
+        <v>0</v>
+      </c>
+      <c r="T5" t="n">
+        <v>223.0958495641314</v>
+      </c>
+      <c r="U5" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="I5" t="n">
-        <v>210.4758895704059</v>
-      </c>
-      <c r="J5" t="n">
-        <v>11.94928935461252</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" t="n">
-        <v>0</v>
-      </c>
-      <c r="P5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>0</v>
-      </c>
-      <c r="R5" t="n">
-        <v>0</v>
-      </c>
-      <c r="S5" t="n">
-        <v>0</v>
-      </c>
-      <c r="T5" t="n">
-        <v>0</v>
-      </c>
-      <c r="U5" t="n">
-        <v>0</v>
-      </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>230.2038249569697</v>
       </c>
       <c r="X5" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -975,25 +977,25 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>145.4467082856156</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0.7465913262578567</v>
@@ -1023,22 +1025,22 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>131.0193938670496</v>
       </c>
       <c r="W6" t="n">
         <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
         <v>0</v>
@@ -1096,13 +1098,13 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>47.02492433367365</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1117,7 +1119,7 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1130,22 +1132,22 @@
         </is>
       </c>
       <c r="B8" t="n">
+        <v>0</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="n">
+        <v>230.8744955960827</v>
+      </c>
+      <c r="G8" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="C8" t="n">
-        <v>1.809496073036188</v>
-      </c>
-      <c r="D8" t="n">
-        <v>0</v>
-      </c>
-      <c r="E8" t="n">
-        <v>0</v>
-      </c>
-      <c r="F8" t="n">
-        <v>0</v>
-      </c>
-      <c r="G8" t="n">
-        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>241.0142888776591</v>
@@ -1154,7 +1156,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -1199,7 +1201,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1212,25 +1214,25 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>172.7084989883157</v>
+        <v>146.1932996118735</v>
       </c>
       <c r="D9" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I9" t="n">
-        <v>11.77714933517467</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1260,13 +1262,13 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
         <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -1275,7 +1277,7 @@
         <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
         <v>0</v>
@@ -1309,7 +1311,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1351,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1379,16 +1381,16 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>82.96396779500064</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,16 +1420,16 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>102.3382270926889</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -1449,16 +1451,16 @@
         <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>59.56979147801813</v>
       </c>
       <c r="E12" t="n">
-        <v>124.4376380720372</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F12" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
         <v>137.3435171632106</v>
@@ -1494,7 +1496,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -1503,7 +1505,7 @@
         <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -1515,7 +1517,7 @@
         <v>0</v>
       </c>
       <c r="Y12" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="13">
@@ -1540,7 +1542,7 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1579,7 +1581,7 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -1604,16 +1606,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -1622,7 +1624,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1655,25 +1657,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>3.265316057196634</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>212.285385643442</v>
       </c>
     </row>
     <row r="15">
@@ -1683,7 +1685,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>163.8488224260671</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
@@ -1701,13 +1703,13 @@
         <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>77.92691371295918</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -1740,19 +1742,19 @@
         <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V15" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W15" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X15" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y15" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="16">
@@ -1804,13 +1806,13 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>44.30348359856715</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -1822,7 +1824,7 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -1853,19 +1855,19 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G17" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="H17" t="n">
-        <v>212.2853856434421</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>1.809496073036188</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -1904,10 +1906,10 @@
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -1923,28 +1925,28 @@
         <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>145.4467082856156</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>4.580549094716531</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -1968,19 +1970,19 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W18" t="n">
         <v>0</v>
@@ -2053,10 +2055,10 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
+        <v>0</v>
+      </c>
+      <c r="U19" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="U19" t="n">
-        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -2078,13 +2080,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>202.2946864288972</v>
       </c>
       <c r="C20" t="n">
+        <v>0</v>
+      </c>
+      <c r="D20" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="D20" t="n">
-        <v>0</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -2096,7 +2098,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2123,7 +2125,7 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -2138,7 +2140,7 @@
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>212.285385643442</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -2147,7 +2149,7 @@
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2166,10 +2168,10 @@
         <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F21" t="n">
-        <v>35.40726547353844</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
         <v>0</v>
@@ -2178,7 +2180,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2211,7 +2213,7 @@
         <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
         <v>225.9413820809748</v>
@@ -2220,7 +2222,7 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W21" t="n">
-        <v>241.0142888776591</v>
+        <v>84.47535734581926</v>
       </c>
       <c r="X21" t="n">
         <v>0</v>
@@ -2287,10 +2289,10 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
+        <v>0</v>
+      </c>
+      <c r="T22" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="T22" t="n">
-        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -2315,7 +2317,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>21.18375537072436</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
@@ -2333,55 +2335,55 @@
         <v>0</v>
       </c>
       <c r="H23" t="n">
+        <v>0</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>0</v>
+      </c>
+      <c r="K23" t="n">
+        <v>0</v>
+      </c>
+      <c r="L23" t="n">
+        <v>0</v>
+      </c>
+      <c r="M23" t="n">
+        <v>0</v>
+      </c>
+      <c r="N23" t="n">
+        <v>0</v>
+      </c>
+      <c r="O23" t="n">
+        <v>0</v>
+      </c>
+      <c r="P23" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>0</v>
+      </c>
+      <c r="R23" t="n">
+        <v>0</v>
+      </c>
+      <c r="S23" t="n">
+        <v>209.0200695862453</v>
+      </c>
+      <c r="T23" t="n">
+        <v>223.0958495641314</v>
+      </c>
+      <c r="U23" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>0</v>
-      </c>
-      <c r="K23" t="n">
-        <v>0</v>
-      </c>
-      <c r="L23" t="n">
-        <v>0</v>
-      </c>
-      <c r="M23" t="n">
-        <v>0</v>
-      </c>
-      <c r="N23" t="n">
-        <v>0</v>
-      </c>
-      <c r="O23" t="n">
-        <v>0</v>
-      </c>
-      <c r="P23" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q23" t="n">
-        <v>0</v>
-      </c>
-      <c r="R23" t="n">
-        <v>0</v>
-      </c>
-      <c r="S23" t="n">
-        <v>0</v>
-      </c>
-      <c r="T23" t="n">
-        <v>0</v>
-      </c>
-      <c r="U23" t="n">
-        <v>0</v>
-      </c>
       <c r="V23" t="n">
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>212.285385643442</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
         <v>241.0142888776591</v>
@@ -2400,7 +2402,7 @@
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>121.2086027464166</v>
       </c>
       <c r="E24" t="n">
         <v>157.6450804554009</v>
@@ -2409,16 +2411,16 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -2442,19 +2444,19 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T24" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U24" t="n">
         <v>0</v>
       </c>
       <c r="V24" t="n">
-        <v>160.6082254763319</v>
+        <v>0</v>
       </c>
       <c r="W24" t="n">
         <v>0</v>
@@ -2539,10 +2541,10 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y25" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="Y25" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2564,13 +2566,13 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H26" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2606,7 +2608,7 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
@@ -2615,13 +2617,13 @@
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>212.285385643442</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>241.0142888776591</v>
+        <v>230.2038249569697</v>
       </c>
     </row>
     <row r="27">
@@ -2637,25 +2639,25 @@
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E27" t="n">
-        <v>116.6930783966232</v>
+        <v>0</v>
       </c>
       <c r="F27" t="n">
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -2679,13 +2681,13 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S27" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T27" t="n">
-        <v>200.1647286948216</v>
+        <v>176.3199958779194</v>
       </c>
       <c r="U27" t="n">
         <v>0</v>
@@ -2694,10 +2696,10 @@
         <v>0</v>
       </c>
       <c r="W27" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X27" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y27" t="n">
         <v>0</v>
@@ -2722,7 +2724,7 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -2770,7 +2772,7 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -2789,7 +2791,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -2798,7 +2800,7 @@
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
@@ -2834,7 +2836,7 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -2843,22 +2845,22 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
+        <v>0</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="n">
+        <v>0</v>
+      </c>
+      <c r="X29" t="n">
+        <v>202.2946864288972</v>
+      </c>
+      <c r="Y29" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="V29" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="W29" t="n">
-        <v>0</v>
-      </c>
-      <c r="X29" t="n">
-        <v>230.2038249569697</v>
-      </c>
-      <c r="Y29" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -2874,7 +2876,7 @@
         <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>35.40726547353844</v>
       </c>
       <c r="E30" t="n">
         <v>0</v>
@@ -2892,7 +2894,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -2922,7 +2924,7 @@
         <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>29.1427070647978</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U30" t="n">
         <v>225.9413820809748</v>
@@ -2937,7 +2939,7 @@
         <v>0</v>
       </c>
       <c r="Y30" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -3007,13 +3009,13 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="n">
+        <v>0</v>
+      </c>
+      <c r="X31" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="W31" t="n">
-        <v>0</v>
-      </c>
-      <c r="X31" t="n">
-        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -3026,10 +3028,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C32" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
@@ -3038,64 +3040,64 @@
         <v>241.0142888776591</v>
       </c>
       <c r="F32" t="n">
+        <v>0</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0</v>
+      </c>
+      <c r="H32" t="n">
+        <v>0</v>
+      </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>0</v>
+      </c>
+      <c r="K32" t="n">
+        <v>0</v>
+      </c>
+      <c r="L32" t="n">
+        <v>0</v>
+      </c>
+      <c r="M32" t="n">
+        <v>0</v>
+      </c>
+      <c r="N32" t="n">
+        <v>0</v>
+      </c>
+      <c r="O32" t="n">
+        <v>0</v>
+      </c>
+      <c r="P32" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>0</v>
+      </c>
+      <c r="R32" t="n">
+        <v>0</v>
+      </c>
+      <c r="S32" t="n">
+        <v>0</v>
+      </c>
+      <c r="T32" t="n">
+        <v>0</v>
+      </c>
+      <c r="U32" t="n">
+        <v>0</v>
+      </c>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="n">
+        <v>0</v>
+      </c>
+      <c r="X32" t="n">
+        <v>212.285385643442</v>
+      </c>
+      <c r="Y32" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="G32" t="n">
-        <v>0</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="n">
-        <v>0</v>
-      </c>
-      <c r="K32" t="n">
-        <v>0</v>
-      </c>
-      <c r="L32" t="n">
-        <v>0</v>
-      </c>
-      <c r="M32" t="n">
-        <v>0</v>
-      </c>
-      <c r="N32" t="n">
-        <v>0</v>
-      </c>
-      <c r="O32" t="n">
-        <v>0</v>
-      </c>
-      <c r="P32" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q32" t="n">
-        <v>0</v>
-      </c>
-      <c r="R32" t="n">
-        <v>0</v>
-      </c>
-      <c r="S32" t="n">
-        <v>209.0200695862453</v>
-      </c>
-      <c r="T32" t="n">
-        <v>3.265316057196634</v>
-      </c>
-      <c r="U32" t="n">
-        <v>0</v>
-      </c>
-      <c r="V32" t="n">
-        <v>0</v>
-      </c>
-      <c r="W32" t="n">
-        <v>0</v>
-      </c>
-      <c r="X32" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y32" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -3108,7 +3110,7 @@
         <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>111.1751113141406</v>
       </c>
       <c r="D33" t="n">
         <v>0</v>
@@ -3156,13 +3158,13 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T33" t="n">
-        <v>56.91690033700343</v>
+        <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -3247,10 +3249,10 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
+        <v>0</v>
+      </c>
+      <c r="X34" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="X34" t="n">
-        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -3263,16 +3265,16 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E35" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
@@ -3323,16 +3325,16 @@
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>212.2853856434421</v>
+        <v>212.285385643442</v>
       </c>
       <c r="Y35" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3366,7 +3368,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -3390,13 +3392,13 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U36" t="n">
         <v>225.9413820809748</v>
@@ -3405,13 +3407,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W36" t="n">
-        <v>4.580549094716531</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X36" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y36" t="n">
-        <v>0</v>
+        <v>29.05241763862477</v>
       </c>
     </row>
     <row r="37">
@@ -3424,58 +3426,58 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
+        <v>0</v>
+      </c>
+      <c r="D37" t="n">
+        <v>0</v>
+      </c>
+      <c r="E37" t="n">
+        <v>0</v>
+      </c>
+      <c r="F37" t="n">
+        <v>0</v>
+      </c>
+      <c r="G37" t="n">
+        <v>0</v>
+      </c>
+      <c r="H37" t="n">
+        <v>0</v>
+      </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>0</v>
+      </c>
+      <c r="K37" t="n">
+        <v>0</v>
+      </c>
+      <c r="L37" t="n">
+        <v>0</v>
+      </c>
+      <c r="M37" t="n">
+        <v>0</v>
+      </c>
+      <c r="N37" t="n">
+        <v>0</v>
+      </c>
+      <c r="O37" t="n">
+        <v>0</v>
+      </c>
+      <c r="P37" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>0</v>
+      </c>
+      <c r="R37" t="n">
+        <v>0</v>
+      </c>
+      <c r="S37" t="n">
+        <v>0</v>
+      </c>
+      <c r="T37" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="D37" t="n">
-        <v>0</v>
-      </c>
-      <c r="E37" t="n">
-        <v>0</v>
-      </c>
-      <c r="F37" t="n">
-        <v>0</v>
-      </c>
-      <c r="G37" t="n">
-        <v>0</v>
-      </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
-      <c r="I37" t="n">
-        <v>0</v>
-      </c>
-      <c r="J37" t="n">
-        <v>0</v>
-      </c>
-      <c r="K37" t="n">
-        <v>0</v>
-      </c>
-      <c r="L37" t="n">
-        <v>0</v>
-      </c>
-      <c r="M37" t="n">
-        <v>0</v>
-      </c>
-      <c r="N37" t="n">
-        <v>0</v>
-      </c>
-      <c r="O37" t="n">
-        <v>0</v>
-      </c>
-      <c r="P37" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q37" t="n">
-        <v>0</v>
-      </c>
-      <c r="R37" t="n">
-        <v>0</v>
-      </c>
-      <c r="S37" t="n">
-        <v>0</v>
-      </c>
-      <c r="T37" t="n">
-        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -3503,73 +3505,73 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D38" t="n">
+        <v>0</v>
+      </c>
+      <c r="E38" t="n">
+        <v>0</v>
+      </c>
+      <c r="F38" t="n">
+        <v>0</v>
+      </c>
+      <c r="G38" t="n">
+        <v>0</v>
+      </c>
+      <c r="H38" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="E38" t="n">
-        <v>0</v>
-      </c>
-      <c r="F38" t="n">
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>0</v>
+      </c>
+      <c r="K38" t="n">
+        <v>0</v>
+      </c>
+      <c r="L38" t="n">
+        <v>0</v>
+      </c>
+      <c r="M38" t="n">
+        <v>0</v>
+      </c>
+      <c r="N38" t="n">
+        <v>0</v>
+      </c>
+      <c r="O38" t="n">
+        <v>0</v>
+      </c>
+      <c r="P38" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>0</v>
+      </c>
+      <c r="R38" t="n">
+        <v>0</v>
+      </c>
+      <c r="S38" t="n">
+        <v>0</v>
+      </c>
+      <c r="T38" t="n">
+        <v>212.285385643442</v>
+      </c>
+      <c r="U38" t="n">
+        <v>0</v>
+      </c>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="n">
+        <v>0</v>
+      </c>
+      <c r="X38" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y38" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="G38" t="n">
-        <v>0</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="n">
-        <v>0</v>
-      </c>
-      <c r="K38" t="n">
-        <v>0</v>
-      </c>
-      <c r="L38" t="n">
-        <v>0</v>
-      </c>
-      <c r="M38" t="n">
-        <v>0</v>
-      </c>
-      <c r="N38" t="n">
-        <v>0</v>
-      </c>
-      <c r="O38" t="n">
-        <v>0</v>
-      </c>
-      <c r="P38" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q38" t="n">
-        <v>9.990699214544804</v>
-      </c>
-      <c r="R38" t="n">
-        <v>149.8691179411497</v>
-      </c>
-      <c r="S38" t="n">
-        <v>52.42556848774752</v>
-      </c>
-      <c r="T38" t="n">
-        <v>0</v>
-      </c>
-      <c r="U38" t="n">
-        <v>0</v>
-      </c>
-      <c r="V38" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="W38" t="n">
-        <v>0</v>
-      </c>
-      <c r="X38" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y38" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -3630,10 +3632,10 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
+        <v>0</v>
+      </c>
+      <c r="T39" t="n">
         <v>124.4760989000889</v>
-      </c>
-      <c r="T39" t="n">
-        <v>0</v>
       </c>
       <c r="U39" t="n">
         <v>225.9413820809748</v>
@@ -3679,34 +3681,34 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>0</v>
+      </c>
+      <c r="K40" t="n">
+        <v>0</v>
+      </c>
+      <c r="L40" t="n">
+        <v>0</v>
+      </c>
+      <c r="M40" t="n">
+        <v>0</v>
+      </c>
+      <c r="N40" t="n">
+        <v>0</v>
+      </c>
+      <c r="O40" t="n">
+        <v>0</v>
+      </c>
+      <c r="P40" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>0</v>
+      </c>
+      <c r="R40" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="J40" t="n">
-        <v>0</v>
-      </c>
-      <c r="K40" t="n">
-        <v>0</v>
-      </c>
-      <c r="L40" t="n">
-        <v>0</v>
-      </c>
-      <c r="M40" t="n">
-        <v>0</v>
-      </c>
-      <c r="N40" t="n">
-        <v>0</v>
-      </c>
-      <c r="O40" t="n">
-        <v>0</v>
-      </c>
-      <c r="P40" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q40" t="n">
-        <v>0</v>
-      </c>
-      <c r="R40" t="n">
-        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -3737,7 +3739,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -3746,67 +3748,67 @@
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="G41" t="n">
+        <v>0</v>
+      </c>
+      <c r="H41" t="n">
+        <v>0</v>
+      </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>0</v>
+      </c>
+      <c r="K41" t="n">
+        <v>0</v>
+      </c>
+      <c r="L41" t="n">
+        <v>0</v>
+      </c>
+      <c r="M41" t="n">
+        <v>0</v>
+      </c>
+      <c r="N41" t="n">
+        <v>0</v>
+      </c>
+      <c r="O41" t="n">
+        <v>0</v>
+      </c>
+      <c r="P41" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>0</v>
+      </c>
+      <c r="R41" t="n">
+        <v>0</v>
+      </c>
+      <c r="S41" t="n">
+        <v>0</v>
+      </c>
+      <c r="T41" t="n">
+        <v>0</v>
+      </c>
+      <c r="U41" t="n">
+        <v>0</v>
+      </c>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="n">
+        <v>0</v>
+      </c>
+      <c r="X41" t="n">
+        <v>212.285385643442</v>
+      </c>
+      <c r="Y41" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
-      <c r="I41" t="n">
-        <v>0</v>
-      </c>
-      <c r="J41" t="n">
-        <v>11.94928935461252</v>
-      </c>
-      <c r="K41" t="n">
-        <v>0</v>
-      </c>
-      <c r="L41" t="n">
-        <v>0</v>
-      </c>
-      <c r="M41" t="n">
-        <v>0</v>
-      </c>
-      <c r="N41" t="n">
-        <v>0</v>
-      </c>
-      <c r="O41" t="n">
-        <v>0</v>
-      </c>
-      <c r="P41" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q41" t="n">
-        <v>0</v>
-      </c>
-      <c r="R41" t="n">
-        <v>0</v>
-      </c>
-      <c r="S41" t="n">
-        <v>0</v>
-      </c>
-      <c r="T41" t="n">
-        <v>0</v>
-      </c>
-      <c r="U41" t="n">
-        <v>0</v>
-      </c>
-      <c r="V41" t="n">
-        <v>0</v>
-      </c>
-      <c r="W41" t="n">
-        <v>0</v>
-      </c>
-      <c r="X41" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y41" t="n">
-        <v>200.3360962888297</v>
       </c>
     </row>
     <row r="42">
@@ -3819,28 +3821,28 @@
         <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>172.7084989883157</v>
+        <v>145.4467082856156</v>
       </c>
       <c r="D42" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E42" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -3867,10 +3869,10 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>115.7580399383184</v>
+        <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U42" t="n">
         <v>0</v>
@@ -3879,13 +3881,13 @@
         <v>0</v>
       </c>
       <c r="W42" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X42" t="n">
         <v>0</v>
       </c>
       <c r="Y42" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -3974,7 +3976,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -3986,19 +3988,19 @@
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>40.47627913313511</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -4022,7 +4024,7 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R44" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -4031,19 +4033,19 @@
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>202.2946864288972</v>
       </c>
     </row>
     <row r="45">
@@ -4053,10 +4055,10 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>83.12218148371484</v>
+        <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D45" t="n">
         <v>0</v>
@@ -4077,7 +4079,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -4110,7 +4112,7 @@
         <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V45" t="n">
         <v>232.8005871494253</v>
@@ -4119,10 +4121,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="X45" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y45" t="n">
-        <v>205.6826957773044</v>
+        <v>29.05241763862477</v>
       </c>
     </row>
     <row r="46">
@@ -4349,16 +4351,16 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q2" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R2" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S2" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T2" t="n">
-        <v>749.627473042513</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U2" t="n">
         <v>749.627473042513</v>
@@ -4383,10 +4385,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C3" t="n">
-        <v>689.4702815141908</v>
+        <v>817.1412885554689</v>
       </c>
       <c r="D3" t="n">
         <v>668.2068788942177</v>
@@ -4413,16 +4415,16 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L3" t="n">
-        <v>144.6387031680501</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M3" t="n">
-        <v>234.810827406191</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N3" t="n">
-        <v>473.4149733950735</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="O3" t="n">
-        <v>712.019119383956</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="P3" t="n">
         <v>894.6625969973069</v>
@@ -4431,28 +4433,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R3" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S3" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T3" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U3" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V3" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W3" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X3" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y3" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="4">
@@ -4541,28 +4543,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>720.6083788665362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C5" t="n">
-        <v>720.6083788665362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D5" t="n">
-        <v>720.6083788665362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E5" t="n">
-        <v>720.6083788665362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F5" t="n">
-        <v>720.6083788665362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G5" t="n">
-        <v>487.4018176583718</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H5" t="n">
-        <v>243.9530410142718</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I5" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J5" t="n">
         <v>19.28114311021272</v>
@@ -4595,22 +4597,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T5" t="n">
-        <v>964.0571555106362</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="U5" t="n">
-        <v>964.0571555106362</v>
+        <v>495.259035872464</v>
       </c>
       <c r="V5" t="n">
-        <v>964.0571555106362</v>
+        <v>251.810259228364</v>
       </c>
       <c r="W5" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X5" t="n">
-        <v>720.6083788665362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y5" t="n">
-        <v>720.6083788665362</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="6">
@@ -4620,25 +4622,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>964.0571555106362</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="C6" t="n">
-        <v>817.1412885554689</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D6" t="n">
-        <v>668.2068788942177</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E6" t="n">
-        <v>508.9694238887622</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F6" t="n">
-        <v>362.4348659156472</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G6" t="n">
-        <v>223.7040404982626</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H6" t="n">
-        <v>110.334904905842</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I6" t="n">
         <v>20.03527576299844</v>
@@ -4650,19 +4652,19 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L6" t="n">
-        <v>144.6387031680501</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M6" t="n">
-        <v>304.2053859195205</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N6" t="n">
-        <v>542.809531908403</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="O6" t="n">
-        <v>781.4136778972854</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P6" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q6" t="n">
         <v>964.0571555106362</v>
@@ -4671,25 +4673,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S6" t="n">
-        <v>964.0571555106362</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T6" t="n">
-        <v>964.0571555106362</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="U6" t="n">
-        <v>964.0571555106362</v>
+        <v>360.2295980564601</v>
       </c>
       <c r="V6" t="n">
-        <v>964.0571555106362</v>
+        <v>227.8867759685313</v>
       </c>
       <c r="W6" t="n">
-        <v>964.0571555106362</v>
+        <v>227.8867759685313</v>
       </c>
       <c r="X6" t="n">
-        <v>964.0571555106362</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="Y6" t="n">
-        <v>964.0571555106362</v>
+        <v>20.03527576299844</v>
       </c>
     </row>
     <row r="7">
@@ -4744,25 +4746,25 @@
         <v>153.8134336004835</v>
       </c>
       <c r="Q7" t="n">
-        <v>153.8134336004835</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="R7" t="n">
-        <v>153.8134336004835</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="S7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X7" t="n">
         <v>19.28114311021272</v>
@@ -4778,28 +4780,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>477.1596022224361</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C8" t="n">
-        <v>475.3318284112885</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="D8" t="n">
-        <v>475.3318284112885</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="E8" t="n">
-        <v>475.3318284112885</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="F8" t="n">
-        <v>475.3318284112885</v>
+        <v>730.8505943024719</v>
       </c>
       <c r="G8" t="n">
-        <v>475.3318284112885</v>
+        <v>487.4018176583718</v>
       </c>
       <c r="H8" t="n">
-        <v>231.8830517671884</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="I8" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J8" t="n">
         <v>19.28114311021272</v>
@@ -4847,7 +4849,7 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Y8" t="n">
-        <v>720.6083788665362</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="9">
@@ -4857,25 +4859,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>354.5646924921614</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C9" t="n">
-        <v>180.1116632110344</v>
+        <v>816.3871559026832</v>
       </c>
       <c r="D9" t="n">
-        <v>31.1772535497831</v>
+        <v>667.4527462414319</v>
       </c>
       <c r="E9" t="n">
-        <v>31.1772535497831</v>
+        <v>508.2152912359765</v>
       </c>
       <c r="F9" t="n">
-        <v>31.1772535497831</v>
+        <v>361.6807332628614</v>
       </c>
       <c r="G9" t="n">
-        <v>31.1772535497831</v>
+        <v>222.9499078454769</v>
       </c>
       <c r="H9" t="n">
-        <v>31.1772535497831</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="I9" t="n">
         <v>19.28114311021272</v>
@@ -4893,7 +4895,7 @@
         <v>487.8483949674443</v>
       </c>
       <c r="N9" t="n">
-        <v>725.4530095217538</v>
+        <v>726.4525409563269</v>
       </c>
       <c r="O9" t="n">
         <v>964.0571555106362</v>
@@ -4908,25 +4910,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S9" t="n">
-        <v>790.6398109613051</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T9" t="n">
-        <v>790.6398109613051</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U9" t="n">
-        <v>562.4161926976942</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V9" t="n">
-        <v>562.4161926976942</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W9" t="n">
-        <v>562.4161926976942</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X9" t="n">
-        <v>354.5646924921614</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y9" t="n">
-        <v>354.5646924921614</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="10">
@@ -4936,25 +4938,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C10" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D10" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E10" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F10" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="G10" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="H10" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="I10" t="n">
         <v>19.28114311021272</v>
@@ -4999,13 +5001,13 @@
         <v>153.8134336004835</v>
       </c>
       <c r="W10" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X10" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y10" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="11">
@@ -5015,25 +5017,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>802.5825927271064</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C11" t="n">
-        <v>802.5825927271064</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D11" t="n">
-        <v>802.5825927271064</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E11" t="n">
-        <v>802.5825927271064</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F11" t="n">
-        <v>718.7806050553886</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G11" t="n">
-        <v>475.3318284112885</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H11" t="n">
-        <v>231.8830517671884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I11" t="n">
         <v>19.28114311021272</v>
@@ -5066,25 +5068,25 @@
         <v>802.5825927271064</v>
       </c>
       <c r="S11" t="n">
-        <v>802.5825927271064</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="T11" t="n">
-        <v>802.5825927271064</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="U11" t="n">
-        <v>802.5825927271064</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="V11" t="n">
-        <v>802.5825927271064</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W11" t="n">
-        <v>802.5825927271064</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X11" t="n">
-        <v>802.5825927271064</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y11" t="n">
-        <v>802.5825927271064</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="12">
@@ -5094,16 +5096,16 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>634.6640077999109</v>
+        <v>756.2968567456824</v>
       </c>
       <c r="C12" t="n">
-        <v>634.6640077999109</v>
+        <v>581.8438274645554</v>
       </c>
       <c r="D12" t="n">
-        <v>634.6640077999109</v>
+        <v>521.6723209211027</v>
       </c>
       <c r="E12" t="n">
-        <v>508.9694238887622</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="F12" t="n">
         <v>362.4348659156472</v>
@@ -5121,49 +5123,49 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K12" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L12" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="M12" t="n">
-        <v>257.8852890990952</v>
+        <v>234.810827406191</v>
       </c>
       <c r="N12" t="n">
-        <v>496.4894350879777</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O12" t="n">
-        <v>735.0935810768601</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P12" t="n">
-        <v>917.7370586902109</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q12" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R12" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S12" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T12" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U12" t="n">
-        <v>634.6640077999109</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V12" t="n">
-        <v>634.6640077999109</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W12" t="n">
-        <v>634.6640077999109</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X12" t="n">
-        <v>634.6640077999109</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y12" t="n">
-        <v>634.6640077999109</v>
+        <v>756.2968567456824</v>
       </c>
     </row>
     <row r="13">
@@ -5173,19 +5175,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C13" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D13" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E13" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F13" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="G13" t="n">
         <v>19.28114311021272</v>
@@ -5227,22 +5229,22 @@
         <v>153.8134336004835</v>
       </c>
       <c r="T13" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U13" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V13" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W13" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X13" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y13" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="14">
@@ -5252,7 +5254,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>262.7299197543128</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C14" t="n">
         <v>262.7299197543128</v>
@@ -5261,13 +5263,13 @@
         <v>262.7299197543128</v>
       </c>
       <c r="E14" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F14" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G14" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H14" t="n">
         <v>19.28114311021272</v>
@@ -5303,25 +5305,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S14" t="n">
-        <v>752.9257720901863</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T14" t="n">
+        <v>964.0571555106362</v>
+      </c>
+      <c r="U14" t="n">
+        <v>964.0571555106362</v>
+      </c>
+      <c r="V14" t="n">
+        <v>964.0571555106362</v>
+      </c>
+      <c r="W14" t="n">
+        <v>964.0571555106362</v>
+      </c>
+      <c r="X14" t="n">
+        <v>964.0571555106362</v>
+      </c>
+      <c r="Y14" t="n">
         <v>749.627473042513</v>
-      </c>
-      <c r="U14" t="n">
-        <v>506.1786963984129</v>
-      </c>
-      <c r="V14" t="n">
-        <v>506.1786963984129</v>
-      </c>
-      <c r="W14" t="n">
-        <v>262.7299197543128</v>
-      </c>
-      <c r="X14" t="n">
-        <v>262.7299197543128</v>
-      </c>
-      <c r="Y14" t="n">
-        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="15">
@@ -5331,28 +5333,28 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>257.2326523711826</v>
+        <v>382.9414955037181</v>
       </c>
       <c r="C15" t="n">
-        <v>257.2326523711826</v>
+        <v>382.9414955037181</v>
       </c>
       <c r="D15" t="n">
-        <v>257.2326523711826</v>
+        <v>382.9414955037181</v>
       </c>
       <c r="E15" t="n">
-        <v>97.99519736572705</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="F15" t="n">
-        <v>97.99519736572705</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="G15" t="n">
-        <v>97.99519736572705</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="H15" t="n">
-        <v>19.28114311021272</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I15" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J15" t="n">
         <v>19.28114311021272</v>
@@ -5361,19 +5363,19 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L15" t="n">
-        <v>249.2442489785619</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="M15" t="n">
-        <v>486.8488635328713</v>
+        <v>234.810827406191</v>
       </c>
       <c r="N15" t="n">
-        <v>725.4530095217538</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O15" t="n">
-        <v>964.0571555106362</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P15" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q15" t="n">
         <v>964.0571555106362</v>
@@ -5388,19 +5390,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="U15" t="n">
-        <v>735.8335372470253</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V15" t="n">
-        <v>500.6814290152826</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W15" t="n">
-        <v>257.2326523711826</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X15" t="n">
-        <v>257.2326523711826</v>
+        <v>756.2056553051034</v>
       </c>
       <c r="Y15" t="n">
-        <v>257.2326523711826</v>
+        <v>548.4453565401495</v>
       </c>
     </row>
     <row r="16">
@@ -5452,22 +5454,22 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P16" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q16" t="n">
-        <v>64.03213664411894</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R16" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S16" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T16" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U16" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V16" t="n">
         <v>19.28114311021272</v>
@@ -5489,28 +5491,28 @@
         </is>
       </c>
       <c r="B17" t="n">
+        <v>964.0571555106362</v>
+      </c>
+      <c r="C17" t="n">
+        <v>964.0571555106362</v>
+      </c>
+      <c r="D17" t="n">
+        <v>964.0571555106362</v>
+      </c>
+      <c r="E17" t="n">
+        <v>964.0571555106362</v>
+      </c>
+      <c r="F17" t="n">
+        <v>720.6083788665362</v>
+      </c>
+      <c r="G17" t="n">
         <v>477.1596022224361</v>
       </c>
-      <c r="C17" t="n">
-        <v>477.1596022224361</v>
-      </c>
-      <c r="D17" t="n">
-        <v>477.1596022224361</v>
-      </c>
-      <c r="E17" t="n">
-        <v>477.1596022224361</v>
-      </c>
-      <c r="F17" t="n">
-        <v>477.1596022224361</v>
-      </c>
-      <c r="G17" t="n">
+      <c r="H17" t="n">
         <v>233.7108255783361</v>
       </c>
-      <c r="H17" t="n">
-        <v>19.28114311021272</v>
-      </c>
       <c r="I17" t="n">
-        <v>19.28114311021272</v>
+        <v>21.10891692136039</v>
       </c>
       <c r="J17" t="n">
         <v>19.28114311021272</v>
@@ -5552,13 +5554,13 @@
         <v>964.0571555106362</v>
       </c>
       <c r="W17" t="n">
-        <v>720.6083788665362</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X17" t="n">
-        <v>477.1596022224361</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y17" t="n">
-        <v>477.1596022224361</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>23.90796037760316</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C18" t="n">
-        <v>23.90796037760316</v>
+        <v>817.1412885554689</v>
       </c>
       <c r="D18" t="n">
-        <v>23.90796037760316</v>
+        <v>668.2068788942177</v>
       </c>
       <c r="E18" t="n">
-        <v>23.90796037760316</v>
+        <v>508.9694238887622</v>
       </c>
       <c r="F18" t="n">
-        <v>23.90796037760316</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="G18" t="n">
-        <v>19.28114311021272</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="H18" t="n">
-        <v>19.28114311021272</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I18" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J18" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K18" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L18" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M18" t="n">
-        <v>487.8483949674443</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="N18" t="n">
-        <v>725.4530095217538</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O18" t="n">
-        <v>964.0571555106362</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P18" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q18" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R18" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S18" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T18" t="n">
-        <v>487.2836868729568</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U18" t="n">
-        <v>259.0600686093459</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V18" t="n">
-        <v>23.90796037760316</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W18" t="n">
-        <v>23.90796037760316</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X18" t="n">
-        <v>23.90796037760316</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y18" t="n">
-        <v>23.90796037760316</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="19">
@@ -5701,7 +5703,7 @@
         <v>153.8134336004835</v>
       </c>
       <c r="T19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U19" t="n">
         <v>19.28114311021272</v>
@@ -5726,22 +5728,22 @@
         </is>
       </c>
       <c r="B20" t="n">
+        <v>749.627473042513</v>
+      </c>
+      <c r="C20" t="n">
+        <v>749.627473042513</v>
+      </c>
+      <c r="D20" t="n">
         <v>506.1786963984129</v>
       </c>
-      <c r="C20" t="n">
+      <c r="E20" t="n">
+        <v>506.1786963984129</v>
+      </c>
+      <c r="F20" t="n">
         <v>262.7299197543128</v>
       </c>
-      <c r="D20" t="n">
+      <c r="G20" t="n">
         <v>262.7299197543128</v>
-      </c>
-      <c r="E20" t="n">
-        <v>262.7299197543128</v>
-      </c>
-      <c r="F20" t="n">
-        <v>19.28114311021272</v>
-      </c>
-      <c r="G20" t="n">
-        <v>19.28114311021272</v>
       </c>
       <c r="H20" t="n">
         <v>19.28114311021272</v>
@@ -5771,31 +5773,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q20" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R20" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S20" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T20" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U20" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="V20" t="n">
-        <v>749.627473042513</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="W20" t="n">
-        <v>749.627473042513</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="X20" t="n">
-        <v>749.627473042513</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="Y20" t="n">
-        <v>506.1786963984129</v>
+        <v>953.9655401424092</v>
       </c>
     </row>
     <row r="21">
@@ -5805,25 +5807,25 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>55.04605772994853</v>
+        <v>415.3527852316268</v>
       </c>
       <c r="C21" t="n">
-        <v>55.04605772994853</v>
+        <v>415.3527852316268</v>
       </c>
       <c r="D21" t="n">
-        <v>55.04605772994853</v>
+        <v>415.3527852316268</v>
       </c>
       <c r="E21" t="n">
-        <v>55.04605772994853</v>
+        <v>256.1153302261713</v>
       </c>
       <c r="F21" t="n">
-        <v>19.28114311021272</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="G21" t="n">
-        <v>19.28114311021272</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="H21" t="n">
-        <v>19.28114311021272</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="I21" t="n">
         <v>19.28114311021272</v>
@@ -5838,10 +5840,10 @@
         <v>249.2442489785619</v>
       </c>
       <c r="M21" t="n">
-        <v>487.8483949674443</v>
+        <v>486.8488635328713</v>
       </c>
       <c r="N21" t="n">
-        <v>726.4525409563269</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O21" t="n">
         <v>964.0571555106362</v>
@@ -5859,22 +5861,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T21" t="n">
-        <v>761.8705608694022</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U21" t="n">
-        <v>533.6469426057913</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V21" t="n">
-        <v>298.4948343740486</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="W21" t="n">
-        <v>55.04605772994853</v>
+        <v>415.3527852316268</v>
       </c>
       <c r="X21" t="n">
-        <v>55.04605772994853</v>
+        <v>415.3527852316268</v>
       </c>
       <c r="Y21" t="n">
-        <v>55.04605772994853</v>
+        <v>415.3527852316268</v>
       </c>
     </row>
     <row r="22">
@@ -5935,7 +5937,7 @@
         <v>153.8134336004835</v>
       </c>
       <c r="S22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T22" t="n">
         <v>19.28114311021272</v>
@@ -5963,22 +5965,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C23" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D23" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E23" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F23" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G23" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H23" t="n">
         <v>19.28114311021272</v>
@@ -6014,25 +6016,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S23" t="n">
-        <v>964.0571555106362</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="T23" t="n">
-        <v>964.0571555106362</v>
+        <v>527.5764290961142</v>
       </c>
       <c r="U23" t="n">
-        <v>964.0571555106362</v>
+        <v>284.1276524520142</v>
       </c>
       <c r="V23" t="n">
-        <v>964.0571555106362</v>
+        <v>284.1276524520142</v>
       </c>
       <c r="W23" t="n">
-        <v>749.627473042513</v>
+        <v>284.1276524520142</v>
       </c>
       <c r="X23" t="n">
-        <v>506.1786963984129</v>
+        <v>284.1276524520142</v>
       </c>
       <c r="Y23" t="n">
-        <v>262.7299197543128</v>
+        <v>40.6788758079141</v>
       </c>
     </row>
     <row r="24">
@@ -6042,46 +6044,46 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>325.0531560887832</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="C24" t="n">
-        <v>325.0531560887832</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="D24" t="n">
-        <v>325.0531560887832</v>
+        <v>668.2068788942177</v>
       </c>
       <c r="E24" t="n">
-        <v>165.8157010833278</v>
+        <v>508.9694238887622</v>
       </c>
       <c r="F24" t="n">
-        <v>19.28114311021272</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="G24" t="n">
-        <v>19.28114311021272</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="H24" t="n">
-        <v>19.28114311021272</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I24" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J24" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K24" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L24" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M24" t="n">
-        <v>542.809531908403</v>
+        <v>486.8488635328713</v>
       </c>
       <c r="N24" t="n">
-        <v>542.809531908403</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O24" t="n">
-        <v>781.4136778972854</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P24" t="n">
         <v>964.0571555106362</v>
@@ -6090,28 +6092,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R24" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S24" t="n">
-        <v>689.4702815141908</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T24" t="n">
-        <v>487.2836868729568</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="U24" t="n">
-        <v>487.2836868729568</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="V24" t="n">
-        <v>325.0531560887832</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="W24" t="n">
-        <v>325.0531560887832</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="X24" t="n">
-        <v>325.0531560887832</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="Y24" t="n">
-        <v>325.0531560887832</v>
+        <v>790.6398109613051</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L25" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M25" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N25" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O25" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P25" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q25" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R25" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S25" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T25" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U25" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V25" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W25" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X25" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="26">
@@ -6200,22 +6202,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>262.7299197543128</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C26" t="n">
-        <v>262.7299197543128</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="D26" t="n">
-        <v>262.7299197543128</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="E26" t="n">
-        <v>262.7299197543128</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="F26" t="n">
         <v>262.7299197543128</v>
       </c>
       <c r="G26" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H26" t="n">
         <v>19.28114311021272</v>
@@ -6254,22 +6256,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T26" t="n">
-        <v>964.0571555106362</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="U26" t="n">
-        <v>964.0571555106362</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="V26" t="n">
-        <v>964.0571555106362</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="W26" t="n">
-        <v>749.627473042513</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="X26" t="n">
+        <v>738.7078125165641</v>
+      </c>
+      <c r="Y26" t="n">
         <v>506.1786963984129</v>
-      </c>
-      <c r="Y26" t="n">
-        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="27">
@@ -6279,76 +6281,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>137.1529394704382</v>
+        <v>511.3692755768984</v>
       </c>
       <c r="C27" t="n">
-        <v>137.1529394704382</v>
+        <v>511.3692755768984</v>
       </c>
       <c r="D27" t="n">
-        <v>137.1529394704382</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="E27" t="n">
-        <v>19.28114311021272</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="F27" t="n">
-        <v>19.28114311021272</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="G27" t="n">
-        <v>19.28114311021272</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="H27" t="n">
-        <v>19.28114311021272</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I27" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J27" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K27" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L27" t="n">
-        <v>19.28114311021272</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M27" t="n">
-        <v>234.810827406191</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N27" t="n">
-        <v>473.4149733950735</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O27" t="n">
-        <v>712.019119383956</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P27" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q27" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R27" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S27" t="n">
-        <v>790.6398109613051</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T27" t="n">
-        <v>588.4532163200711</v>
+        <v>511.3692755768984</v>
       </c>
       <c r="U27" t="n">
-        <v>588.4532163200711</v>
+        <v>511.3692755768984</v>
       </c>
       <c r="V27" t="n">
-        <v>588.4532163200711</v>
+        <v>511.3692755768984</v>
       </c>
       <c r="W27" t="n">
-        <v>345.004439675971</v>
+        <v>511.3692755768984</v>
       </c>
       <c r="X27" t="n">
-        <v>137.1529394704382</v>
+        <v>511.3692755768984</v>
       </c>
       <c r="Y27" t="n">
-        <v>137.1529394704382</v>
+        <v>511.3692755768984</v>
       </c>
     </row>
     <row r="28">
@@ -6358,16 +6360,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C28" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D28" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E28" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F28" t="n">
         <v>19.28114311021272</v>
@@ -6418,16 +6420,16 @@
         <v>153.8134336004835</v>
       </c>
       <c r="V28" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W28" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X28" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y28" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="29">
@@ -6437,13 +6439,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C29" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D29" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E29" t="n">
         <v>19.28114311021272</v>
@@ -6482,31 +6484,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q29" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R29" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S29" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T29" t="n">
-        <v>738.7078125165641</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U29" t="n">
-        <v>495.259035872464</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="V29" t="n">
-        <v>251.810259228364</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="W29" t="n">
-        <v>251.810259228364</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="X29" t="n">
-        <v>19.28114311021272</v>
+        <v>749.627473042513</v>
       </c>
       <c r="Y29" t="n">
-        <v>19.28114311021272</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="30">
@@ -6516,28 +6518,28 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>20.03527576299844</v>
+        <v>55.04605772994853</v>
       </c>
       <c r="C30" t="n">
-        <v>20.03527576299844</v>
+        <v>55.04605772994853</v>
       </c>
       <c r="D30" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E30" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F30" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G30" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H30" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I30" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J30" t="n">
         <v>19.28114311021272</v>
@@ -6546,19 +6548,19 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L30" t="n">
-        <v>304.2053859195205</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M30" t="n">
-        <v>304.2053859195205</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N30" t="n">
-        <v>542.809531908403</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="O30" t="n">
-        <v>781.4136778972854</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="P30" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q30" t="n">
         <v>964.0571555106362</v>
@@ -6570,22 +6572,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T30" t="n">
-        <v>934.6200776674061</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="U30" t="n">
-        <v>706.3964594037951</v>
+        <v>533.6469426057913</v>
       </c>
       <c r="V30" t="n">
-        <v>471.2443511720524</v>
+        <v>298.4948343740486</v>
       </c>
       <c r="W30" t="n">
-        <v>227.7955745279523</v>
+        <v>55.04605772994853</v>
       </c>
       <c r="X30" t="n">
-        <v>227.7955745279523</v>
+        <v>55.04605772994853</v>
       </c>
       <c r="Y30" t="n">
-        <v>20.03527576299844</v>
+        <v>55.04605772994853</v>
       </c>
     </row>
     <row r="31">
@@ -6655,10 +6657,10 @@
         <v>153.8134336004835</v>
       </c>
       <c r="V31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X31" t="n">
         <v>19.28114311021272</v>
@@ -6674,16 +6676,16 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>749.627473042513</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C32" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D32" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E32" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F32" t="n">
         <v>19.28114311021272</v>
@@ -6725,25 +6727,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S32" t="n">
-        <v>752.9257720901863</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T32" t="n">
-        <v>749.627473042513</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U32" t="n">
-        <v>749.627473042513</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V32" t="n">
-        <v>749.627473042513</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W32" t="n">
-        <v>749.627473042513</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X32" t="n">
         <v>749.627473042513</v>
       </c>
       <c r="Y32" t="n">
-        <v>749.627473042513</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="33">
@@ -6753,7 +6755,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>19.28114311021272</v>
+        <v>131.5792353467183</v>
       </c>
       <c r="C33" t="n">
         <v>19.28114311021272</v>
@@ -6783,19 +6785,19 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L33" t="n">
-        <v>304.2053859195205</v>
+        <v>178.8501590306595</v>
       </c>
       <c r="M33" t="n">
-        <v>304.2053859195205</v>
+        <v>417.4543050195419</v>
       </c>
       <c r="N33" t="n">
-        <v>542.809531908403</v>
+        <v>656.0584510084244</v>
       </c>
       <c r="O33" t="n">
-        <v>781.4136778972854</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="P33" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q33" t="n">
         <v>964.0571555106362</v>
@@ -6804,25 +6806,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S33" t="n">
-        <v>964.0571555106362</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T33" t="n">
-        <v>906.5653369884105</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="U33" t="n">
-        <v>678.3417187247995</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="V33" t="n">
-        <v>678.3417187247995</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="W33" t="n">
-        <v>434.8929420806995</v>
+        <v>547.1910343172051</v>
       </c>
       <c r="X33" t="n">
-        <v>227.0414418751666</v>
+        <v>339.3395341116723</v>
       </c>
       <c r="Y33" t="n">
-        <v>19.28114311021272</v>
+        <v>131.5792353467183</v>
       </c>
     </row>
     <row r="34">
@@ -6895,7 +6897,7 @@
         <v>153.8134336004835</v>
       </c>
       <c r="W34" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X34" t="n">
         <v>19.28114311021272</v>
@@ -6911,13 +6913,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>262.7299197543128</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C35" t="n">
         <v>262.7299197543128</v>
       </c>
       <c r="D35" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E35" t="n">
         <v>19.28114311021272</v>
@@ -6971,16 +6973,16 @@
         <v>964.0571555106362</v>
       </c>
       <c r="V35" t="n">
-        <v>720.6083788665362</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W35" t="n">
-        <v>720.6083788665362</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X35" t="n">
-        <v>506.1786963984129</v>
+        <v>749.627473042513</v>
       </c>
       <c r="Y35" t="n">
-        <v>262.7299197543128</v>
+        <v>749.627473042513</v>
       </c>
     </row>
     <row r="36">
@@ -6990,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="C36" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D36" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E36" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F36" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G36" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H36" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I36" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J36" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K36" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L36" t="n">
-        <v>178.8501590306595</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M36" t="n">
-        <v>417.4543050195419</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="N36" t="n">
-        <v>656.0584510084244</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O36" t="n">
-        <v>894.6625969973069</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P36" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q36" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R36" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S36" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T36" t="n">
-        <v>487.2836868729568</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U36" t="n">
-        <v>259.0600686093459</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V36" t="n">
-        <v>23.90796037760316</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="W36" t="n">
-        <v>19.28114311021272</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="X36" t="n">
-        <v>19.28114311021272</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="Y36" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
     </row>
     <row r="37">
@@ -7069,7 +7071,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C37" t="n">
         <v>19.28114311021272</v>
@@ -7123,22 +7125,22 @@
         <v>153.8134336004835</v>
       </c>
       <c r="T37" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U37" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V37" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W37" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X37" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y37" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="38">
@@ -7151,7 +7153,7 @@
         <v>506.1786963984129</v>
       </c>
       <c r="C38" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D38" t="n">
         <v>262.7299197543128</v>
@@ -7160,10 +7162,10 @@
         <v>262.7299197543128</v>
       </c>
       <c r="F38" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G38" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="H38" t="n">
         <v>19.28114311021272</v>
@@ -7193,13 +7195,13 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q38" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R38" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S38" t="n">
-        <v>749.627473042513</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T38" t="n">
         <v>749.627473042513</v>
@@ -7208,13 +7210,13 @@
         <v>749.627473042513</v>
       </c>
       <c r="V38" t="n">
-        <v>506.1786963984129</v>
+        <v>749.627473042513</v>
       </c>
       <c r="W38" t="n">
-        <v>506.1786963984129</v>
+        <v>749.627473042513</v>
       </c>
       <c r="X38" t="n">
-        <v>506.1786963984129</v>
+        <v>749.627473042513</v>
       </c>
       <c r="Y38" t="n">
         <v>506.1786963984129</v>
@@ -7257,10 +7259,10 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L39" t="n">
-        <v>304.2053859195205</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M39" t="n">
-        <v>304.2053859195205</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="N39" t="n">
         <v>542.809531908403</v>
@@ -7278,7 +7280,7 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S39" t="n">
-        <v>838.3237222782232</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T39" t="n">
         <v>838.3237222782232</v>
@@ -7306,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="C40" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="D40" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="E40" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="F40" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="G40" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="H40" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="I40" t="n">
         <v>829.5248650203655</v>
@@ -7354,28 +7356,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R40" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="S40" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="T40" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="U40" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="V40" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="W40" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="X40" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="Y40" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
     </row>
     <row r="41">
@@ -7385,28 +7387,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>761.6974622895962</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C41" t="n">
-        <v>761.6974622895962</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D41" t="n">
-        <v>761.6974622895962</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E41" t="n">
-        <v>518.2486856454962</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F41" t="n">
-        <v>274.7999090013961</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G41" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H41" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I41" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J41" t="n">
         <v>19.28114311021272</v>
@@ -7451,10 +7453,10 @@
         <v>964.0571555106362</v>
       </c>
       <c r="X41" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="Y41" t="n">
-        <v>761.6974622895962</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="42">
@@ -7464,49 +7466,49 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>193.7341723913397</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C42" t="n">
-        <v>19.28114311021272</v>
+        <v>817.1412885554689</v>
       </c>
       <c r="D42" t="n">
-        <v>19.28114311021272</v>
+        <v>668.2068788942177</v>
       </c>
       <c r="E42" t="n">
-        <v>19.28114311021272</v>
+        <v>508.9694238887622</v>
       </c>
       <c r="F42" t="n">
-        <v>19.28114311021272</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="G42" t="n">
-        <v>19.28114311021272</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="H42" t="n">
-        <v>19.28114311021272</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I42" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J42" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K42" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L42" t="n">
-        <v>374.6018090363993</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="M42" t="n">
-        <v>542.809531908403</v>
+        <v>257.8852890990952</v>
       </c>
       <c r="N42" t="n">
-        <v>542.809531908403</v>
+        <v>496.4894350879777</v>
       </c>
       <c r="O42" t="n">
-        <v>781.4136778972854</v>
+        <v>735.0935810768601</v>
       </c>
       <c r="P42" t="n">
-        <v>964.0571555106362</v>
+        <v>917.7370586902109</v>
       </c>
       <c r="Q42" t="n">
         <v>964.0571555106362</v>
@@ -7515,25 +7517,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S42" t="n">
-        <v>847.1298424416277</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T42" t="n">
-        <v>644.9432478003937</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U42" t="n">
-        <v>644.9432478003937</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V42" t="n">
-        <v>644.9432478003937</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W42" t="n">
-        <v>401.4944711562937</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X42" t="n">
-        <v>401.4944711562937</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y42" t="n">
-        <v>193.7341723913397</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="43">
@@ -7622,28 +7624,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>72.23626279480629</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C44" t="n">
-        <v>72.23626279480629</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="D44" t="n">
-        <v>72.23626279480629</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="E44" t="n">
-        <v>72.23626279480629</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="F44" t="n">
-        <v>72.23626279480629</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G44" t="n">
-        <v>72.23626279480629</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H44" t="n">
-        <v>72.23626279480629</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I44" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J44" t="n">
         <v>19.28114311021272</v>
@@ -7670,28 +7672,28 @@
         <v>953.9655401424092</v>
       </c>
       <c r="R44" t="n">
-        <v>802.5825927271064</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S44" t="n">
-        <v>802.5825927271064</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T44" t="n">
-        <v>802.5825927271064</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U44" t="n">
-        <v>559.1338160830064</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="V44" t="n">
-        <v>315.6850394389064</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="W44" t="n">
-        <v>72.23626279480629</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="X44" t="n">
-        <v>72.23626279480629</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="Y44" t="n">
-        <v>72.23626279480629</v>
+        <v>749.627473042513</v>
       </c>
     </row>
     <row r="45">
@@ -7701,46 +7703,46 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>193.7341723913397</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="C45" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D45" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E45" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F45" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G45" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H45" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I45" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J45" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K45" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L45" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M45" t="n">
-        <v>613.2059550252818</v>
+        <v>486.8488635328713</v>
       </c>
       <c r="N45" t="n">
-        <v>781.4136778972854</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O45" t="n">
-        <v>781.4136778972854</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P45" t="n">
         <v>964.0571555106362</v>
@@ -7758,19 +7760,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="U45" t="n">
-        <v>964.0571555106362</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V45" t="n">
-        <v>728.9050472788936</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="W45" t="n">
-        <v>485.4562706347935</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="X45" t="n">
-        <v>485.4562706347935</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="Y45" t="n">
-        <v>277.6959718698396</v>
+        <v>20.03527576299844</v>
       </c>
     </row>
     <row r="46">
@@ -7982,7 +7984,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L2" t="n">
-        <v>417.6612145504505</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M2" t="n">
         <v>449.5135334928325</v>
@@ -8061,19 +8063,19 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>233.2169876979182</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N3" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O3" t="n">
-        <v>383.6105333221035</v>
+        <v>185.8815939223662</v>
       </c>
       <c r="P3" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q3" t="n">
         <v>210.0772877358491</v>
@@ -8216,7 +8218,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K5" t="n">
-        <v>324.1454125711648</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L5" t="n">
         <v>417.6612145504504</v>
@@ -8298,22 +8300,22 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>303.312501347746</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N6" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O6" t="n">
-        <v>383.6105333221035</v>
+        <v>242.4075215744184</v>
       </c>
       <c r="P6" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8453,7 +8455,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K8" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711648</v>
       </c>
       <c r="L8" t="n">
         <v>417.6612145504504</v>
@@ -8541,10 +8543,10 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N9" t="n">
-        <v>371.3463732493024</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O9" t="n">
-        <v>383.6105333221035</v>
+        <v>382.6009056104135</v>
       </c>
       <c r="P9" t="n">
         <v>133.9744074143302</v>
@@ -8690,7 +8692,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K11" t="n">
-        <v>324.1454125711648</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L11" t="n">
         <v>417.6612145504504</v>
@@ -8769,13 +8771,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M12" t="n">
-        <v>383.1483227996774</v>
+        <v>233.2169876979182</v>
       </c>
       <c r="N12" t="n">
         <v>372.3560009609923</v>
@@ -8787,7 +8789,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>186.7697506723097</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -9009,10 +9011,10 @@
         <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M15" t="n">
-        <v>382.1386950879875</v>
+        <v>359.8407857361378</v>
       </c>
       <c r="N15" t="n">
         <v>372.3560009609923</v>
@@ -9021,10 +9023,10 @@
         <v>383.6105333221035</v>
       </c>
       <c r="P15" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9243,25 +9245,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
-        <v>383.1483227996774</v>
+        <v>241.9453110519923</v>
       </c>
       <c r="N18" t="n">
-        <v>371.3463732493024</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O18" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P18" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9486,13 +9488,13 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
-        <v>383.1483227996774</v>
+        <v>382.1386950879875</v>
       </c>
       <c r="N21" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O21" t="n">
-        <v>382.6009056104135</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
@@ -9717,22 +9719,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>312.04082470182</v>
+        <v>382.1386950879875</v>
       </c>
       <c r="N24" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O24" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P24" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
         <v>139.9817740860215</v>
@@ -9954,25 +9956,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
-        <v>359.8407857361378</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N27" t="n">
-        <v>372.3560009609923</v>
+        <v>244.7225752110828</v>
       </c>
       <c r="O27" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P27" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10112,7 +10114,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K29" t="n">
-        <v>324.1454125711648</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L29" t="n">
         <v>417.6612145504504</v>
@@ -10194,22 +10196,22 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>299.7328472056018</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
-        <v>142.1340339220183</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N30" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O30" t="n">
-        <v>383.6105333221035</v>
+        <v>185.8815939223662</v>
       </c>
       <c r="P30" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10431,10 +10433,10 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
-        <v>299.7328472056018</v>
+        <v>173.111405903722</v>
       </c>
       <c r="M33" t="n">
-        <v>142.1340339220183</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N33" t="n">
         <v>372.3560009609923</v>
@@ -10443,10 +10445,10 @@
         <v>383.6105333221035</v>
       </c>
       <c r="P33" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10665,25 +10667,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
-        <v>299.7352039419416</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
-        <v>383.1483227996774</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N36" t="n">
-        <v>372.3560009609923</v>
+        <v>301.248502863135</v>
       </c>
       <c r="O36" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P36" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10823,7 +10825,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K38" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711648</v>
       </c>
       <c r="L38" t="n">
         <v>417.6612145504504</v>
@@ -10905,13 +10907,13 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
-        <v>299.7328472056018</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
         <v>142.1340339220183</v>
       </c>
       <c r="N39" t="n">
-        <v>372.3560009609923</v>
+        <v>301.248502863135</v>
       </c>
       <c r="O39" t="n">
         <v>383.6105333221035</v>
@@ -11139,16 +11141,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M42" t="n">
-        <v>312.04082470182</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N42" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O42" t="n">
         <v>383.6105333221035</v>
@@ -11157,7 +11159,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>186.7697506723097</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11376,22 +11378,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M45" t="n">
-        <v>383.1483227996774</v>
+        <v>382.1386950879875</v>
       </c>
       <c r="N45" t="n">
-        <v>301.2485028631349</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O45" t="n">
-        <v>142.5962444444444</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P45" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
         <v>139.9817740860215</v>
@@ -22589,7 +22591,7 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
         <v>149.8691179411497</v>
@@ -22598,10 +22600,10 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T2" t="n">
-        <v>10.81046392068936</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U2" t="n">
-        <v>251.3456529078365</v>
+        <v>49.05096647893927</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -22626,10 +22628,10 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>27.26179070270013</v>
       </c>
       <c r="D3" t="n">
-        <v>126.3942969708654</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -22671,10 +22673,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T3" t="n">
         <v>200.1647286948216</v>
@@ -22796,16 +22798,16 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>184.4282419190523</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H5" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -22835,19 +22837,19 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T5" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>119.0371437604433</v>
       </c>
       <c r="X5" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -22863,25 +22865,25 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>27.26179070270013</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -22911,22 +22913,22 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S6" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>101.7811932823757</v>
       </c>
       <c r="W6" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
         <v>205.6826957773044</v>
@@ -22984,13 +22986,13 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q7" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>177.2933913771695</v>
       </c>
       <c r="S7" t="n">
-        <v>224.0165980369723</v>
+        <v>176.9916737032986</v>
       </c>
       <c r="T7" t="n">
         <v>227.9455894282815</v>
@@ -23005,7 +23007,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>92.52268780366913</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -23018,10 +23020,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>363.4633956979714</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -23030,10 +23032,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>176.0015501456288</v>
       </c>
       <c r="G8" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H8" t="n">
         <v>98.46051323810809</v>
@@ -23042,7 +23044,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -23087,7 +23089,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -23100,25 +23102,25 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>26.51519937644221</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>77.61948351624041</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>0.7465913262578567</v>
@@ -23148,13 +23150,13 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T9" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
@@ -23163,7 +23165,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
         <v>205.6826957773044</v>
@@ -23197,7 +23199,7 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I10" t="n">
-        <v>155.4504749272583</v>
+        <v>22.26350734189026</v>
       </c>
       <c r="J10" t="n">
         <v>93.35918011667277</v>
@@ -23239,7 +23241,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -23267,16 +23269,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>323.9120779467108</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H11" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J11" t="n">
         <v>11.94928935461252</v>
@@ -23306,16 +23308,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>225.414031377446</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -23337,16 +23339,16 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C12" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>147.4450655646388</v>
+        <v>87.87527408662062</v>
       </c>
       <c r="E12" t="n">
-        <v>33.20744238336374</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
@@ -23382,7 +23384,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S12" t="n">
         <v>171.6831711038378</v>
@@ -23391,7 +23393,7 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U12" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V12" t="n">
         <v>232.8005871494253</v>
@@ -23403,7 +23405,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y12" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -23428,7 +23430,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>167.9909793584588</v>
+        <v>34.80401177309074</v>
       </c>
       <c r="H13" t="n">
         <v>162.2271725074396</v>
@@ -23467,7 +23469,7 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T13" t="n">
-        <v>94.75862184291347</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U13" t="n">
         <v>286.3190293564909</v>
@@ -23492,16 +23494,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
@@ -23510,7 +23512,7 @@
         <v>415.302737515135</v>
       </c>
       <c r="H14" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I14" t="n">
         <v>210.4758895704059</v>
@@ -23543,25 +23545,25 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T14" t="n">
-        <v>219.8305335069347</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U14" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>173.9525530126116</v>
       </c>
     </row>
     <row r="15">
@@ -23571,7 +23573,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>166.5331836498673</v>
+        <v>2.684361223800238</v>
       </c>
       <c r="C15" t="n">
         <v>172.7084989883157</v>
@@ -23589,13 +23591,13 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H15" t="n">
-        <v>34.30853052353729</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -23628,19 +23630,19 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U15" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V15" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W15" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X15" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y15" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -23692,13 +23694,13 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R16" t="n">
-        <v>132.9899077786023</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S16" t="n">
         <v>224.0165980369723</v>
@@ -23710,7 +23712,7 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>118.95067573846</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -23741,19 +23743,19 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G17" t="n">
         <v>174.288448637476</v>
       </c>
       <c r="H17" t="n">
-        <v>127.189416472325</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I17" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>11.94928935461252</v>
+        <v>10.13979328157633</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -23792,10 +23794,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
         <v>386.2379386560536</v>
@@ -23811,28 +23813,28 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C18" t="n">
-        <v>172.7084989883157</v>
+        <v>27.26179070270013</v>
       </c>
       <c r="D18" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>132.7629680684941</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -23856,19 +23858,19 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V18" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W18" t="n">
         <v>251.6949831609196</v>
@@ -23941,10 +23943,10 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T19" t="n">
-        <v>94.75862184291347</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U19" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -23966,13 +23968,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>180.4391552345834</v>
       </c>
       <c r="C20" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E20" t="n">
         <v>381.9303700722618</v>
@@ -23984,7 +23986,7 @@
         <v>415.302737515135</v>
       </c>
       <c r="H20" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I20" t="n">
         <v>210.4758895704059</v>
@@ -24011,7 +24013,7 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
         <v>149.8691179411497</v>
@@ -24026,7 +24028,7 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V20" t="n">
-        <v>115.4668728266929</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
@@ -24035,7 +24037,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -24054,10 +24056,10 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E21" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>109.6619469198454</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
         <v>137.3435171632106</v>
@@ -24066,7 +24068,7 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I21" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>0.7465913262578567</v>
@@ -24099,7 +24101,7 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U21" t="n">
         <v>0</v>
@@ -24108,7 +24110,7 @@
         <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>10.68069428326055</v>
+        <v>167.2196258151004</v>
       </c>
       <c r="X21" t="n">
         <v>205.7729852034775</v>
@@ -24175,10 +24177,10 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S22" t="n">
-        <v>90.82963045160423</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T22" t="n">
-        <v>227.9455894282815</v>
+        <v>94.75862184291347</v>
       </c>
       <c r="U22" t="n">
         <v>286.3190293564909</v>
@@ -24203,7 +24205,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634806</v>
+        <v>361.5500862927562</v>
       </c>
       <c r="C23" t="n">
         <v>365.2728917710076</v>
@@ -24221,7 +24223,7 @@
         <v>415.302737515135</v>
       </c>
       <c r="H23" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I23" t="n">
         <v>210.4758895704059</v>
@@ -24254,22 +24256,22 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S23" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>136.955583073971</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
         <v>145.2236497783945</v>
@@ -24288,7 +24290,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D24" t="n">
-        <v>147.4450655646388</v>
+        <v>26.23646281822218</v>
       </c>
       <c r="E24" t="n">
         <v>0</v>
@@ -24297,16 +24299,16 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -24330,19 +24332,19 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U24" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V24" t="n">
-        <v>72.19236167309342</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W24" t="n">
         <v>251.6949831609196</v>
@@ -24427,10 +24429,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>92.52268780366916</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>85.39768576672677</v>
       </c>
     </row>
     <row r="26">
@@ -24452,13 +24454,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G26" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H26" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I26" t="n">
         <v>210.4758895704059</v>
@@ -24494,7 +24496,7 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T26" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
         <v>251.3456529078365</v>
@@ -24503,13 +24505,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>136.955583073971</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>145.2236497783945</v>
+        <v>156.0341136990839</v>
       </c>
     </row>
     <row r="27">
@@ -24525,25 +24527,25 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D27" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>40.95200205877775</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F27" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G27" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -24567,13 +24569,13 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>0</v>
+        <v>23.84473281690217</v>
       </c>
       <c r="U27" t="n">
         <v>225.9413820809748</v>
@@ -24582,10 +24584,10 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W27" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X27" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y27" t="n">
         <v>205.6826957773044</v>
@@ -24610,7 +24612,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>12.23408043756322</v>
       </c>
       <c r="G28" t="n">
         <v>167.9909793584588</v>
@@ -24658,7 +24660,7 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V28" t="n">
-        <v>118.95067573846</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -24677,7 +24679,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
@@ -24686,7 +24688,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F29" t="n">
         <v>406.8760457417114</v>
@@ -24722,7 +24724,7 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
         <v>149.8691179411497</v>
@@ -24731,22 +24733,22 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U29" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V29" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>139.5272757214993</v>
+        <v>167.4364142495718</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="30">
@@ -24762,7 +24764,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D30" t="n">
-        <v>147.4450655646388</v>
+        <v>112.0378000911003</v>
       </c>
       <c r="E30" t="n">
         <v>157.6450804554009</v>
@@ -24780,7 +24782,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -24810,7 +24812,7 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T30" t="n">
-        <v>171.0220216300238</v>
+        <v>0</v>
       </c>
       <c r="U30" t="n">
         <v>0</v>
@@ -24825,7 +24827,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y30" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="31">
@@ -24895,13 +24897,13 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V31" t="n">
-        <v>118.95067573846</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>92.52268780366913</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -24914,10 +24916,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C32" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
         <v>354.683041620683</v>
@@ -24926,7 +24928,7 @@
         <v>140.9160811946027</v>
       </c>
       <c r="F32" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
         <v>415.302737515135</v>
@@ -24965,10 +24967,10 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T32" t="n">
-        <v>219.8305335069347</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U32" t="n">
         <v>251.3456529078365</v>
@@ -24980,10 +24982,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>369.731100678469</v>
+        <v>157.445715035027</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="33">
@@ -24996,7 +24998,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C33" t="n">
-        <v>172.7084989883157</v>
+        <v>61.53338767417517</v>
       </c>
       <c r="D33" t="n">
         <v>147.4450655646388</v>
@@ -25044,13 +25046,13 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S33" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>143.2478283578182</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U33" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V33" t="n">
         <v>232.8005871494253</v>
@@ -25135,10 +25137,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>92.52268780366913</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -25151,16 +25153,16 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D35" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E35" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
         <v>406.8760457417114</v>
@@ -25211,16 +25213,16 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V35" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>157.4457150350269</v>
+        <v>157.445715035027</v>
       </c>
       <c r="Y35" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -25254,7 +25256,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J36" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -25278,13 +25280,13 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U36" t="n">
         <v>0</v>
@@ -25293,13 +25295,13 @@
         <v>0</v>
       </c>
       <c r="W36" t="n">
-        <v>247.1144340662031</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X36" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y36" t="n">
-        <v>205.6826957773044</v>
+        <v>176.6302781386796</v>
       </c>
     </row>
     <row r="37">
@@ -25312,7 +25314,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>34.05985351325981</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
@@ -25363,7 +25365,7 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T37" t="n">
-        <v>227.9455894282815</v>
+        <v>94.75862184291347</v>
       </c>
       <c r="U37" t="n">
         <v>286.3190293564909</v>
@@ -25391,22 +25393,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D38" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
         <v>415.302737515135</v>
       </c>
       <c r="H38" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I38" t="n">
         <v>210.4758895704059</v>
@@ -25433,22 +25435,22 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S38" t="n">
-        <v>156.5945010984978</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T38" t="n">
-        <v>223.0958495641314</v>
+        <v>10.81046392068936</v>
       </c>
       <c r="U38" t="n">
         <v>251.3456529078365</v>
       </c>
       <c r="V38" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
         <v>349.240968717413</v>
@@ -25457,7 +25459,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="39">
@@ -25518,10 +25520,10 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S39" t="n">
-        <v>47.20707220374889</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T39" t="n">
-        <v>200.1647286948216</v>
+        <v>75.68862979473268</v>
       </c>
       <c r="U39" t="n">
         <v>0</v>
@@ -25567,7 +25569,7 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I40" t="n">
-        <v>22.26350734189029</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J40" t="n">
         <v>93.35918011667277</v>
@@ -25594,7 +25596,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R40" t="n">
-        <v>177.2933913771695</v>
+        <v>44.10642379180149</v>
       </c>
       <c r="S40" t="n">
         <v>224.0165980369723</v>
@@ -25625,7 +25627,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
@@ -25634,13 +25636,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
         <v>165.8617568640524</v>
       </c>
       <c r="G41" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H41" t="n">
         <v>339.4748021157671</v>
@@ -25649,7 +25651,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
@@ -25691,10 +25693,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>369.731100678469</v>
+        <v>157.445715035027</v>
       </c>
       <c r="Y41" t="n">
-        <v>185.9018423672239</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="42">
@@ -25707,28 +25709,28 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>27.26179070270013</v>
       </c>
       <c r="D42" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -25755,10 +25757,10 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S42" t="n">
-        <v>55.9251311655194</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T42" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U42" t="n">
         <v>225.9413820809748</v>
@@ -25767,13 +25769,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W42" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X42" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y42" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="43">
@@ -25862,7 +25864,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C44" t="n">
         <v>365.2728917710076</v>
@@ -25874,19 +25876,19 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G44" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H44" t="n">
         <v>339.4748021157671</v>
       </c>
       <c r="I44" t="n">
-        <v>169.9996104372708</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -25910,7 +25912,7 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S44" t="n">
         <v>209.0200695862453</v>
@@ -25919,19 +25921,19 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U44" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V44" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>386.2379386560536</v>
+        <v>183.9432522271564</v>
       </c>
     </row>
     <row r="45">
@@ -25941,10 +25943,10 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>83.4110021661525</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D45" t="n">
         <v>147.4450655646388</v>
@@ -25965,7 +25967,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J45" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -25998,7 +26000,7 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U45" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -26007,10 +26009,10 @@
         <v>10.68069428326055</v>
       </c>
       <c r="X45" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y45" t="n">
-        <v>0</v>
+        <v>176.6302781386796</v>
       </c>
     </row>
     <row r="46">
@@ -26139,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>490233.5289125027</v>
+        <v>490233.5289125028</v>
       </c>
     </row>
     <row r="5">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>490233.5289125026</v>
+        <v>490233.5289125028</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>490233.5289125026</v>
+        <v>490233.5289125028</v>
       </c>
     </row>
     <row r="9">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>490233.5289125027</v>
+        <v>490233.5289125028</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>490233.5289125026</v>
+        <v>490233.5289125028</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>490233.5289125027</v>
+        <v>490233.5289125026</v>
       </c>
     </row>
   </sheetData>
@@ -26311,43 +26313,43 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>99696.40351879937</v>
+        <v>99696.40351879939</v>
       </c>
       <c r="C2" t="n">
+        <v>99696.40351879939</v>
+      </c>
+      <c r="D2" t="n">
         <v>99696.4035187994</v>
       </c>
-      <c r="D2" t="n">
+      <c r="E2" t="n">
         <v>99696.40351879939</v>
       </c>
-      <c r="E2" t="n">
-        <v>99696.40351879942</v>
-      </c>
       <c r="F2" t="n">
-        <v>99696.40351879939</v>
+        <v>99696.40351879936</v>
       </c>
       <c r="G2" t="n">
         <v>99696.40351879936</v>
       </c>
       <c r="H2" t="n">
+        <v>99696.4035187994</v>
+      </c>
+      <c r="I2" t="n">
+        <v>99696.40351879936</v>
+      </c>
+      <c r="J2" t="n">
         <v>99696.40351879939</v>
       </c>
-      <c r="I2" t="n">
+      <c r="K2" t="n">
+        <v>99696.40351879937</v>
+      </c>
+      <c r="L2" t="n">
+        <v>99696.4035187994</v>
+      </c>
+      <c r="M2" t="n">
+        <v>99696.40351879937</v>
+      </c>
+      <c r="N2" t="n">
         <v>99696.40351879939</v>
-      </c>
-      <c r="J2" t="n">
-        <v>99696.4035187994</v>
-      </c>
-      <c r="K2" t="n">
-        <v>99696.40351879939</v>
-      </c>
-      <c r="L2" t="n">
-        <v>99696.40351879937</v>
-      </c>
-      <c r="M2" t="n">
-        <v>99696.40351879939</v>
-      </c>
-      <c r="N2" t="n">
-        <v>99696.40351879937</v>
       </c>
       <c r="O2" t="n">
         <v>99696.40351879937</v>
@@ -26363,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>80769.43153154774</v>
+        <v>80769.43153154773</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26418,7 +26420,7 @@
         <v>8547.111069342402</v>
       </c>
       <c r="C4" t="n">
-        <v>8547.111069342403</v>
+        <v>8547.111069342402</v>
       </c>
       <c r="D4" t="n">
         <v>8547.111069342402</v>
@@ -26433,13 +26435,13 @@
         <v>8547.111069342402</v>
       </c>
       <c r="H4" t="n">
+        <v>8547.111069342402</v>
+      </c>
+      <c r="I4" t="n">
+        <v>8547.111069342402</v>
+      </c>
+      <c r="J4" t="n">
         <v>8547.111069342403</v>
-      </c>
-      <c r="I4" t="n">
-        <v>8547.111069342403</v>
-      </c>
-      <c r="J4" t="n">
-        <v>8547.111069342402</v>
       </c>
       <c r="K4" t="n">
         <v>8547.111069342402</v>
@@ -26454,10 +26456,10 @@
         <v>8547.111069342402</v>
       </c>
       <c r="O4" t="n">
-        <v>8547.111069342403</v>
+        <v>8547.111069342402</v>
       </c>
       <c r="P4" t="n">
-        <v>8547.111069342403</v>
+        <v>8547.111069342402</v>
       </c>
     </row>
     <row r="5">
@@ -26519,43 +26521,43 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-37901.40784585245</v>
+        <v>-37901.40784585242</v>
       </c>
       <c r="C6" t="n">
+        <v>42868.02368569532</v>
+      </c>
+      <c r="D6" t="n">
         <v>42868.02368569533</v>
       </c>
-      <c r="D6" t="n">
-        <v>42868.02368569532</v>
-      </c>
       <c r="E6" t="n">
-        <v>76495.62368569535</v>
+        <v>76495.62368569532</v>
       </c>
       <c r="F6" t="n">
-        <v>76495.62368569532</v>
+        <v>76495.62368569529</v>
       </c>
       <c r="G6" t="n">
         <v>76495.62368569529</v>
       </c>
       <c r="H6" t="n">
+        <v>76495.62368569533</v>
+      </c>
+      <c r="I6" t="n">
+        <v>76495.62368569529</v>
+      </c>
+      <c r="J6" t="n">
+        <v>13435.68108658908</v>
+      </c>
+      <c r="K6" t="n">
+        <v>76495.6236856953</v>
+      </c>
+      <c r="L6" t="n">
+        <v>76495.62368569533</v>
+      </c>
+      <c r="M6" t="n">
+        <v>76495.6236856953</v>
+      </c>
+      <c r="N6" t="n">
         <v>76495.62368569532</v>
-      </c>
-      <c r="I6" t="n">
-        <v>76495.62368569532</v>
-      </c>
-      <c r="J6" t="n">
-        <v>13435.6810865891</v>
-      </c>
-      <c r="K6" t="n">
-        <v>76495.62368569532</v>
-      </c>
-      <c r="L6" t="n">
-        <v>76495.6236856953</v>
-      </c>
-      <c r="M6" t="n">
-        <v>76495.62368569532</v>
-      </c>
-      <c r="N6" t="n">
-        <v>76495.6236856953</v>
       </c>
       <c r="O6" t="n">
         <v>76495.6236856953</v>
@@ -34781,19 +34783,19 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M3" t="n">
-        <v>91.0829537758999</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N3" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O3" t="n">
-        <v>241.0142888776591</v>
+        <v>43.28534947792182</v>
       </c>
       <c r="P3" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>70.09551364982758</v>
@@ -35018,22 +35020,22 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M6" t="n">
-        <v>161.1784674257276</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N6" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>241.0142888776591</v>
+        <v>99.8112771299739</v>
       </c>
       <c r="P6" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35261,10 +35263,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N9" t="n">
+        <v>241.0142888776591</v>
+      </c>
+      <c r="O9" t="n">
         <v>240.0046611659691</v>
-      </c>
-      <c r="O9" t="n">
-        <v>241.0142888776591</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
@@ -35489,13 +35491,13 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>241.0142888776591</v>
+        <v>91.0829537758999</v>
       </c>
       <c r="N12" t="n">
         <v>241.0142888776591</v>
@@ -35507,7 +35509,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q12" t="n">
-        <v>46.78797658628819</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35729,10 +35731,10 @@
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>240.0046611659691</v>
+        <v>217.7067518141195</v>
       </c>
       <c r="N15" t="n">
         <v>241.0142888776591</v>
@@ -35741,10 +35743,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35963,25 +35965,25 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L18" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M18" t="n">
-        <v>241.0142888776591</v>
+        <v>99.81127712997396</v>
       </c>
       <c r="N18" t="n">
-        <v>240.0046611659691</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36206,13 +36208,13 @@
         <v>232.285965523585</v>
       </c>
       <c r="M21" t="n">
-        <v>241.0142888776591</v>
+        <v>240.0046611659691</v>
       </c>
       <c r="N21" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O21" t="n">
-        <v>240.0046611659691</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36437,22 +36439,22 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M24" t="n">
-        <v>169.9067907798017</v>
+        <v>240.0046611659691</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O24" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P24" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36674,25 +36676,25 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M27" t="n">
-        <v>217.7067518141195</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N27" t="n">
-        <v>241.0142888776591</v>
+        <v>113.3808631277494</v>
       </c>
       <c r="O27" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P27" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36914,22 +36916,22 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L30" t="n">
-        <v>161.1784674257276</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N30" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O30" t="n">
-        <v>241.0142888776591</v>
+        <v>43.28534947792182</v>
       </c>
       <c r="P30" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37151,10 +37153,10 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L33" t="n">
-        <v>161.1784674257276</v>
+        <v>34.55702612384782</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N33" t="n">
         <v>241.0142888776591</v>
@@ -37163,10 +37165,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="P33" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37385,25 +37387,25 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L36" t="n">
-        <v>161.1808241620674</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M36" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>241.0142888776591</v>
+        <v>169.9067907798017</v>
       </c>
       <c r="O36" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q36" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37625,13 +37627,13 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L39" t="n">
-        <v>161.1784674257276</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>241.0142888776591</v>
+        <v>169.9067907798017</v>
       </c>
       <c r="O39" t="n">
         <v>241.0142888776591</v>
@@ -37859,16 +37861,16 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>169.9067907798017</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O42" t="n">
         <v>241.0142888776591</v>
@@ -37877,7 +37879,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>46.78797658628819</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38096,22 +38098,22 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M45" t="n">
+        <v>240.0046611659691</v>
+      </c>
+      <c r="N45" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="N45" t="n">
-        <v>169.9067907798016</v>
-      </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P45" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_1_12.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_1_12.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>439542.8206532585</v>
+        <v>337290.5109663219</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>925399.399451438</v>
+        <v>925399.3994514378</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>18327015.93006067</v>
+        <v>18327015.93006069</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5668630.558955725</v>
+        <v>5668630.558955722</v>
       </c>
     </row>
     <row r="11">
@@ -703,31 +703,31 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U2" t="n">
-        <v>202.2946864288972</v>
+        <v>112.3289263072337</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W2" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -740,28 +740,28 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>145.4467082856156</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -791,22 +791,22 @@
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>35.40726547353844</v>
       </c>
     </row>
     <row r="4">
@@ -858,13 +858,13 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>44.30348359856715</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -895,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -940,7 +940,7 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -949,22 +949,22 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>223.0958495641314</v>
+        <v>202.2946864288972</v>
       </c>
       <c r="U5" t="n">
+        <v>0</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="n">
+        <v>0</v>
+      </c>
+      <c r="X5" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="V5" t="n">
+      <c r="Y5" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="W5" t="n">
-        <v>230.2038249569697</v>
-      </c>
-      <c r="X5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y5" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -977,13 +977,13 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -998,7 +998,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -1025,22 +1025,22 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V6" t="n">
-        <v>131.0193938670496</v>
+        <v>138.0190018740686</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
         <v>0</v>
@@ -1098,13 +1098,13 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>47.02492433367365</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1116,7 +1116,7 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1144,64 +1144,64 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>230.8744955960827</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G8" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>9.990699214544804</v>
+      </c>
+      <c r="R8" t="n">
+        <v>0</v>
+      </c>
+      <c r="S8" t="n">
+        <v>0</v>
+      </c>
+      <c r="T8" t="n">
+        <v>202.2946864288972</v>
+      </c>
+      <c r="U8" t="n">
+        <v>0</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="n">
+        <v>0</v>
+      </c>
+      <c r="X8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y8" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="I8" t="n">
-        <v>210.4758895704059</v>
-      </c>
-      <c r="J8" t="n">
-        <v>11.94928935461252</v>
-      </c>
-      <c r="K8" t="n">
-        <v>0</v>
-      </c>
-      <c r="L8" t="n">
-        <v>0</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" t="n">
-        <v>0</v>
-      </c>
-      <c r="P8" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>0</v>
-      </c>
-      <c r="R8" t="n">
-        <v>0</v>
-      </c>
-      <c r="S8" t="n">
-        <v>0</v>
-      </c>
-      <c r="T8" t="n">
-        <v>0</v>
-      </c>
-      <c r="U8" t="n">
-        <v>0</v>
-      </c>
-      <c r="V8" t="n">
-        <v>0</v>
-      </c>
-      <c r="W8" t="n">
-        <v>0</v>
-      </c>
-      <c r="X8" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y8" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1214,25 +1214,25 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>146.1932996118735</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1268,19 +1268,19 @@
         <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>29.79900896488263</v>
       </c>
     </row>
     <row r="10">
@@ -1311,49 +1311,49 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0</v>
+      </c>
+      <c r="O10" t="n">
+        <v>0</v>
+      </c>
+      <c r="P10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>0</v>
+      </c>
+      <c r="R10" t="n">
+        <v>0</v>
+      </c>
+      <c r="S10" t="n">
+        <v>0</v>
+      </c>
+      <c r="T10" t="n">
+        <v>0</v>
+      </c>
+      <c r="U10" t="n">
+        <v>0</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="J10" t="n">
-        <v>0</v>
-      </c>
-      <c r="K10" t="n">
-        <v>0</v>
-      </c>
-      <c r="L10" t="n">
-        <v>0</v>
-      </c>
-      <c r="M10" t="n">
-        <v>0</v>
-      </c>
-      <c r="N10" t="n">
-        <v>0</v>
-      </c>
-      <c r="O10" t="n">
-        <v>0</v>
-      </c>
-      <c r="P10" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>0</v>
-      </c>
-      <c r="R10" t="n">
-        <v>0</v>
-      </c>
-      <c r="S10" t="n">
-        <v>0</v>
-      </c>
-      <c r="T10" t="n">
-        <v>0</v>
-      </c>
-      <c r="U10" t="n">
-        <v>0</v>
-      </c>
-      <c r="V10" t="n">
-        <v>0</v>
-      </c>
-      <c r="W10" t="n">
-        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1384,10 +1384,10 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1414,22 +1414,22 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
+        <v>212.285385643442</v>
+      </c>
+      <c r="V11" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="V11" t="n">
-        <v>102.3382270926889</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -1451,28 +1451,28 @@
         <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>59.56979147801813</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -1496,7 +1496,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>65.1306020652372</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -1505,16 +1505,16 @@
         <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V12" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W12" t="n">
         <v>0</v>
       </c>
       <c r="X12" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y12" t="n">
         <v>205.6826957773044</v>
@@ -1542,55 +1542,55 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
+        <v>0</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0</v>
+      </c>
+      <c r="K13" t="n">
+        <v>0</v>
+      </c>
+      <c r="L13" t="n">
+        <v>0</v>
+      </c>
+      <c r="M13" t="n">
+        <v>0</v>
+      </c>
+      <c r="N13" t="n">
+        <v>0</v>
+      </c>
+      <c r="O13" t="n">
+        <v>0</v>
+      </c>
+      <c r="P13" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>0</v>
+      </c>
+      <c r="R13" t="n">
+        <v>0</v>
+      </c>
+      <c r="S13" t="n">
+        <v>0</v>
+      </c>
+      <c r="T13" t="n">
+        <v>0</v>
+      </c>
+      <c r="U13" t="n">
+        <v>0</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
-      <c r="I13" t="n">
-        <v>0</v>
-      </c>
-      <c r="J13" t="n">
-        <v>0</v>
-      </c>
-      <c r="K13" t="n">
-        <v>0</v>
-      </c>
-      <c r="L13" t="n">
-        <v>0</v>
-      </c>
-      <c r="M13" t="n">
-        <v>0</v>
-      </c>
-      <c r="N13" t="n">
-        <v>0</v>
-      </c>
-      <c r="O13" t="n">
-        <v>0</v>
-      </c>
-      <c r="P13" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>0</v>
-      </c>
-      <c r="R13" t="n">
-        <v>0</v>
-      </c>
-      <c r="S13" t="n">
-        <v>0</v>
-      </c>
-      <c r="T13" t="n">
-        <v>0</v>
-      </c>
-      <c r="U13" t="n">
-        <v>0</v>
-      </c>
-      <c r="V13" t="n">
-        <v>0</v>
-      </c>
-      <c r="W13" t="n">
-        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -1609,19 +1609,19 @@
         <v>241.0142888776591</v>
       </c>
       <c r="C14" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>112.3289263072337</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1654,13 +1654,13 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -1675,7 +1675,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>212.285385643442</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1685,7 +1685,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>163.8488224260671</v>
+        <v>0</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
@@ -1694,7 +1694,7 @@
         <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
         <v>0</v>
@@ -1703,13 +1703,13 @@
         <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -1739,16 +1739,16 @@
         <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U15" t="n">
         <v>0</v>
       </c>
       <c r="V15" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W15" t="n">
-        <v>0</v>
+        <v>90.90725545139047</v>
       </c>
       <c r="X15" t="n">
         <v>205.7729852034775</v>
@@ -1815,7 +1815,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -1824,7 +1824,7 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -1855,52 +1855,52 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="H17" t="n">
+        <v>0</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0</v>
+      </c>
+      <c r="O17" t="n">
+        <v>0</v>
+      </c>
+      <c r="P17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>9.990699214544804</v>
+      </c>
+      <c r="R17" t="n">
+        <v>149.8691179411497</v>
+      </c>
+      <c r="S17" t="n">
+        <v>70.34400780127524</v>
+      </c>
+      <c r="T17" t="n">
+        <v>223.0958495641314</v>
+      </c>
+      <c r="U17" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="I17" t="n">
-        <v>210.4758895704059</v>
-      </c>
-      <c r="J17" t="n">
-        <v>1.809496073036188</v>
-      </c>
-      <c r="K17" t="n">
-        <v>0</v>
-      </c>
-      <c r="L17" t="n">
-        <v>0</v>
-      </c>
-      <c r="M17" t="n">
-        <v>0</v>
-      </c>
-      <c r="N17" t="n">
-        <v>0</v>
-      </c>
-      <c r="O17" t="n">
-        <v>0</v>
-      </c>
-      <c r="P17" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>0</v>
-      </c>
-      <c r="R17" t="n">
-        <v>0</v>
-      </c>
-      <c r="S17" t="n">
-        <v>0</v>
-      </c>
-      <c r="T17" t="n">
-        <v>0</v>
-      </c>
-      <c r="U17" t="n">
-        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -1925,28 +1925,28 @@
         <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>145.4467082856156</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -1979,19 +1979,19 @@
         <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>50.05769526855297</v>
       </c>
       <c r="V18" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W18" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X18" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y18" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="19">
@@ -2058,19 +2058,19 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
+        <v>0</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="n">
+        <v>0</v>
+      </c>
+      <c r="X19" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y19" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="V19" t="n">
-        <v>0</v>
-      </c>
-      <c r="W19" t="n">
-        <v>0</v>
-      </c>
-      <c r="X19" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y19" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2080,13 +2080,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>202.2946864288972</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -2095,61 +2095,61 @@
         <v>241.0142888776591</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H20" t="n">
+        <v>0</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0</v>
+      </c>
+      <c r="L20" t="n">
+        <v>0</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0</v>
+      </c>
+      <c r="O20" t="n">
+        <v>0</v>
+      </c>
+      <c r="P20" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>0</v>
+      </c>
+      <c r="R20" t="n">
+        <v>0</v>
+      </c>
+      <c r="S20" t="n">
+        <v>0</v>
+      </c>
+      <c r="T20" t="n">
+        <v>212.285385643442</v>
+      </c>
+      <c r="U20" t="n">
+        <v>0</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="n">
+        <v>0</v>
+      </c>
+      <c r="X20" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y20" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
-      <c r="J20" t="n">
-        <v>0</v>
-      </c>
-      <c r="K20" t="n">
-        <v>0</v>
-      </c>
-      <c r="L20" t="n">
-        <v>0</v>
-      </c>
-      <c r="M20" t="n">
-        <v>0</v>
-      </c>
-      <c r="N20" t="n">
-        <v>0</v>
-      </c>
-      <c r="O20" t="n">
-        <v>0</v>
-      </c>
-      <c r="P20" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>9.990699214544804</v>
-      </c>
-      <c r="R20" t="n">
-        <v>0</v>
-      </c>
-      <c r="S20" t="n">
-        <v>0</v>
-      </c>
-      <c r="T20" t="n">
-        <v>0</v>
-      </c>
-      <c r="U20" t="n">
-        <v>0</v>
-      </c>
-      <c r="V20" t="n">
-        <v>0</v>
-      </c>
-      <c r="W20" t="n">
-        <v>0</v>
-      </c>
-      <c r="X20" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y20" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2168,10 +2168,10 @@
         <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
         <v>0</v>
@@ -2180,7 +2180,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2222,13 +2222,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W21" t="n">
-        <v>84.47535734581926</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X21" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y21" t="n">
-        <v>0</v>
+        <v>29.79900896488263</v>
       </c>
     </row>
     <row r="22">
@@ -2292,16 +2292,16 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
+        <v>0</v>
+      </c>
+      <c r="U22" t="n">
+        <v>0</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="U22" t="n">
-        <v>0</v>
-      </c>
-      <c r="V22" t="n">
-        <v>0</v>
-      </c>
-      <c r="W22" t="n">
-        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -2317,7 +2317,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>21.18375537072436</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
@@ -2335,7 +2335,7 @@
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2365,16 +2365,16 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S23" t="n">
-        <v>209.0200695862453</v>
+        <v>80.33470701582003</v>
       </c>
       <c r="T23" t="n">
         <v>223.0958495641314</v>
       </c>
       <c r="U23" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -2386,7 +2386,7 @@
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2402,25 +2402,25 @@
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>121.2086027464166</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -2447,22 +2447,22 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>29.79900896488251</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V24" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W24" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X24" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y24" t="n">
         <v>0</v>
@@ -2493,7 +2493,7 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2544,7 +2544,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2554,7 +2554,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -2563,67 +2563,67 @@
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F26" t="n">
+        <v>0</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0</v>
+      </c>
+      <c r="H26" t="n">
+        <v>0</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>0</v>
+      </c>
+      <c r="K26" t="n">
+        <v>0</v>
+      </c>
+      <c r="L26" t="n">
+        <v>0</v>
+      </c>
+      <c r="M26" t="n">
+        <v>0</v>
+      </c>
+      <c r="N26" t="n">
+        <v>0</v>
+      </c>
+      <c r="O26" t="n">
+        <v>0</v>
+      </c>
+      <c r="P26" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>0</v>
+      </c>
+      <c r="R26" t="n">
+        <v>0</v>
+      </c>
+      <c r="S26" t="n">
+        <v>0</v>
+      </c>
+      <c r="T26" t="n">
+        <v>212.285385643442</v>
+      </c>
+      <c r="U26" t="n">
+        <v>0</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="G26" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
-        <v>0</v>
-      </c>
-      <c r="K26" t="n">
-        <v>0</v>
-      </c>
-      <c r="L26" t="n">
-        <v>0</v>
-      </c>
-      <c r="M26" t="n">
-        <v>0</v>
-      </c>
-      <c r="N26" t="n">
-        <v>0</v>
-      </c>
-      <c r="O26" t="n">
-        <v>0</v>
-      </c>
-      <c r="P26" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q26" t="n">
-        <v>0</v>
-      </c>
-      <c r="R26" t="n">
-        <v>0</v>
-      </c>
-      <c r="S26" t="n">
-        <v>0</v>
-      </c>
-      <c r="T26" t="n">
-        <v>223.0958495641314</v>
-      </c>
-      <c r="U26" t="n">
-        <v>0</v>
-      </c>
-      <c r="V26" t="n">
-        <v>0</v>
-      </c>
-      <c r="W26" t="n">
-        <v>0</v>
-      </c>
       <c r="X26" t="n">
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>230.2038249569697</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2639,7 +2639,7 @@
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E27" t="n">
         <v>0</v>
@@ -2648,16 +2648,16 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -2681,28 +2681,28 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>100.1578341526431</v>
+        <v>50.05769526855297</v>
       </c>
       <c r="S27" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>176.3199958779194</v>
+        <v>0</v>
       </c>
       <c r="U27" t="n">
         <v>0</v>
       </c>
       <c r="V27" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W27" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X27" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y27" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="28">
@@ -2791,76 +2791,76 @@
         </is>
       </c>
       <c r="B29" t="n">
+        <v>0</v>
+      </c>
+      <c r="C29" t="n">
+        <v>0</v>
+      </c>
+      <c r="D29" t="n">
+        <v>0</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0</v>
+      </c>
+      <c r="H29" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C29" t="n">
-        <v>0</v>
-      </c>
-      <c r="D29" t="n">
-        <v>0</v>
-      </c>
-      <c r="E29" t="n">
+      <c r="I29" t="n">
+        <v>0</v>
+      </c>
+      <c r="J29" t="n">
+        <v>0</v>
+      </c>
+      <c r="K29" t="n">
+        <v>0</v>
+      </c>
+      <c r="L29" t="n">
+        <v>0</v>
+      </c>
+      <c r="M29" t="n">
+        <v>0</v>
+      </c>
+      <c r="N29" t="n">
+        <v>0</v>
+      </c>
+      <c r="O29" t="n">
+        <v>0</v>
+      </c>
+      <c r="P29" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>0</v>
+      </c>
+      <c r="R29" t="n">
+        <v>0</v>
+      </c>
+      <c r="S29" t="n">
+        <v>209.0200695862453</v>
+      </c>
+      <c r="T29" t="n">
+        <v>223.0958495641314</v>
+      </c>
+      <c r="U29" t="n">
+        <v>0</v>
+      </c>
+      <c r="V29" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="F29" t="n">
-        <v>0</v>
-      </c>
-      <c r="G29" t="n">
-        <v>0</v>
-      </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
-      <c r="I29" t="n">
-        <v>0</v>
-      </c>
-      <c r="J29" t="n">
-        <v>0</v>
-      </c>
-      <c r="K29" t="n">
-        <v>0</v>
-      </c>
-      <c r="L29" t="n">
-        <v>0</v>
-      </c>
-      <c r="M29" t="n">
-        <v>0</v>
-      </c>
-      <c r="N29" t="n">
-        <v>0</v>
-      </c>
-      <c r="O29" t="n">
-        <v>0</v>
-      </c>
-      <c r="P29" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q29" t="n">
-        <v>9.990699214544804</v>
-      </c>
-      <c r="R29" t="n">
-        <v>0</v>
-      </c>
-      <c r="S29" t="n">
-        <v>0</v>
-      </c>
-      <c r="T29" t="n">
-        <v>0</v>
-      </c>
-      <c r="U29" t="n">
-        <v>0</v>
-      </c>
-      <c r="V29" t="n">
-        <v>0</v>
-      </c>
       <c r="W29" t="n">
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>202.2946864288972</v>
+        <v>21.18375537072436</v>
       </c>
       <c r="Y29" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -2873,10 +2873,10 @@
         <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D30" t="n">
-        <v>35.40726547353844</v>
+        <v>0</v>
       </c>
       <c r="E30" t="n">
         <v>0</v>
@@ -2921,7 +2921,7 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T30" t="n">
         <v>200.1647286948216</v>
@@ -2930,16 +2930,16 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V30" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W30" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X30" t="n">
         <v>0</v>
       </c>
       <c r="Y30" t="n">
-        <v>0</v>
+        <v>164.8304714084692</v>
       </c>
     </row>
     <row r="31">
@@ -3006,7 +3006,7 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -3015,7 +3015,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -3028,26 +3028,26 @@
         </is>
       </c>
       <c r="B32" t="n">
+        <v>0</v>
+      </c>
+      <c r="C32" t="n">
+        <v>0</v>
+      </c>
+      <c r="D32" t="n">
+        <v>220.2131257424249</v>
+      </c>
+      <c r="E32" t="n">
+        <v>0</v>
+      </c>
+      <c r="F32" t="n">
+        <v>0</v>
+      </c>
+      <c r="G32" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C32" t="n">
-        <v>0</v>
-      </c>
-      <c r="D32" t="n">
-        <v>0</v>
-      </c>
-      <c r="E32" t="n">
+      <c r="H32" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="F32" t="n">
-        <v>0</v>
-      </c>
-      <c r="G32" t="n">
-        <v>0</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
@@ -3073,7 +3073,7 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
@@ -3082,7 +3082,7 @@
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
@@ -3094,10 +3094,10 @@
         <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>212.285385643442</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -3110,7 +3110,7 @@
         <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>111.1751113141406</v>
+        <v>0</v>
       </c>
       <c r="D33" t="n">
         <v>0</v>
@@ -3119,7 +3119,7 @@
         <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G33" t="n">
         <v>0</v>
@@ -3158,25 +3158,25 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T33" t="n">
         <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V33" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W33" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="X33" t="n">
-        <v>205.7729852034775</v>
+        <v>90.50278177497624</v>
       </c>
       <c r="Y33" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -3192,7 +3192,7 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -3252,7 +3252,7 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -3265,73 +3265,73 @@
         </is>
       </c>
       <c r="B35" t="n">
+        <v>0</v>
+      </c>
+      <c r="C35" t="n">
+        <v>0</v>
+      </c>
+      <c r="D35" t="n">
+        <v>0</v>
+      </c>
+      <c r="E35" t="n">
+        <v>0</v>
+      </c>
+      <c r="F35" t="n">
+        <v>0</v>
+      </c>
+      <c r="G35" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C35" t="n">
+      <c r="H35" t="n">
+        <v>0</v>
+      </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>0</v>
+      </c>
+      <c r="K35" t="n">
+        <v>0</v>
+      </c>
+      <c r="L35" t="n">
+        <v>0</v>
+      </c>
+      <c r="M35" t="n">
+        <v>0</v>
+      </c>
+      <c r="N35" t="n">
+        <v>0</v>
+      </c>
+      <c r="O35" t="n">
+        <v>0</v>
+      </c>
+      <c r="P35" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>0</v>
+      </c>
+      <c r="R35" t="n">
+        <v>0</v>
+      </c>
+      <c r="S35" t="n">
+        <v>209.0200695862453</v>
+      </c>
+      <c r="T35" t="n">
+        <v>223.0958495641314</v>
+      </c>
+      <c r="U35" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="D35" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="E35" t="n">
-        <v>0</v>
-      </c>
-      <c r="F35" t="n">
-        <v>0</v>
-      </c>
-      <c r="G35" t="n">
-        <v>0</v>
-      </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="n">
-        <v>0</v>
-      </c>
-      <c r="K35" t="n">
-        <v>0</v>
-      </c>
-      <c r="L35" t="n">
-        <v>0</v>
-      </c>
-      <c r="M35" t="n">
-        <v>0</v>
-      </c>
-      <c r="N35" t="n">
-        <v>0</v>
-      </c>
-      <c r="O35" t="n">
-        <v>0</v>
-      </c>
-      <c r="P35" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q35" t="n">
-        <v>0</v>
-      </c>
-      <c r="R35" t="n">
-        <v>0</v>
-      </c>
-      <c r="S35" t="n">
-        <v>0</v>
-      </c>
-      <c r="T35" t="n">
-        <v>0</v>
-      </c>
-      <c r="U35" t="n">
-        <v>0</v>
-      </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>21.18375537072436</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>212.285385643442</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -3350,19 +3350,19 @@
         <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E36" t="n">
         <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>63.7427579587312</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -3401,7 +3401,7 @@
         <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V36" t="n">
         <v>232.8005871494253</v>
@@ -3410,10 +3410,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="X36" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y36" t="n">
-        <v>29.05241763862477</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -3477,16 +3477,16 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
+        <v>0</v>
+      </c>
+      <c r="U37" t="n">
+        <v>0</v>
+      </c>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="U37" t="n">
-        <v>0</v>
-      </c>
-      <c r="V37" t="n">
-        <v>0</v>
-      </c>
-      <c r="W37" t="n">
-        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -3502,25 +3502,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C38" t="n">
+        <v>0</v>
+      </c>
+      <c r="D38" t="n">
+        <v>0</v>
+      </c>
+      <c r="E38" t="n">
+        <v>0</v>
+      </c>
+      <c r="F38" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="D38" t="n">
-        <v>0</v>
-      </c>
-      <c r="E38" t="n">
-        <v>0</v>
-      </c>
-      <c r="F38" t="n">
-        <v>0</v>
-      </c>
       <c r="G38" t="n">
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3547,16 +3547,16 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>70.34400780127524</v>
       </c>
       <c r="T38" t="n">
-        <v>212.285385643442</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
@@ -3571,7 +3571,7 @@
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -3584,7 +3584,7 @@
         <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D39" t="n">
         <v>0</v>
@@ -3635,16 +3635,16 @@
         <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>124.4760989000889</v>
+        <v>49.3111039422953</v>
       </c>
       <c r="U39" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V39" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W39" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X39" t="n">
         <v>205.7729852034775</v>
@@ -3678,7 +3678,7 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -3739,65 +3739,65 @@
         </is>
       </c>
       <c r="B41" t="n">
+        <v>0</v>
+      </c>
+      <c r="C41" t="n">
+        <v>0</v>
+      </c>
+      <c r="D41" t="n">
+        <v>0</v>
+      </c>
+      <c r="E41" t="n">
+        <v>0</v>
+      </c>
+      <c r="F41" t="n">
+        <v>0</v>
+      </c>
+      <c r="G41" t="n">
+        <v>72.47049842454874</v>
+      </c>
+      <c r="H41" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C41" t="n">
-        <v>0</v>
-      </c>
-      <c r="D41" t="n">
-        <v>0</v>
-      </c>
-      <c r="E41" t="n">
-        <v>0</v>
-      </c>
-      <c r="F41" t="n">
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>11.94928935461252</v>
+      </c>
+      <c r="K41" t="n">
+        <v>0</v>
+      </c>
+      <c r="L41" t="n">
+        <v>0</v>
+      </c>
+      <c r="M41" t="n">
+        <v>0</v>
+      </c>
+      <c r="N41" t="n">
+        <v>0</v>
+      </c>
+      <c r="O41" t="n">
+        <v>0</v>
+      </c>
+      <c r="P41" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>9.990699214544804</v>
+      </c>
+      <c r="R41" t="n">
+        <v>149.8691179411497</v>
+      </c>
+      <c r="S41" t="n">
+        <v>209.0200695862453</v>
+      </c>
+      <c r="T41" t="n">
+        <v>0</v>
+      </c>
+      <c r="U41" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="G41" t="n">
-        <v>0</v>
-      </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
-      <c r="I41" t="n">
-        <v>0</v>
-      </c>
-      <c r="J41" t="n">
-        <v>0</v>
-      </c>
-      <c r="K41" t="n">
-        <v>0</v>
-      </c>
-      <c r="L41" t="n">
-        <v>0</v>
-      </c>
-      <c r="M41" t="n">
-        <v>0</v>
-      </c>
-      <c r="N41" t="n">
-        <v>0</v>
-      </c>
-      <c r="O41" t="n">
-        <v>0</v>
-      </c>
-      <c r="P41" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q41" t="n">
-        <v>0</v>
-      </c>
-      <c r="R41" t="n">
-        <v>0</v>
-      </c>
-      <c r="S41" t="n">
-        <v>0</v>
-      </c>
-      <c r="T41" t="n">
-        <v>0</v>
-      </c>
-      <c r="U41" t="n">
-        <v>0</v>
-      </c>
       <c r="V41" t="n">
         <v>0</v>
       </c>
@@ -3805,10 +3805,10 @@
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>212.285385643442</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3821,25 +3821,25 @@
         <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>145.4467082856156</v>
+        <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>0.7465913262578567</v>
@@ -3872,22 +3872,22 @@
         <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>0</v>
+        <v>64.38401073897953</v>
       </c>
       <c r="U42" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V42" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W42" t="n">
         <v>0</v>
       </c>
       <c r="X42" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y42" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="43">
@@ -3948,13 +3948,13 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -3976,7 +3976,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -3988,7 +3988,7 @@
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
         <v>241.0142888776591</v>
@@ -4000,7 +4000,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -4021,19 +4021,19 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>68.38541766120755</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -4042,10 +4042,10 @@
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="Y44" t="n">
-        <v>202.2946864288972</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4055,31 +4055,31 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C45" t="n">
         <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -4112,19 +4112,19 @@
         <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>225.9413820809748</v>
+        <v>69.05674881342119</v>
       </c>
       <c r="V45" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W45" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X45" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y45" t="n">
-        <v>29.05241763862477</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -4191,13 +4191,13 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -4351,28 +4351,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q2" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R2" t="n">
-        <v>953.9655401424092</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S2" t="n">
-        <v>953.9655401424092</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="T2" t="n">
-        <v>953.9655401424092</v>
+        <v>376.1934816808115</v>
       </c>
       <c r="U2" t="n">
-        <v>749.627473042513</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="V2" t="n">
-        <v>749.627473042513</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W2" t="n">
-        <v>506.1786963984129</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X2" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y2" t="n">
         <v>19.28114311021272</v>
@@ -4385,28 +4385,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C3" t="n">
-        <v>817.1412885554689</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D3" t="n">
-        <v>668.2068788942177</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E3" t="n">
-        <v>508.9694238887622</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F3" t="n">
-        <v>362.4348659156472</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G3" t="n">
-        <v>223.7040404982626</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H3" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I3" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J3" t="n">
         <v>19.28114311021272</v>
@@ -4418,16 +4418,16 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M3" t="n">
-        <v>613.2059550252818</v>
+        <v>486.8488635328713</v>
       </c>
       <c r="N3" t="n">
-        <v>851.8101010141643</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O3" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P3" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q3" t="n">
         <v>964.0571555106362</v>
@@ -4439,22 +4439,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T3" t="n">
-        <v>964.0571555106362</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="U3" t="n">
-        <v>964.0571555106362</v>
+        <v>533.6469426057913</v>
       </c>
       <c r="V3" t="n">
-        <v>964.0571555106362</v>
+        <v>298.4948343740486</v>
       </c>
       <c r="W3" t="n">
-        <v>964.0571555106362</v>
+        <v>55.04605772994853</v>
       </c>
       <c r="X3" t="n">
-        <v>964.0571555106362</v>
+        <v>55.04605772994853</v>
       </c>
       <c r="Y3" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="4">
@@ -4506,22 +4506,22 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P4" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q4" t="n">
-        <v>64.03213664411894</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V4" t="n">
         <v>19.28114311021272</v>
@@ -4588,31 +4588,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q5" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R5" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S5" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T5" t="n">
-        <v>738.7078125165641</v>
+        <v>749.627473042513</v>
       </c>
       <c r="U5" t="n">
-        <v>495.259035872464</v>
+        <v>749.627473042513</v>
       </c>
       <c r="V5" t="n">
-        <v>251.810259228364</v>
+        <v>749.627473042513</v>
       </c>
       <c r="W5" t="n">
-        <v>19.28114311021272</v>
+        <v>749.627473042513</v>
       </c>
       <c r="X5" t="n">
-        <v>19.28114311021272</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="Y5" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="6">
@@ -4622,49 +4622,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>20.03527576299844</v>
+        <v>352.9716273967953</v>
       </c>
       <c r="C6" t="n">
-        <v>20.03527576299844</v>
+        <v>178.5185981156682</v>
       </c>
       <c r="D6" t="n">
-        <v>20.03527576299844</v>
+        <v>178.5185981156682</v>
       </c>
       <c r="E6" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F6" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G6" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H6" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I6" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J6" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K6" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L6" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M6" t="n">
-        <v>613.2059550252818</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N6" t="n">
-        <v>613.2059550252818</v>
+        <v>726.4525409563269</v>
       </c>
       <c r="O6" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P6" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q6" t="n">
         <v>964.0571555106362</v>
@@ -4673,25 +4673,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S6" t="n">
-        <v>790.6398109613051</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T6" t="n">
-        <v>588.4532163200711</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U6" t="n">
-        <v>360.2295980564601</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V6" t="n">
-        <v>227.8867759685313</v>
+        <v>596.4204040408954</v>
       </c>
       <c r="W6" t="n">
-        <v>227.8867759685313</v>
+        <v>352.9716273967953</v>
       </c>
       <c r="X6" t="n">
-        <v>20.03527576299844</v>
+        <v>352.9716273967953</v>
       </c>
       <c r="Y6" t="n">
-        <v>20.03527576299844</v>
+        <v>352.9716273967953</v>
       </c>
     </row>
     <row r="7">
@@ -4746,22 +4746,22 @@
         <v>153.8134336004835</v>
       </c>
       <c r="Q7" t="n">
-        <v>66.78106667958005</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R7" t="n">
-        <v>66.78106667958005</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W7" t="n">
         <v>19.28114311021272</v>
@@ -4780,28 +4780,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>964.0571555106362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C8" t="n">
-        <v>964.0571555106362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="D8" t="n">
-        <v>964.0571555106362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="E8" t="n">
-        <v>964.0571555106362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="F8" t="n">
-        <v>730.8505943024719</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G8" t="n">
-        <v>487.4018176583718</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H8" t="n">
-        <v>243.9530410142718</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I8" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J8" t="n">
         <v>19.28114311021272</v>
@@ -4825,31 +4825,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q8" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R8" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S8" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T8" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="U8" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="V8" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="W8" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="X8" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="Y8" t="n">
-        <v>964.0571555106362</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="9">
@@ -4859,25 +4859,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C9" t="n">
-        <v>816.3871559026832</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D9" t="n">
-        <v>667.4527462414319</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E9" t="n">
-        <v>508.2152912359765</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F9" t="n">
-        <v>361.6807332628614</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G9" t="n">
-        <v>222.9499078454769</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H9" t="n">
-        <v>109.5807722530562</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I9" t="n">
         <v>19.28114311021272</v>
@@ -4892,10 +4892,10 @@
         <v>249.2442489785619</v>
       </c>
       <c r="M9" t="n">
-        <v>487.8483949674443</v>
+        <v>486.8488635328713</v>
       </c>
       <c r="N9" t="n">
-        <v>726.4525409563269</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O9" t="n">
         <v>964.0571555106362</v>
@@ -4916,19 +4916,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="U9" t="n">
-        <v>964.0571555106362</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V9" t="n">
-        <v>964.0571555106362</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="W9" t="n">
-        <v>964.0571555106362</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="X9" t="n">
-        <v>964.0571555106362</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="Y9" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="10">
@@ -4938,25 +4938,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I10" t="n">
         <v>19.28114311021272</v>
@@ -5001,13 +5001,13 @@
         <v>153.8134336004835</v>
       </c>
       <c r="W10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="11">
@@ -5017,22 +5017,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>19.28114311021272</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C11" t="n">
-        <v>19.28114311021272</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="D11" t="n">
-        <v>19.28114311021272</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="E11" t="n">
-        <v>19.28114311021272</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="F11" t="n">
-        <v>19.28114311021272</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="G11" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="H11" t="n">
         <v>19.28114311021272</v>
@@ -5062,31 +5062,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q11" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R11" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S11" t="n">
-        <v>591.4512093066566</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T11" t="n">
-        <v>366.1018663125844</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U11" t="n">
-        <v>122.6530896684844</v>
+        <v>749.627473042513</v>
       </c>
       <c r="V11" t="n">
-        <v>19.28114311021272</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="W11" t="n">
-        <v>19.28114311021272</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="X11" t="n">
-        <v>19.28114311021272</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="Y11" t="n">
-        <v>19.28114311021272</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="12">
@@ -5096,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>756.2968567456824</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C12" t="n">
-        <v>581.8438274645554</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D12" t="n">
-        <v>521.6723209211027</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E12" t="n">
-        <v>362.4348659156472</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F12" t="n">
-        <v>362.4348659156472</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G12" t="n">
-        <v>223.7040404982626</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H12" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I12" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J12" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K12" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L12" t="n">
-        <v>144.6387031680501</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M12" t="n">
-        <v>234.810827406191</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N12" t="n">
-        <v>473.4149733950735</v>
+        <v>726.4525409563269</v>
       </c>
       <c r="O12" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P12" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q12" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R12" t="n">
-        <v>964.0571555106362</v>
+        <v>898.2686685760532</v>
       </c>
       <c r="S12" t="n">
-        <v>964.0571555106362</v>
+        <v>898.2686685760532</v>
       </c>
       <c r="T12" t="n">
-        <v>964.0571555106362</v>
+        <v>898.2686685760532</v>
       </c>
       <c r="U12" t="n">
-        <v>964.0571555106362</v>
+        <v>670.0450503124422</v>
       </c>
       <c r="V12" t="n">
-        <v>964.0571555106362</v>
+        <v>434.8929420806995</v>
       </c>
       <c r="W12" t="n">
-        <v>964.0571555106362</v>
+        <v>434.8929420806995</v>
       </c>
       <c r="X12" t="n">
-        <v>964.0571555106362</v>
+        <v>227.0414418751666</v>
       </c>
       <c r="Y12" t="n">
-        <v>756.2968567456824</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="13">
@@ -5175,19 +5175,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C13" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D13" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E13" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F13" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G13" t="n">
         <v>19.28114311021272</v>
@@ -5238,13 +5238,13 @@
         <v>153.8134336004835</v>
       </c>
       <c r="W13" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X13" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y13" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="14">
@@ -5254,19 +5254,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>506.1786963984129</v>
+        <v>132.7447050367114</v>
       </c>
       <c r="C14" t="n">
-        <v>262.7299197543128</v>
+        <v>132.7447050367114</v>
       </c>
       <c r="D14" t="n">
-        <v>262.7299197543128</v>
+        <v>132.7447050367114</v>
       </c>
       <c r="E14" t="n">
-        <v>19.28114311021272</v>
+        <v>132.7447050367114</v>
       </c>
       <c r="F14" t="n">
-        <v>19.28114311021272</v>
+        <v>132.7447050367114</v>
       </c>
       <c r="G14" t="n">
         <v>19.28114311021272</v>
@@ -5302,28 +5302,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R14" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S14" t="n">
-        <v>964.0571555106362</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="T14" t="n">
-        <v>964.0571555106362</v>
+        <v>376.1934816808115</v>
       </c>
       <c r="U14" t="n">
-        <v>964.0571555106362</v>
+        <v>376.1934816808115</v>
       </c>
       <c r="V14" t="n">
-        <v>964.0571555106362</v>
+        <v>376.1934816808115</v>
       </c>
       <c r="W14" t="n">
-        <v>964.0571555106362</v>
+        <v>376.1934816808115</v>
       </c>
       <c r="X14" t="n">
-        <v>964.0571555106362</v>
+        <v>376.1934816808115</v>
       </c>
       <c r="Y14" t="n">
-        <v>749.627473042513</v>
+        <v>376.1934816808115</v>
       </c>
     </row>
     <row r="15">
@@ -5333,28 +5333,28 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>382.9414955037181</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C15" t="n">
-        <v>382.9414955037181</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D15" t="n">
-        <v>382.9414955037181</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E15" t="n">
-        <v>223.7040404982626</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F15" t="n">
-        <v>223.7040404982626</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G15" t="n">
-        <v>223.7040404982626</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H15" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I15" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J15" t="n">
         <v>19.28114311021272</v>
@@ -5363,19 +5363,19 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L15" t="n">
-        <v>19.28114311021272</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M15" t="n">
-        <v>234.810827406191</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N15" t="n">
-        <v>473.4149733950735</v>
+        <v>726.4525409563269</v>
       </c>
       <c r="O15" t="n">
-        <v>712.019119383956</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P15" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q15" t="n">
         <v>964.0571555106362</v>
@@ -5387,22 +5387,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T15" t="n">
-        <v>964.0571555106362</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="U15" t="n">
-        <v>964.0571555106362</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="V15" t="n">
-        <v>964.0571555106362</v>
+        <v>526.7184526376595</v>
       </c>
       <c r="W15" t="n">
-        <v>964.0571555106362</v>
+        <v>434.8929420806995</v>
       </c>
       <c r="X15" t="n">
-        <v>756.2056553051034</v>
+        <v>227.0414418751666</v>
       </c>
       <c r="Y15" t="n">
-        <v>548.4453565401495</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="16">
@@ -5463,13 +5463,13 @@
         <v>153.8134336004835</v>
       </c>
       <c r="S16" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T16" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U16" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V16" t="n">
         <v>19.28114311021272</v>
@@ -5491,28 +5491,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>964.0571555106362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C17" t="n">
-        <v>964.0571555106362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D17" t="n">
-        <v>964.0571555106362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E17" t="n">
-        <v>964.0571555106362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F17" t="n">
-        <v>720.6083788665362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G17" t="n">
-        <v>477.1596022224361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H17" t="n">
-        <v>233.7108255783361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I17" t="n">
-        <v>21.10891692136039</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J17" t="n">
         <v>19.28114311021272</v>
@@ -5536,31 +5536,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q17" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R17" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S17" t="n">
-        <v>964.0571555106362</v>
+        <v>731.528039392485</v>
       </c>
       <c r="T17" t="n">
-        <v>964.0571555106362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="U17" t="n">
-        <v>964.0571555106362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="V17" t="n">
-        <v>964.0571555106362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="W17" t="n">
-        <v>964.0571555106362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="X17" t="n">
-        <v>964.0571555106362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="Y17" t="n">
-        <v>964.0571555106362</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="18">
@@ -5570,28 +5570,28 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C18" t="n">
-        <v>817.1412885554689</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D18" t="n">
-        <v>668.2068788942177</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E18" t="n">
-        <v>508.9694238887622</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F18" t="n">
-        <v>362.4348659156472</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G18" t="n">
-        <v>223.7040404982626</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H18" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I18" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J18" t="n">
         <v>19.28114311021272</v>
@@ -5603,16 +5603,16 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M18" t="n">
-        <v>473.4149733950735</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N18" t="n">
-        <v>473.4149733950735</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="O18" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P18" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q18" t="n">
         <v>964.0571555106362</v>
@@ -5627,19 +5627,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="U18" t="n">
-        <v>964.0571555106362</v>
+        <v>913.4938269565423</v>
       </c>
       <c r="V18" t="n">
-        <v>964.0571555106362</v>
+        <v>678.3417187247995</v>
       </c>
       <c r="W18" t="n">
-        <v>964.0571555106362</v>
+        <v>434.8929420806995</v>
       </c>
       <c r="X18" t="n">
-        <v>964.0571555106362</v>
+        <v>227.0414418751666</v>
       </c>
       <c r="Y18" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="19">
@@ -5706,16 +5706,16 @@
         <v>153.8134336004835</v>
       </c>
       <c r="U19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y19" t="n">
         <v>19.28114311021272</v>
@@ -5728,10 +5728,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>749.627473042513</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C20" t="n">
-        <v>749.627473042513</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="D20" t="n">
         <v>506.1786963984129</v>
@@ -5743,7 +5743,7 @@
         <v>262.7299197543128</v>
       </c>
       <c r="G20" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H20" t="n">
         <v>19.28114311021272</v>
@@ -5773,31 +5773,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q20" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R20" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S20" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T20" t="n">
-        <v>953.9655401424092</v>
+        <v>749.627473042513</v>
       </c>
       <c r="U20" t="n">
-        <v>953.9655401424092</v>
+        <v>749.627473042513</v>
       </c>
       <c r="V20" t="n">
-        <v>953.9655401424092</v>
+        <v>749.627473042513</v>
       </c>
       <c r="W20" t="n">
-        <v>953.9655401424092</v>
+        <v>749.627473042513</v>
       </c>
       <c r="X20" t="n">
-        <v>953.9655401424092</v>
+        <v>749.627473042513</v>
       </c>
       <c r="Y20" t="n">
-        <v>953.9655401424092</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="21">
@@ -5807,25 +5807,25 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>415.3527852316268</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C21" t="n">
-        <v>415.3527852316268</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D21" t="n">
-        <v>415.3527852316268</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E21" t="n">
-        <v>256.1153302261713</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F21" t="n">
-        <v>109.5807722530562</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G21" t="n">
-        <v>109.5807722530562</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H21" t="n">
-        <v>109.5807722530562</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I21" t="n">
         <v>19.28114311021272</v>
@@ -5840,13 +5840,13 @@
         <v>249.2442489785619</v>
       </c>
       <c r="M21" t="n">
-        <v>486.8488635328713</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="N21" t="n">
-        <v>725.4530095217538</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O21" t="n">
-        <v>964.0571555106362</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P21" t="n">
         <v>964.0571555106362</v>
@@ -5870,13 +5870,13 @@
         <v>500.6814290152826</v>
       </c>
       <c r="W21" t="n">
-        <v>415.3527852316268</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="X21" t="n">
-        <v>415.3527852316268</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="Y21" t="n">
-        <v>415.3527852316268</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="22">
@@ -5940,13 +5940,13 @@
         <v>153.8134336004835</v>
       </c>
       <c r="T22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W22" t="n">
         <v>19.28114311021272</v>
@@ -5965,22 +5965,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C23" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D23" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E23" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F23" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G23" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="H23" t="n">
         <v>19.28114311021272</v>
@@ -6013,28 +6013,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R23" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S23" t="n">
-        <v>752.9257720901863</v>
+        <v>731.528039392485</v>
       </c>
       <c r="T23" t="n">
-        <v>527.5764290961142</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="U23" t="n">
-        <v>284.1276524520142</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="V23" t="n">
-        <v>284.1276524520142</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="W23" t="n">
-        <v>284.1276524520142</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="X23" t="n">
-        <v>284.1276524520142</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="Y23" t="n">
-        <v>40.6788758079141</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="24">
@@ -6044,28 +6044,28 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>790.6398109613051</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C24" t="n">
-        <v>790.6398109613051</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D24" t="n">
-        <v>668.2068788942177</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E24" t="n">
-        <v>508.9694238887622</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F24" t="n">
-        <v>362.4348659156472</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G24" t="n">
-        <v>223.7040404982626</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H24" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I24" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J24" t="n">
         <v>19.28114311021272</v>
@@ -6077,10 +6077,10 @@
         <v>249.2442489785619</v>
       </c>
       <c r="M24" t="n">
-        <v>486.8488635328713</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N24" t="n">
-        <v>725.4530095217538</v>
+        <v>726.4525409563269</v>
       </c>
       <c r="O24" t="n">
         <v>964.0571555106362</v>
@@ -6095,25 +6095,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S24" t="n">
-        <v>790.6398109613051</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T24" t="n">
-        <v>790.6398109613051</v>
+        <v>933.9571464551993</v>
       </c>
       <c r="U24" t="n">
-        <v>790.6398109613051</v>
+        <v>705.7335281915883</v>
       </c>
       <c r="V24" t="n">
-        <v>790.6398109613051</v>
+        <v>470.5814199598456</v>
       </c>
       <c r="W24" t="n">
-        <v>790.6398109613051</v>
+        <v>227.1326433157456</v>
       </c>
       <c r="X24" t="n">
-        <v>790.6398109613051</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y24" t="n">
-        <v>790.6398109613051</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="25">
@@ -6123,22 +6123,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="G25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="H25" t="n">
         <v>19.28114311021272</v>
@@ -6192,7 +6192,7 @@
         <v>153.8134336004835</v>
       </c>
       <c r="Y25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="26">
@@ -6202,19 +6202,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C26" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D26" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E26" t="n">
-        <v>506.1786963984129</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F26" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G26" t="n">
         <v>19.28114311021272</v>
@@ -6256,19 +6256,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T26" t="n">
-        <v>738.7078125165641</v>
+        <v>749.627473042513</v>
       </c>
       <c r="U26" t="n">
-        <v>738.7078125165641</v>
+        <v>749.627473042513</v>
       </c>
       <c r="V26" t="n">
-        <v>738.7078125165641</v>
+        <v>749.627473042513</v>
       </c>
       <c r="W26" t="n">
-        <v>738.7078125165641</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="X26" t="n">
-        <v>738.7078125165641</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="Y26" t="n">
         <v>506.1786963984129</v>
@@ -6281,76 +6281,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>511.3692755768984</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C27" t="n">
-        <v>511.3692755768984</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D27" t="n">
-        <v>362.4348659156472</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E27" t="n">
-        <v>362.4348659156472</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F27" t="n">
-        <v>362.4348659156472</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G27" t="n">
-        <v>223.7040404982626</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H27" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I27" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J27" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K27" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L27" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M27" t="n">
-        <v>613.2059550252818</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N27" t="n">
-        <v>725.4530095217538</v>
+        <v>726.4525409563269</v>
       </c>
       <c r="O27" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="P27" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q27" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R27" t="n">
-        <v>862.8876260635219</v>
+        <v>913.4938269565423</v>
       </c>
       <c r="S27" t="n">
-        <v>689.4702815141908</v>
+        <v>913.4938269565423</v>
       </c>
       <c r="T27" t="n">
-        <v>511.3692755768984</v>
+        <v>913.4938269565423</v>
       </c>
       <c r="U27" t="n">
-        <v>511.3692755768984</v>
+        <v>913.4938269565423</v>
       </c>
       <c r="V27" t="n">
-        <v>511.3692755768984</v>
+        <v>678.3417187247995</v>
       </c>
       <c r="W27" t="n">
-        <v>511.3692755768984</v>
+        <v>434.8929420806995</v>
       </c>
       <c r="X27" t="n">
-        <v>511.3692755768984</v>
+        <v>227.0414418751666</v>
       </c>
       <c r="Y27" t="n">
-        <v>511.3692755768984</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="28">
@@ -6448,13 +6448,13 @@
         <v>262.7299197543128</v>
       </c>
       <c r="E29" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F29" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G29" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="H29" t="n">
         <v>19.28114311021272</v>
@@ -6484,31 +6484,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q29" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R29" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S29" t="n">
-        <v>953.9655401424092</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="T29" t="n">
-        <v>953.9655401424092</v>
+        <v>527.5764290961142</v>
       </c>
       <c r="U29" t="n">
-        <v>953.9655401424092</v>
+        <v>527.5764290961142</v>
       </c>
       <c r="V29" t="n">
-        <v>953.9655401424092</v>
+        <v>284.1276524520142</v>
       </c>
       <c r="W29" t="n">
-        <v>953.9655401424092</v>
+        <v>284.1276524520142</v>
       </c>
       <c r="X29" t="n">
-        <v>749.627473042513</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="Y29" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="30">
@@ -6518,10 +6518,10 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>55.04605772994853</v>
+        <v>193.7341723913397</v>
       </c>
       <c r="C30" t="n">
-        <v>55.04605772994853</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D30" t="n">
         <v>19.28114311021272</v>
@@ -6569,25 +6569,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S30" t="n">
-        <v>964.0571555106362</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T30" t="n">
-        <v>761.8705608694022</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="U30" t="n">
-        <v>533.6469426057913</v>
+        <v>360.2295980564601</v>
       </c>
       <c r="V30" t="n">
-        <v>298.4948343740486</v>
+        <v>360.2295980564601</v>
       </c>
       <c r="W30" t="n">
-        <v>55.04605772994853</v>
+        <v>360.2295980564601</v>
       </c>
       <c r="X30" t="n">
-        <v>55.04605772994853</v>
+        <v>360.2295980564601</v>
       </c>
       <c r="Y30" t="n">
-        <v>55.04605772994853</v>
+        <v>193.7341723913397</v>
       </c>
     </row>
     <row r="31">
@@ -6654,13 +6654,13 @@
         <v>153.8134336004835</v>
       </c>
       <c r="U31" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V31" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W31" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X31" t="n">
         <v>19.28114311021272</v>
@@ -6676,22 +6676,22 @@
         </is>
       </c>
       <c r="B32" t="n">
+        <v>728.6161971483371</v>
+      </c>
+      <c r="C32" t="n">
+        <v>728.6161971483371</v>
+      </c>
+      <c r="D32" t="n">
+        <v>506.1786963984129</v>
+      </c>
+      <c r="E32" t="n">
+        <v>506.1786963984129</v>
+      </c>
+      <c r="F32" t="n">
+        <v>506.1786963984129</v>
+      </c>
+      <c r="G32" t="n">
         <v>262.7299197543128</v>
-      </c>
-      <c r="C32" t="n">
-        <v>262.7299197543128</v>
-      </c>
-      <c r="D32" t="n">
-        <v>262.7299197543128</v>
-      </c>
-      <c r="E32" t="n">
-        <v>19.28114311021272</v>
-      </c>
-      <c r="F32" t="n">
-        <v>19.28114311021272</v>
-      </c>
-      <c r="G32" t="n">
-        <v>19.28114311021272</v>
       </c>
       <c r="H32" t="n">
         <v>19.28114311021272</v>
@@ -6721,31 +6721,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q32" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R32" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S32" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T32" t="n">
-        <v>964.0571555106362</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="U32" t="n">
-        <v>964.0571555106362</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="V32" t="n">
-        <v>964.0571555106362</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="W32" t="n">
-        <v>964.0571555106362</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="X32" t="n">
-        <v>749.627473042513</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="Y32" t="n">
-        <v>506.1786963984129</v>
+        <v>728.6161971483371</v>
       </c>
     </row>
     <row r="33">
@@ -6755,16 +6755,16 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>131.5792353467183</v>
+        <v>165.8157010833278</v>
       </c>
       <c r="C33" t="n">
-        <v>19.28114311021272</v>
+        <v>165.8157010833278</v>
       </c>
       <c r="D33" t="n">
-        <v>19.28114311021272</v>
+        <v>165.8157010833278</v>
       </c>
       <c r="E33" t="n">
-        <v>19.28114311021272</v>
+        <v>165.8157010833278</v>
       </c>
       <c r="F33" t="n">
         <v>19.28114311021272</v>
@@ -6785,16 +6785,16 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L33" t="n">
-        <v>178.8501590306595</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M33" t="n">
-        <v>417.4543050195419</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="N33" t="n">
-        <v>656.0584510084244</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O33" t="n">
-        <v>894.6625969973069</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P33" t="n">
         <v>894.6625969973069</v>
@@ -6806,25 +6806,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S33" t="n">
-        <v>790.6398109613051</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T33" t="n">
-        <v>790.6398109613051</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U33" t="n">
-        <v>790.6398109613051</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V33" t="n">
-        <v>790.6398109613051</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="W33" t="n">
-        <v>547.1910343172051</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="X33" t="n">
-        <v>339.3395341116723</v>
+        <v>165.8157010833278</v>
       </c>
       <c r="Y33" t="n">
-        <v>131.5792353467183</v>
+        <v>165.8157010833278</v>
       </c>
     </row>
     <row r="34">
@@ -6834,10 +6834,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C34" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D34" t="n">
         <v>19.28114311021272</v>
@@ -6900,10 +6900,10 @@
         <v>153.8134336004835</v>
       </c>
       <c r="X34" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y34" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="35">
@@ -6913,19 +6913,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C35" t="n">
         <v>262.7299197543128</v>
       </c>
       <c r="D35" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E35" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F35" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G35" t="n">
         <v>19.28114311021272</v>
@@ -6964,25 +6964,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S35" t="n">
-        <v>964.0571555106362</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="T35" t="n">
-        <v>964.0571555106362</v>
+        <v>527.5764290961142</v>
       </c>
       <c r="U35" t="n">
-        <v>964.0571555106362</v>
+        <v>284.1276524520142</v>
       </c>
       <c r="V35" t="n">
-        <v>964.0571555106362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="W35" t="n">
-        <v>964.0571555106362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="X35" t="n">
-        <v>749.627473042513</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="Y35" t="n">
-        <v>749.627473042513</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="36">
@@ -6992,22 +6992,22 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>20.03527576299844</v>
+        <v>485.4562706347935</v>
       </c>
       <c r="C36" t="n">
-        <v>20.03527576299844</v>
+        <v>485.4562706347935</v>
       </c>
       <c r="D36" t="n">
-        <v>20.03527576299844</v>
+        <v>336.5218609735422</v>
       </c>
       <c r="E36" t="n">
-        <v>20.03527576299844</v>
+        <v>336.5218609735422</v>
       </c>
       <c r="F36" t="n">
-        <v>20.03527576299844</v>
+        <v>272.1352367728036</v>
       </c>
       <c r="G36" t="n">
-        <v>20.03527576299844</v>
+        <v>133.4044113554191</v>
       </c>
       <c r="H36" t="n">
         <v>20.03527576299844</v>
@@ -7019,22 +7019,22 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K36" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L36" t="n">
-        <v>374.6018090363993</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="M36" t="n">
-        <v>374.6018090363993</v>
+        <v>257.8852890990952</v>
       </c>
       <c r="N36" t="n">
-        <v>542.809531908403</v>
+        <v>496.4894350879777</v>
       </c>
       <c r="O36" t="n">
-        <v>781.4136778972854</v>
+        <v>735.0935810768601</v>
       </c>
       <c r="P36" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q36" t="n">
         <v>964.0571555106362</v>
@@ -7049,19 +7049,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="U36" t="n">
-        <v>735.8335372470253</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V36" t="n">
-        <v>500.6814290152826</v>
+        <v>728.9050472788936</v>
       </c>
       <c r="W36" t="n">
-        <v>257.2326523711826</v>
+        <v>485.4562706347935</v>
       </c>
       <c r="X36" t="n">
-        <v>49.38115216564972</v>
+        <v>485.4562706347935</v>
       </c>
       <c r="Y36" t="n">
-        <v>20.03527576299844</v>
+        <v>485.4562706347935</v>
       </c>
     </row>
     <row r="37">
@@ -7125,13 +7125,13 @@
         <v>153.8134336004835</v>
       </c>
       <c r="T37" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U37" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V37" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W37" t="n">
         <v>19.28114311021272</v>
@@ -7150,7 +7150,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C38" t="n">
         <v>262.7299197543128</v>
@@ -7162,10 +7162,10 @@
         <v>262.7299197543128</v>
       </c>
       <c r="F38" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G38" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H38" t="n">
         <v>19.28114311021272</v>
@@ -7195,28 +7195,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q38" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R38" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S38" t="n">
-        <v>964.0571555106362</v>
+        <v>731.528039392485</v>
       </c>
       <c r="T38" t="n">
-        <v>749.627473042513</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="U38" t="n">
-        <v>749.627473042513</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="V38" t="n">
-        <v>749.627473042513</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="W38" t="n">
-        <v>749.627473042513</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="X38" t="n">
-        <v>749.627473042513</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="Y38" t="n">
         <v>506.1786963984129</v>
@@ -7229,7 +7229,7 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>194.4883050441255</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="C39" t="n">
         <v>20.03527576299844</v>
@@ -7256,13 +7256,13 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K39" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L39" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M39" t="n">
-        <v>374.6018090363993</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N39" t="n">
         <v>542.809531908403</v>
@@ -7283,22 +7283,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T39" t="n">
-        <v>838.3237222782232</v>
+        <v>914.2479596093278</v>
       </c>
       <c r="U39" t="n">
-        <v>610.1001040146123</v>
+        <v>914.2479596093278</v>
       </c>
       <c r="V39" t="n">
-        <v>610.1001040146123</v>
+        <v>679.0958513775852</v>
       </c>
       <c r="W39" t="n">
-        <v>610.1001040146123</v>
+        <v>435.6470747334852</v>
       </c>
       <c r="X39" t="n">
-        <v>402.2486038090794</v>
+        <v>227.7955745279523</v>
       </c>
       <c r="Y39" t="n">
-        <v>194.4883050441255</v>
+        <v>20.03527576299844</v>
       </c>
     </row>
     <row r="40">
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C40" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D40" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E40" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F40" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="G40" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="H40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L40" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M40" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N40" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R40" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S40" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T40" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U40" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V40" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W40" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X40" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y40" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="41">
@@ -7387,28 +7387,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>262.7299197543128</v>
+        <v>348.0024326625565</v>
       </c>
       <c r="C41" t="n">
-        <v>262.7299197543128</v>
+        <v>348.0024326625565</v>
       </c>
       <c r="D41" t="n">
-        <v>262.7299197543128</v>
+        <v>348.0024326625565</v>
       </c>
       <c r="E41" t="n">
-        <v>262.7299197543128</v>
+        <v>348.0024326625565</v>
       </c>
       <c r="F41" t="n">
-        <v>19.28114311021272</v>
+        <v>348.0024326625565</v>
       </c>
       <c r="G41" t="n">
-        <v>19.28114311021272</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="H41" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I41" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J41" t="n">
         <v>19.28114311021272</v>
@@ -7432,31 +7432,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q41" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R41" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S41" t="n">
-        <v>964.0571555106362</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="T41" t="n">
-        <v>964.0571555106362</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="U41" t="n">
-        <v>964.0571555106362</v>
+        <v>348.0024326625565</v>
       </c>
       <c r="V41" t="n">
-        <v>964.0571555106362</v>
+        <v>348.0024326625565</v>
       </c>
       <c r="W41" t="n">
-        <v>964.0571555106362</v>
+        <v>348.0024326625565</v>
       </c>
       <c r="X41" t="n">
-        <v>749.627473042513</v>
+        <v>348.0024326625565</v>
       </c>
       <c r="Y41" t="n">
-        <v>506.1786963984129</v>
+        <v>348.0024326625565</v>
       </c>
     </row>
     <row r="42">
@@ -7466,25 +7466,25 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>964.0571555106362</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="C42" t="n">
-        <v>817.1412885554689</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D42" t="n">
-        <v>668.2068788942177</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E42" t="n">
-        <v>508.9694238887622</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F42" t="n">
-        <v>362.4348659156472</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G42" t="n">
-        <v>223.7040404982626</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H42" t="n">
-        <v>110.334904905842</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I42" t="n">
         <v>20.03527576299844</v>
@@ -7496,19 +7496,19 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L42" t="n">
-        <v>19.28114311021272</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M42" t="n">
-        <v>257.8852890990952</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N42" t="n">
-        <v>496.4894350879777</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O42" t="n">
-        <v>735.0935810768601</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P42" t="n">
-        <v>917.7370586902109</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q42" t="n">
         <v>964.0571555106362</v>
@@ -7520,22 +7520,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T42" t="n">
-        <v>964.0571555106362</v>
+        <v>899.0228012288387</v>
       </c>
       <c r="U42" t="n">
-        <v>964.0571555106362</v>
+        <v>670.7991829652278</v>
       </c>
       <c r="V42" t="n">
-        <v>964.0571555106362</v>
+        <v>435.6470747334852</v>
       </c>
       <c r="W42" t="n">
-        <v>964.0571555106362</v>
+        <v>435.6470747334852</v>
       </c>
       <c r="X42" t="n">
-        <v>964.0571555106362</v>
+        <v>227.7955745279523</v>
       </c>
       <c r="Y42" t="n">
-        <v>964.0571555106362</v>
+        <v>20.03527576299844</v>
       </c>
     </row>
     <row r="43">
@@ -7596,10 +7596,10 @@
         <v>153.8134336004835</v>
       </c>
       <c r="S43" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T43" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U43" t="n">
         <v>19.28114311021272</v>
@@ -7624,28 +7624,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>506.1786963984129</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="C44" t="n">
-        <v>506.1786963984129</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="D44" t="n">
-        <v>506.1786963984129</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="E44" t="n">
-        <v>506.1786963984129</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="F44" t="n">
-        <v>262.7299197543128</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="G44" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H44" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I44" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J44" t="n">
         <v>19.28114311021272</v>
@@ -7669,31 +7669,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q44" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R44" t="n">
-        <v>953.9655401424092</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S44" t="n">
-        <v>953.9655401424092</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="T44" t="n">
-        <v>953.9655401424092</v>
+        <v>587.3248651012614</v>
       </c>
       <c r="U44" t="n">
-        <v>953.9655401424092</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="V44" t="n">
-        <v>953.9655401424092</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="W44" t="n">
-        <v>953.9655401424092</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="X44" t="n">
-        <v>953.9655401424092</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="Y44" t="n">
-        <v>749.627473042513</v>
+        <v>274.7999090013961</v>
       </c>
     </row>
     <row r="45">
@@ -7703,28 +7703,28 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>20.03527576299844</v>
+        <v>726.0875267598396</v>
       </c>
       <c r="C45" t="n">
-        <v>20.03527576299844</v>
+        <v>726.0875267598396</v>
       </c>
       <c r="D45" t="n">
-        <v>20.03527576299844</v>
+        <v>577.1531170985884</v>
       </c>
       <c r="E45" t="n">
-        <v>20.03527576299844</v>
+        <v>417.9156620931329</v>
       </c>
       <c r="F45" t="n">
-        <v>20.03527576299844</v>
+        <v>271.3811041200179</v>
       </c>
       <c r="G45" t="n">
-        <v>20.03527576299844</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="H45" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I45" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J45" t="n">
         <v>19.28114311021272</v>
@@ -7733,16 +7733,16 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L45" t="n">
-        <v>249.2442489785619</v>
+        <v>65.60123993063803</v>
       </c>
       <c r="M45" t="n">
-        <v>486.8488635328713</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="N45" t="n">
-        <v>725.4530095217538</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O45" t="n">
-        <v>964.0571555106362</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P45" t="n">
         <v>964.0571555106362</v>
@@ -7760,19 +7760,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="U45" t="n">
-        <v>735.8335372470253</v>
+        <v>894.3028637799077</v>
       </c>
       <c r="V45" t="n">
-        <v>500.6814290152826</v>
+        <v>894.3028637799077</v>
       </c>
       <c r="W45" t="n">
-        <v>257.2326523711826</v>
+        <v>894.3028637799077</v>
       </c>
       <c r="X45" t="n">
-        <v>49.38115216564972</v>
+        <v>894.3028637799077</v>
       </c>
       <c r="Y45" t="n">
-        <v>20.03527576299844</v>
+        <v>894.3028637799077</v>
       </c>
     </row>
     <row r="46">
@@ -7839,10 +7839,10 @@
         <v>153.8134336004835</v>
       </c>
       <c r="U46" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V46" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W46" t="n">
         <v>19.28114311021272</v>
@@ -7981,7 +7981,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K2" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711648</v>
       </c>
       <c r="L2" t="n">
         <v>417.6612145504504</v>
@@ -8066,19 +8066,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>383.1483227996774</v>
+        <v>255.5148970497678</v>
       </c>
       <c r="N3" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O3" t="n">
-        <v>185.8815939223662</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P3" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8297,7 +8297,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
@@ -8306,16 +8306,16 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N6" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O6" t="n">
-        <v>242.4075215744184</v>
+        <v>198.1125443848066</v>
       </c>
       <c r="P6" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8455,7 +8455,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K8" t="n">
-        <v>324.1454125711648</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L8" t="n">
         <v>417.6612145504504</v>
@@ -8540,13 +8540,13 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>383.1483227996774</v>
+        <v>382.1386950879875</v>
       </c>
       <c r="N9" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O9" t="n">
-        <v>382.6009056104135</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P9" t="n">
         <v>133.9744074143302</v>
@@ -8771,25 +8771,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M12" t="n">
-        <v>233.2169876979182</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N12" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O12" t="n">
-        <v>383.6105333221035</v>
+        <v>198.1125443848066</v>
       </c>
       <c r="P12" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -9011,22 +9011,22 @@
         <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M15" t="n">
-        <v>359.8407857361378</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N15" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O15" t="n">
-        <v>383.6105333221035</v>
+        <v>382.6009056104135</v>
       </c>
       <c r="P15" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9251,19 +9251,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
-        <v>241.9453110519923</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N18" t="n">
-        <v>131.3417120833333</v>
+        <v>301.2485028631349</v>
       </c>
       <c r="O18" t="n">
-        <v>383.6105333221035</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P18" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9488,7 +9488,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
-        <v>382.1386950879875</v>
+        <v>197.6503338623806</v>
       </c>
       <c r="N21" t="n">
         <v>372.3560009609923</v>
@@ -9497,7 +9497,7 @@
         <v>383.6105333221035</v>
       </c>
       <c r="P21" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
         <v>139.9817740860215</v>
@@ -9725,13 +9725,13 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>382.1386950879875</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N24" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O24" t="n">
-        <v>383.6105333221035</v>
+        <v>382.6009056104135</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
@@ -9956,7 +9956,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
         <v>370.8403453034592</v>
@@ -9965,16 +9965,16 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N27" t="n">
-        <v>244.7225752110828</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O27" t="n">
-        <v>383.6105333221035</v>
+        <v>312.5053919605859</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10433,19 +10433,19 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
-        <v>173.111405903722</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
-        <v>383.1483227996774</v>
+        <v>241.9453110519923</v>
       </c>
       <c r="N33" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O33" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P33" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
@@ -10667,25 +10667,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M36" t="n">
-        <v>142.1340339220183</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N36" t="n">
-        <v>301.248502863135</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O36" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P36" t="n">
-        <v>318.4627686399372</v>
+        <v>295.1552315763977</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10825,7 +10825,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K38" t="n">
-        <v>324.1454125711648</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L38" t="n">
         <v>417.6612145504504</v>
@@ -10904,16 +10904,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
-        <v>142.1340339220183</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N39" t="n">
-        <v>301.248502863135</v>
+        <v>186.8580120236956</v>
       </c>
       <c r="O39" t="n">
         <v>383.6105333221035</v>
@@ -11144,22 +11144,22 @@
         <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M42" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N42" t="n">
-        <v>372.3560009609923</v>
+        <v>371.3463732493024</v>
       </c>
       <c r="O42" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P42" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>186.7697506723097</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11381,10 +11381,10 @@
         <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
-        <v>370.8403453034592</v>
+        <v>185.3423563661624</v>
       </c>
       <c r="M45" t="n">
-        <v>382.1386950879875</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N45" t="n">
         <v>372.3560009609923</v>
@@ -11393,7 +11393,7 @@
         <v>383.6105333221035</v>
       </c>
       <c r="P45" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
         <v>139.9817740860215</v>
@@ -22591,31 +22591,31 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>49.05096647893927</v>
+        <v>139.0167266006028</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W2" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -22628,28 +22628,28 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>27.26179070270013</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -22679,22 +22679,22 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T3" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X3" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>170.2754303037659</v>
       </c>
     </row>
     <row r="4">
@@ -22746,13 +22746,13 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R4" t="n">
-        <v>132.9899077786023</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S4" t="n">
         <v>224.0165980369723</v>
@@ -22764,7 +22764,7 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>118.95067573846</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -22783,7 +22783,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -22828,7 +22828,7 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
         <v>149.8691179411497</v>
@@ -22837,22 +22837,22 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>20.80116313523413</v>
       </c>
       <c r="U5" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V5" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>119.0371437604433</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="6">
@@ -22865,13 +22865,13 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
         <v>145.0692123933839</v>
@@ -22886,7 +22886,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -22913,22 +22913,22 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>101.7811932823757</v>
+        <v>94.78158527535663</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
         <v>205.6826957773044</v>
@@ -22986,13 +22986,13 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R7" t="n">
         <v>177.2933913771695</v>
       </c>
       <c r="S7" t="n">
-        <v>176.9916737032986</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T7" t="n">
         <v>227.9455894282815</v>
@@ -23004,7 +23004,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -23032,19 +23032,19 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>176.0015501456288</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G8" t="n">
         <v>174.288448637476</v>
       </c>
       <c r="H8" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -23065,7 +23065,7 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
         <v>149.8691179411497</v>
@@ -23074,7 +23074,7 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T8" t="n">
-        <v>223.0958495641314</v>
+        <v>20.80116313523413</v>
       </c>
       <c r="U8" t="n">
         <v>251.3456529078365</v>
@@ -23089,7 +23089,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="9">
@@ -23102,25 +23102,25 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>26.51519937644221</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J9" t="n">
         <v>0.7465913262578567</v>
@@ -23156,19 +23156,19 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U9" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X9" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>205.6826957773044</v>
+        <v>175.8836868124217</v>
       </c>
     </row>
     <row r="10">
@@ -23199,7 +23199,7 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I10" t="n">
-        <v>22.26350734189026</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J10" t="n">
         <v>93.35918011667277</v>
@@ -23241,7 +23241,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -23272,10 +23272,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H11" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I11" t="n">
         <v>210.4758895704059</v>
@@ -23302,22 +23302,22 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U11" t="n">
-        <v>10.33136403017744</v>
+        <v>39.0602672643945</v>
       </c>
       <c r="V11" t="n">
-        <v>225.414031377446</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -23339,28 +23339,28 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D12" t="n">
-        <v>87.87527408662062</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F12" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -23384,7 +23384,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>100.1578341526431</v>
+        <v>35.02723208740593</v>
       </c>
       <c r="S12" t="n">
         <v>171.6831711038378</v>
@@ -23393,16 +23393,16 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U12" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V12" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W12" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X12" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y12" t="n">
         <v>0</v>
@@ -23430,7 +23430,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>34.80401177309074</v>
+        <v>167.9909793584588</v>
       </c>
       <c r="H13" t="n">
         <v>162.2271725074396</v>
@@ -23478,7 +23478,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -23497,19 +23497,19 @@
         <v>141.7195527858215</v>
       </c>
       <c r="C14" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>415.302737515135</v>
+        <v>302.9738112079013</v>
       </c>
       <c r="H14" t="n">
         <v>339.4748021157671</v>
@@ -23542,13 +23542,13 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R14" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>251.3456529078365</v>
@@ -23563,7 +23563,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>173.9525530126116</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -23573,7 +23573,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>2.684361223800238</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C15" t="n">
         <v>172.7084989883157</v>
@@ -23582,7 +23582,7 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F15" t="n">
         <v>145.0692123933839</v>
@@ -23591,13 +23591,13 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -23627,16 +23627,16 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T15" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U15" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V15" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W15" t="n">
-        <v>251.6949831609196</v>
+        <v>160.7877277095291</v>
       </c>
       <c r="X15" t="n">
         <v>0</v>
@@ -23703,7 +23703,7 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S16" t="n">
-        <v>224.0165980369723</v>
+        <v>90.82963045160423</v>
       </c>
       <c r="T16" t="n">
         <v>227.9455894282815</v>
@@ -23712,7 +23712,7 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V16" t="n">
-        <v>118.95067573846</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -23743,19 +23743,19 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
         <v>174.288448637476</v>
       </c>
       <c r="H17" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J17" t="n">
-        <v>10.13979328157633</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -23776,19 +23776,19 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>209.0200695862453</v>
+        <v>138.6760617849701</v>
       </c>
       <c r="T17" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -23813,28 +23813,28 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C18" t="n">
-        <v>27.26179070270013</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -23867,19 +23867,19 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U18" t="n">
-        <v>225.9413820809748</v>
+        <v>175.8836868124218</v>
       </c>
       <c r="V18" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X18" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y18" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -23946,7 +23946,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U19" t="n">
-        <v>153.1320617711229</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -23958,7 +23958,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>85.39768576672677</v>
       </c>
     </row>
     <row r="20">
@@ -23968,13 +23968,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>180.4391552345834</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
         <v>381.9303700722618</v>
@@ -23983,10 +23983,10 @@
         <v>165.8617568640524</v>
       </c>
       <c r="G20" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H20" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I20" t="n">
         <v>210.4758895704059</v>
@@ -24013,7 +24013,7 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R20" t="n">
         <v>149.8691179411497</v>
@@ -24022,7 +24022,7 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T20" t="n">
-        <v>223.0958495641314</v>
+        <v>10.81046392068936</v>
       </c>
       <c r="U20" t="n">
         <v>251.3456529078365</v>
@@ -24037,7 +24037,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="21">
@@ -24056,10 +24056,10 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
         <v>137.3435171632106</v>
@@ -24068,7 +24068,7 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J21" t="n">
         <v>0.7465913262578567</v>
@@ -24110,13 +24110,13 @@
         <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>167.2196258151004</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X21" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>205.6826957773044</v>
+        <v>175.8836868124217</v>
       </c>
     </row>
     <row r="22">
@@ -24180,7 +24180,7 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T22" t="n">
-        <v>94.75862184291347</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U22" t="n">
         <v>286.3190293564909</v>
@@ -24189,7 +24189,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -24205,7 +24205,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>361.5500862927562</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C23" t="n">
         <v>365.2728917710076</v>
@@ -24223,7 +24223,7 @@
         <v>415.302737515135</v>
       </c>
       <c r="H23" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I23" t="n">
         <v>210.4758895704059</v>
@@ -24253,16 +24253,16 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R23" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>128.6853625704253</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
@@ -24274,7 +24274,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="24">
@@ -24290,25 +24290,25 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D24" t="n">
-        <v>26.23646281822218</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -24335,22 +24335,22 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T24" t="n">
-        <v>200.1647286948216</v>
+        <v>170.3657197299391</v>
       </c>
       <c r="U24" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V24" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W24" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X24" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y24" t="n">
         <v>205.6826957773044</v>
@@ -24381,7 +24381,7 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H25" t="n">
-        <v>162.2271725074396</v>
+        <v>29.04020492207155</v>
       </c>
       <c r="I25" t="n">
         <v>155.4504749272583</v>
@@ -24432,7 +24432,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>85.39768576672677</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24442,7 +24442,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
@@ -24451,13 +24451,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F26" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H26" t="n">
         <v>339.4748021157671</v>
@@ -24496,7 +24496,7 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>10.81046392068936</v>
       </c>
       <c r="U26" t="n">
         <v>251.3456529078365</v>
@@ -24505,13 +24505,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X26" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>156.0341136990839</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -24527,7 +24527,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E27" t="n">
         <v>157.6450804554009</v>
@@ -24536,16 +24536,16 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -24569,28 +24569,28 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>50.10013888409016</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T27" t="n">
-        <v>23.84473281690217</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U27" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V27" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W27" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X27" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y27" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -24679,7 +24679,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
@@ -24688,7 +24688,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
         <v>406.8760457417114</v>
@@ -24697,7 +24697,7 @@
         <v>415.302737515135</v>
       </c>
       <c r="H29" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I29" t="n">
         <v>210.4758895704059</v>
@@ -24724,31 +24724,31 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R29" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S29" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
         <v>251.3456529078365</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W29" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>167.4364142495718</v>
+        <v>348.5473453077446</v>
       </c>
       <c r="Y29" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="30">
@@ -24761,10 +24761,10 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C30" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>112.0378000911003</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E30" t="n">
         <v>157.6450804554009</v>
@@ -24809,7 +24809,7 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S30" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T30" t="n">
         <v>0</v>
@@ -24818,16 +24818,16 @@
         <v>0</v>
       </c>
       <c r="V30" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W30" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X30" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y30" t="n">
-        <v>205.6826957773044</v>
+        <v>40.85222436883518</v>
       </c>
     </row>
     <row r="31">
@@ -24894,7 +24894,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U31" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -24903,7 +24903,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>92.52268780366913</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -24916,25 +24916,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>354.683041620683</v>
+        <v>134.469915878258</v>
       </c>
       <c r="E32" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H32" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I32" t="n">
         <v>210.4758895704059</v>
@@ -24961,7 +24961,7 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
         <v>149.8691179411497</v>
@@ -24970,7 +24970,7 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T32" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
         <v>251.3456529078365</v>
@@ -24982,10 +24982,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>157.445715035027</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="33">
@@ -24998,7 +24998,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C33" t="n">
-        <v>61.53338767417517</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D33" t="n">
         <v>147.4450655646388</v>
@@ -25007,7 +25007,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F33" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G33" t="n">
         <v>137.3435171632106</v>
@@ -25046,25 +25046,25 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S33" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T33" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U33" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V33" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W33" t="n">
         <v>10.68069428326055</v>
       </c>
       <c r="X33" t="n">
-        <v>0</v>
+        <v>115.2702034285012</v>
       </c>
       <c r="Y33" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="34">
@@ -25080,7 +25080,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>15.42850543284433</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
@@ -25140,7 +25140,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>92.52268780366913</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -25153,13 +25153,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
         <v>381.9303700722618</v>
@@ -25168,7 +25168,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H35" t="n">
         <v>339.4748021157671</v>
@@ -25204,22 +25204,22 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S35" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>306.5685030994106</v>
       </c>
       <c r="W35" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>157.445715035027</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
         <v>386.2379386560536</v>
@@ -25238,19 +25238,19 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D36" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F36" t="n">
-        <v>145.0692123933839</v>
+        <v>81.32645443465267</v>
       </c>
       <c r="G36" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
         <v>89.39663285141508</v>
@@ -25289,7 +25289,7 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U36" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -25298,10 +25298,10 @@
         <v>10.68069428326055</v>
       </c>
       <c r="X36" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y36" t="n">
-        <v>176.6302781386796</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="37">
@@ -25365,7 +25365,7 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T37" t="n">
-        <v>94.75862184291347</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U37" t="n">
         <v>286.3190293564909</v>
@@ -25374,7 +25374,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -25390,10 +25390,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C38" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
         <v>354.683041620683</v>
@@ -25402,13 +25402,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G38" t="n">
         <v>415.302737515135</v>
       </c>
       <c r="H38" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I38" t="n">
         <v>210.4758895704059</v>
@@ -25435,16 +25435,16 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>209.0200695862453</v>
+        <v>138.6760617849701</v>
       </c>
       <c r="T38" t="n">
-        <v>10.81046392068936</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
         <v>251.3456529078365</v>
@@ -25459,7 +25459,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="39">
@@ -25472,7 +25472,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D39" t="n">
         <v>147.4450655646388</v>
@@ -25523,16 +25523,16 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T39" t="n">
-        <v>75.68862979473268</v>
+        <v>150.8536247525263</v>
       </c>
       <c r="U39" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V39" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X39" t="n">
         <v>0</v>
@@ -25566,7 +25566,7 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H40" t="n">
-        <v>162.2271725074396</v>
+        <v>29.04020492207155</v>
       </c>
       <c r="I40" t="n">
         <v>155.4504749272583</v>
@@ -25596,7 +25596,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R40" t="n">
-        <v>44.10642379180149</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S40" t="n">
         <v>224.0165980369723</v>
@@ -25627,7 +25627,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
@@ -25639,19 +25639,19 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>415.302737515135</v>
+        <v>342.8322390905863</v>
       </c>
       <c r="H41" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I41" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J41" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
@@ -25672,19 +25672,19 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>223.0958495641314</v>
       </c>
       <c r="U41" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
@@ -25693,10 +25693,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>157.445715035027</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="42">
@@ -25709,25 +25709,25 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C42" t="n">
-        <v>27.26179070270013</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D42" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E42" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -25760,22 +25760,22 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T42" t="n">
-        <v>200.1647286948216</v>
+        <v>135.7807179558421</v>
       </c>
       <c r="U42" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V42" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W42" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X42" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y42" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -25836,13 +25836,13 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S43" t="n">
-        <v>224.0165980369723</v>
+        <v>90.82963045160423</v>
       </c>
       <c r="T43" t="n">
         <v>227.9455894282815</v>
       </c>
       <c r="U43" t="n">
-        <v>153.1320617711229</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -25864,7 +25864,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
         <v>365.2728917710076</v>
@@ -25876,7 +25876,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
         <v>174.288448637476</v>
@@ -25888,7 +25888,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J44" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -25909,19 +25909,19 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R44" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T44" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>251.3456529078365</v>
+        <v>182.9602352466289</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
@@ -25930,10 +25930,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y44" t="n">
-        <v>183.9432522271564</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="45">
@@ -25943,31 +25943,31 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C45" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D45" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
         <v>89.39663285141508</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -26000,19 +26000,19 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>156.8846332675536</v>
       </c>
       <c r="V45" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W45" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X45" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y45" t="n">
-        <v>176.6302781386796</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="46">
@@ -26079,13 +26079,13 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U46" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>490233.5289125028</v>
+        <v>490233.5289125025</v>
       </c>
     </row>
     <row r="3">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>490233.5289125028</v>
+        <v>490233.5289125026</v>
       </c>
     </row>
     <row r="5">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>490233.5289125028</v>
+        <v>490233.5289125025</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>490233.5289125028</v>
+        <v>490233.5289125026</v>
       </c>
     </row>
     <row r="9">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>490233.5289125028</v>
+        <v>490233.5289125026</v>
       </c>
     </row>
     <row r="13">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>490233.5289125028</v>
+        <v>490233.5289125026</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>490233.5289125028</v>
+        <v>490233.5289125026</v>
       </c>
     </row>
     <row r="16">
@@ -26313,28 +26313,28 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>99696.4035187994</v>
+      </c>
+      <c r="C2" t="n">
+        <v>99696.40351879937</v>
+      </c>
+      <c r="D2" t="n">
         <v>99696.40351879939</v>
       </c>
-      <c r="C2" t="n">
+      <c r="E2" t="n">
+        <v>99696.40351879937</v>
+      </c>
+      <c r="F2" t="n">
+        <v>99696.40351879942</v>
+      </c>
+      <c r="G2" t="n">
+        <v>99696.40351879937</v>
+      </c>
+      <c r="H2" t="n">
+        <v>99696.40351879937</v>
+      </c>
+      <c r="I2" t="n">
         <v>99696.40351879939</v>
-      </c>
-      <c r="D2" t="n">
-        <v>99696.4035187994</v>
-      </c>
-      <c r="E2" t="n">
-        <v>99696.40351879939</v>
-      </c>
-      <c r="F2" t="n">
-        <v>99696.40351879936</v>
-      </c>
-      <c r="G2" t="n">
-        <v>99696.40351879936</v>
-      </c>
-      <c r="H2" t="n">
-        <v>99696.4035187994</v>
-      </c>
-      <c r="I2" t="n">
-        <v>99696.40351879936</v>
       </c>
       <c r="J2" t="n">
         <v>99696.40351879939</v>
@@ -26343,19 +26343,19 @@
         <v>99696.40351879937</v>
       </c>
       <c r="L2" t="n">
-        <v>99696.4035187994</v>
+        <v>99696.40351879937</v>
       </c>
       <c r="M2" t="n">
+        <v>99696.40351879936</v>
+      </c>
+      <c r="N2" t="n">
         <v>99696.40351879937</v>
-      </c>
-      <c r="N2" t="n">
-        <v>99696.40351879939</v>
       </c>
       <c r="O2" t="n">
         <v>99696.40351879937</v>
       </c>
       <c r="P2" t="n">
-        <v>99696.40351879939</v>
+        <v>99696.4035187994</v>
       </c>
     </row>
     <row r="3">
@@ -26441,7 +26441,7 @@
         <v>8547.111069342402</v>
       </c>
       <c r="J4" t="n">
-        <v>8547.111069342403</v>
+        <v>8547.111069342402</v>
       </c>
       <c r="K4" t="n">
         <v>8547.111069342402</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-37901.40784585242</v>
+        <v>-50119.41846589286</v>
       </c>
       <c r="C6" t="n">
-        <v>42868.02368569532</v>
+        <v>30650.01306565484</v>
       </c>
       <c r="D6" t="n">
-        <v>42868.02368569533</v>
+        <v>30650.01306565486</v>
       </c>
       <c r="E6" t="n">
-        <v>76495.62368569532</v>
+        <v>64277.61306565484</v>
       </c>
       <c r="F6" t="n">
-        <v>76495.62368569529</v>
+        <v>64277.61306565488</v>
       </c>
       <c r="G6" t="n">
-        <v>76495.62368569529</v>
+        <v>64277.61306565483</v>
       </c>
       <c r="H6" t="n">
-        <v>76495.62368569533</v>
+        <v>64277.61306565484</v>
       </c>
       <c r="I6" t="n">
-        <v>76495.62368569529</v>
+        <v>64277.61306565486</v>
       </c>
       <c r="J6" t="n">
-        <v>13435.68108658908</v>
+        <v>1217.67046654862</v>
       </c>
       <c r="K6" t="n">
-        <v>76495.6236856953</v>
+        <v>64277.61306565484</v>
       </c>
       <c r="L6" t="n">
-        <v>76495.62368569533</v>
+        <v>64277.61306565484</v>
       </c>
       <c r="M6" t="n">
-        <v>76495.6236856953</v>
+        <v>64277.61306565483</v>
       </c>
       <c r="N6" t="n">
-        <v>76495.62368569532</v>
+        <v>64277.61306565483</v>
       </c>
       <c r="O6" t="n">
-        <v>76495.6236856953</v>
+        <v>64277.61306565484</v>
       </c>
       <c r="P6" t="n">
-        <v>76495.62368569532</v>
+        <v>64277.61306565487</v>
       </c>
     </row>
   </sheetData>
@@ -34786,19 +34786,19 @@
         <v>232.285965523585</v>
       </c>
       <c r="M3" t="n">
-        <v>241.0142888776591</v>
+        <v>113.3808631277495</v>
       </c>
       <c r="N3" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O3" t="n">
-        <v>43.28534947792182</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35017,7 +35017,7 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
         <v>232.285965523585</v>
@@ -35026,16 +35026,16 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O6" t="n">
-        <v>99.8112771299739</v>
+        <v>55.51629994036219</v>
       </c>
       <c r="P6" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q6" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35260,13 +35260,13 @@
         <v>232.285965523585</v>
       </c>
       <c r="M9" t="n">
-        <v>241.0142888776591</v>
+        <v>240.0046611659691</v>
       </c>
       <c r="N9" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O9" t="n">
-        <v>240.0046611659691</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
@@ -35491,25 +35491,25 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M12" t="n">
-        <v>91.0829537758999</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N12" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O12" t="n">
-        <v>241.0142888776591</v>
+        <v>55.51629994036219</v>
       </c>
       <c r="P12" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q12" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35731,22 +35731,22 @@
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M15" t="n">
-        <v>217.7067518141195</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N15" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O15" t="n">
-        <v>241.0142888776591</v>
+        <v>240.0046611659691</v>
       </c>
       <c r="P15" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35971,19 +35971,19 @@
         <v>232.285965523585</v>
       </c>
       <c r="M18" t="n">
-        <v>99.81127712997396</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>169.9067907798016</v>
       </c>
       <c r="O18" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q18" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36208,7 +36208,7 @@
         <v>232.285965523585</v>
       </c>
       <c r="M21" t="n">
-        <v>240.0046611659691</v>
+        <v>55.51629994036225</v>
       </c>
       <c r="N21" t="n">
         <v>241.0142888776591</v>
@@ -36217,7 +36217,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36445,13 +36445,13 @@
         <v>232.285965523585</v>
       </c>
       <c r="M24" t="n">
-        <v>240.0046611659691</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N24" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O24" t="n">
-        <v>241.0142888776591</v>
+        <v>240.0046611659691</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -36676,7 +36676,7 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
         <v>232.285965523585</v>
@@ -36685,16 +36685,16 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N27" t="n">
-        <v>113.3808631277494</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O27" t="n">
-        <v>241.0142888776591</v>
+        <v>169.9091475161414</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36846,7 +36846,7 @@
         <v>207.9338608153932</v>
       </c>
       <c r="O29" t="n">
-        <v>150.7019698410586</v>
+        <v>150.7019698410587</v>
       </c>
       <c r="P29" t="n">
         <v>90.5657124162131</v>
@@ -37153,19 +37153,19 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L33" t="n">
-        <v>34.55702612384782</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M33" t="n">
-        <v>241.0142888776591</v>
+        <v>99.81127712997396</v>
       </c>
       <c r="N33" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q33" t="n">
         <v>70.09551364982758</v>
@@ -37387,25 +37387,25 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N36" t="n">
-        <v>169.9067907798017</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O36" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P36" t="n">
-        <v>184.4883612256069</v>
+        <v>161.1808241620674</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37624,16 +37624,16 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N39" t="n">
-        <v>169.9067907798017</v>
+        <v>55.51629994036225</v>
       </c>
       <c r="O39" t="n">
         <v>241.0142888776591</v>
@@ -37864,22 +37864,22 @@
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M42" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N42" t="n">
-        <v>241.0142888776591</v>
+        <v>240.0046611659691</v>
       </c>
       <c r="O42" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P42" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>46.78797658628819</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38101,10 +38101,10 @@
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>232.285965523585</v>
+        <v>46.78797658628819</v>
       </c>
       <c r="M45" t="n">
-        <v>240.0046611659691</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N45" t="n">
         <v>241.0142888776591</v>
@@ -38113,7 +38113,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_1_12.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_1_12.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>337290.5109663219</v>
+        <v>429292.35954942</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>925399.3994514378</v>
+        <v>925399.3994514379</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>18327015.93006069</v>
+        <v>18327015.93006067</v>
       </c>
     </row>
     <row r="9">
@@ -673,10 +673,10 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -706,22 +706,22 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>112.3289263072337</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>212.2853856434421</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -740,7 +740,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>35.40726547353844</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -806,7 +806,7 @@
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>35.40726547353844</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -873,10 +873,10 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="V4" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -895,25 +895,25 @@
         </is>
       </c>
       <c r="B5" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C5" t="n">
-        <v>0</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0</v>
-      </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>202.2946864288972</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -949,7 +949,7 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>202.2946864288972</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -961,10 +961,10 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -977,13 +977,13 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -1025,7 +1025,7 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T6" t="n">
         <v>0</v>
@@ -1034,16 +1034,16 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V6" t="n">
-        <v>138.0190018740686</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>99.13012673870388</v>
       </c>
     </row>
     <row r="7">
@@ -1110,13 +1110,13 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1265,7 +1265,7 @@
         <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>29.79900896488251</v>
       </c>
       <c r="U9" t="n">
         <v>225.9413820809748</v>
@@ -1280,7 +1280,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
-        <v>29.79900896488263</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1387,55 +1387,55 @@
         <v>241.0142888776591</v>
       </c>
       <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" t="n">
+        <v>0</v>
+      </c>
+      <c r="P11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>9.990699214544804</v>
+      </c>
+      <c r="R11" t="n">
+        <v>0</v>
+      </c>
+      <c r="S11" t="n">
+        <v>209.0200695862453</v>
+      </c>
+      <c r="T11" t="n">
+        <v>223.0958495641314</v>
+      </c>
+      <c r="U11" t="n">
+        <v>0</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
-      <c r="J11" t="n">
-        <v>0</v>
-      </c>
-      <c r="K11" t="n">
-        <v>0</v>
-      </c>
-      <c r="L11" t="n">
-        <v>0</v>
-      </c>
-      <c r="M11" t="n">
-        <v>0</v>
-      </c>
-      <c r="N11" t="n">
-        <v>0</v>
-      </c>
-      <c r="O11" t="n">
-        <v>0</v>
-      </c>
-      <c r="P11" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>0</v>
-      </c>
-      <c r="R11" t="n">
-        <v>0</v>
-      </c>
-      <c r="S11" t="n">
-        <v>0</v>
-      </c>
-      <c r="T11" t="n">
-        <v>0</v>
-      </c>
-      <c r="U11" t="n">
-        <v>212.285385643442</v>
-      </c>
-      <c r="V11" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="W11" t="n">
-        <v>0</v>
-      </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>11.19305615617957</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -1451,7 +1451,7 @@
         <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
@@ -1496,28 +1496,28 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>65.1306020652372</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U12" t="n">
-        <v>225.9413820809748</v>
+        <v>88.6401485661975</v>
       </c>
       <c r="V12" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W12" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X12" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y12" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -1606,22 +1606,22 @@
         </is>
       </c>
       <c r="B14" t="n">
+        <v>0</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" t="n">
+        <v>112.3289263072337</v>
+      </c>
+      <c r="G14" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="C14" t="n">
-        <v>0</v>
-      </c>
-      <c r="D14" t="n">
-        <v>0</v>
-      </c>
-      <c r="E14" t="n">
-        <v>0</v>
-      </c>
-      <c r="F14" t="n">
-        <v>0</v>
-      </c>
-      <c r="G14" t="n">
-        <v>112.3289263072337</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1685,7 +1685,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>50.05769526855308</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
@@ -1739,7 +1739,7 @@
         <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U15" t="n">
         <v>0</v>
@@ -1748,7 +1748,7 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W15" t="n">
-        <v>90.90725545139047</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X15" t="n">
         <v>205.7729852034775</v>
@@ -1815,19 +1815,19 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
+        <v>0</v>
+      </c>
+      <c r="T16" t="n">
+        <v>0</v>
+      </c>
+      <c r="U16" t="n">
+        <v>0</v>
+      </c>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="T16" t="n">
-        <v>0</v>
-      </c>
-      <c r="U16" t="n">
-        <v>0</v>
-      </c>
-      <c r="V16" t="n">
-        <v>0</v>
-      </c>
-      <c r="W16" t="n">
-        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -1858,7 +1858,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1888,31 +1888,31 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>70.34400780127524</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>223.0958495641314</v>
       </c>
       <c r="U17" t="n">
+        <v>0</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="n">
+        <v>230.2038249569697</v>
+      </c>
+      <c r="X17" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="V17" t="n">
-        <v>0</v>
-      </c>
-      <c r="W17" t="n">
-        <v>0</v>
-      </c>
-      <c r="X17" t="n">
-        <v>0</v>
-      </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
     <row r="18">
@@ -1973,13 +1973,13 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>63.88882306452221</v>
       </c>
       <c r="U18" t="n">
-        <v>50.05769526855297</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V18" t="n">
         <v>232.8005871494253</v>
@@ -1988,10 +1988,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="X18" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y18" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -2064,13 +2064,13 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2092,7 +2092,7 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
         <v>241.0142888776591</v>
@@ -2128,16 +2128,16 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T20" t="n">
-        <v>212.285385643442</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>112.3289263072337</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -2149,7 +2149,7 @@
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2180,7 +2180,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2213,7 +2213,7 @@
         <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>146.1753613169449</v>
       </c>
       <c r="U21" t="n">
         <v>225.9413820809748</v>
@@ -2225,10 +2225,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="X21" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>29.79900896488263</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -2238,7 +2238,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -2301,7 +2301,7 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -2317,7 +2317,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
@@ -2365,22 +2365,22 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>80.33470701582003</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T23" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>3.26531605719669</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
@@ -2399,16 +2399,16 @@
         <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D24" t="n">
         <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G24" t="n">
         <v>0</v>
@@ -2444,25 +2444,25 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>29.79900896488251</v>
+        <v>118.7333374090164</v>
       </c>
       <c r="U24" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V24" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W24" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="X24" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y24" t="n">
         <v>0</v>
@@ -2490,10 +2490,10 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="H25" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2554,28 +2554,28 @@
         </is>
       </c>
       <c r="B26" t="n">
+        <v>0</v>
+      </c>
+      <c r="C26" t="n">
+        <v>0</v>
+      </c>
+      <c r="D26" t="n">
+        <v>0</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0</v>
+      </c>
+      <c r="G26" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C26" t="n">
-        <v>0</v>
-      </c>
-      <c r="D26" t="n">
-        <v>0</v>
-      </c>
-      <c r="E26" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="F26" t="n">
-        <v>0</v>
-      </c>
-      <c r="G26" t="n">
-        <v>0</v>
-      </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>41.7314554634327</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2599,16 +2599,16 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T26" t="n">
-        <v>212.285385643442</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
@@ -2617,7 +2617,7 @@
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
@@ -2681,28 +2681,28 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>50.05769526855297</v>
+        <v>70.64856914772007</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U27" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V27" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W27" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X27" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y27" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -2724,58 +2724,58 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
+        <v>0</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0</v>
+      </c>
+      <c r="H28" t="n">
+        <v>0</v>
+      </c>
+      <c r="I28" t="n">
+        <v>0</v>
+      </c>
+      <c r="J28" t="n">
+        <v>0</v>
+      </c>
+      <c r="K28" t="n">
+        <v>0</v>
+      </c>
+      <c r="L28" t="n">
+        <v>0</v>
+      </c>
+      <c r="M28" t="n">
+        <v>0</v>
+      </c>
+      <c r="N28" t="n">
+        <v>0</v>
+      </c>
+      <c r="O28" t="n">
+        <v>0</v>
+      </c>
+      <c r="P28" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>0</v>
+      </c>
+      <c r="R28" t="n">
+        <v>0</v>
+      </c>
+      <c r="S28" t="n">
+        <v>0</v>
+      </c>
+      <c r="T28" t="n">
+        <v>0</v>
+      </c>
+      <c r="U28" t="n">
+        <v>0</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="G28" t="n">
-        <v>0</v>
-      </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
-      <c r="I28" t="n">
-        <v>0</v>
-      </c>
-      <c r="J28" t="n">
-        <v>0</v>
-      </c>
-      <c r="K28" t="n">
-        <v>0</v>
-      </c>
-      <c r="L28" t="n">
-        <v>0</v>
-      </c>
-      <c r="M28" t="n">
-        <v>0</v>
-      </c>
-      <c r="N28" t="n">
-        <v>0</v>
-      </c>
-      <c r="O28" t="n">
-        <v>0</v>
-      </c>
-      <c r="P28" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q28" t="n">
-        <v>0</v>
-      </c>
-      <c r="R28" t="n">
-        <v>0</v>
-      </c>
-      <c r="S28" t="n">
-        <v>0</v>
-      </c>
-      <c r="T28" t="n">
-        <v>0</v>
-      </c>
-      <c r="U28" t="n">
-        <v>0</v>
-      </c>
-      <c r="V28" t="n">
-        <v>0</v>
-      </c>
-      <c r="W28" t="n">
-        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -2797,7 +2797,7 @@
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
@@ -2836,28 +2836,28 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
       </c>
       <c r="V29" t="n">
+        <v>202.2946864288972</v>
+      </c>
+      <c r="W29" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="W29" t="n">
-        <v>0</v>
-      </c>
       <c r="X29" t="n">
-        <v>21.18375537072436</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -2873,7 +2873,7 @@
         <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D30" t="n">
         <v>0</v>
@@ -2924,22 +2924,22 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T30" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U30" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V30" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W30" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X30" t="n">
-        <v>0</v>
+        <v>63.88882306452232</v>
       </c>
       <c r="Y30" t="n">
-        <v>164.8304714084692</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -3000,13 +3000,13 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -3031,73 +3031,73 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D32" t="n">
-        <v>220.2131257424249</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G32" t="n">
+        <v>0</v>
+      </c>
+      <c r="H32" t="n">
+        <v>0</v>
+      </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>0</v>
+      </c>
+      <c r="K32" t="n">
+        <v>0</v>
+      </c>
+      <c r="L32" t="n">
+        <v>0</v>
+      </c>
+      <c r="M32" t="n">
+        <v>0</v>
+      </c>
+      <c r="N32" t="n">
+        <v>0</v>
+      </c>
+      <c r="O32" t="n">
+        <v>0</v>
+      </c>
+      <c r="P32" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>0</v>
+      </c>
+      <c r="R32" t="n">
+        <v>0</v>
+      </c>
+      <c r="S32" t="n">
+        <v>0</v>
+      </c>
+      <c r="T32" t="n">
+        <v>212.285385643442</v>
+      </c>
+      <c r="U32" t="n">
+        <v>0</v>
+      </c>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="n">
+        <v>0</v>
+      </c>
+      <c r="X32" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y32" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="H32" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="n">
-        <v>0</v>
-      </c>
-      <c r="K32" t="n">
-        <v>0</v>
-      </c>
-      <c r="L32" t="n">
-        <v>0</v>
-      </c>
-      <c r="M32" t="n">
-        <v>0</v>
-      </c>
-      <c r="N32" t="n">
-        <v>0</v>
-      </c>
-      <c r="O32" t="n">
-        <v>0</v>
-      </c>
-      <c r="P32" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q32" t="n">
-        <v>9.990699214544804</v>
-      </c>
-      <c r="R32" t="n">
-        <v>0</v>
-      </c>
-      <c r="S32" t="n">
-        <v>0</v>
-      </c>
-      <c r="T32" t="n">
-        <v>223.0958495641314</v>
-      </c>
-      <c r="U32" t="n">
-        <v>0</v>
-      </c>
-      <c r="V32" t="n">
-        <v>0</v>
-      </c>
-      <c r="W32" t="n">
-        <v>0</v>
-      </c>
-      <c r="X32" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y32" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -3107,7 +3107,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C33" t="n">
         <v>0</v>
@@ -3116,13 +3116,13 @@
         <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F33" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>24.90175820528639</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -3161,19 +3161,19 @@
         <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U33" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V33" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W33" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="X33" t="n">
-        <v>90.50278177497624</v>
+        <v>0</v>
       </c>
       <c r="Y33" t="n">
         <v>0</v>
@@ -3186,13 +3186,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -3268,10 +3268,10 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>230.2038249569697</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
@@ -3280,7 +3280,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -3316,22 +3316,22 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
         <v>223.0958495641314</v>
       </c>
       <c r="U35" t="n">
+        <v>0</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="n">
+        <v>0</v>
+      </c>
+      <c r="X35" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="V35" t="n">
-        <v>21.18375537072436</v>
-      </c>
-      <c r="W35" t="n">
-        <v>0</v>
-      </c>
-      <c r="X35" t="n">
-        <v>0</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -3350,25 +3350,25 @@
         <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
         <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>63.7427579587312</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -3398,10 +3398,10 @@
         <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U36" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V36" t="n">
         <v>232.8005871494253</v>
@@ -3413,7 +3413,7 @@
         <v>0</v>
       </c>
       <c r="Y36" t="n">
-        <v>0</v>
+        <v>35.40726547353844</v>
       </c>
     </row>
     <row r="37">
@@ -3435,7 +3435,7 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -3486,7 +3486,7 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -3502,7 +3502,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -3514,7 +3514,7 @@
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
@@ -3547,19 +3547,19 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S38" t="n">
-        <v>70.34400780127524</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T38" t="n">
         <v>223.0958495641314</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>112.3289263072337</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -3571,7 +3571,7 @@
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
     <row r="39">
@@ -3584,7 +3584,7 @@
         <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D39" t="n">
         <v>0</v>
@@ -3605,7 +3605,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -3629,16 +3629,16 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>62.86349518004441</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>49.3111039422953</v>
+        <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V39" t="n">
         <v>232.8005871494253</v>
@@ -3647,10 +3647,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="X39" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y39" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -3678,40 +3678,40 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
+        <v>0</v>
+      </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>0</v>
+      </c>
+      <c r="K40" t="n">
+        <v>0</v>
+      </c>
+      <c r="L40" t="n">
+        <v>0</v>
+      </c>
+      <c r="M40" t="n">
+        <v>0</v>
+      </c>
+      <c r="N40" t="n">
+        <v>0</v>
+      </c>
+      <c r="O40" t="n">
+        <v>0</v>
+      </c>
+      <c r="P40" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>0</v>
+      </c>
+      <c r="R40" t="n">
+        <v>0</v>
+      </c>
+      <c r="S40" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="n">
-        <v>0</v>
-      </c>
-      <c r="K40" t="n">
-        <v>0</v>
-      </c>
-      <c r="L40" t="n">
-        <v>0</v>
-      </c>
-      <c r="M40" t="n">
-        <v>0</v>
-      </c>
-      <c r="N40" t="n">
-        <v>0</v>
-      </c>
-      <c r="O40" t="n">
-        <v>0</v>
-      </c>
-      <c r="P40" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q40" t="n">
-        <v>0</v>
-      </c>
-      <c r="R40" t="n">
-        <v>0</v>
-      </c>
-      <c r="S40" t="n">
-        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -3742,7 +3742,7 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
@@ -3754,16 +3754,16 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>72.47049842454874</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
@@ -3784,16 +3784,16 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>149.8691179411497</v>
+        <v>21.18375537072436</v>
       </c>
       <c r="S41" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U41" t="n">
         <v>241.0142888776591</v>
@@ -3824,16 +3824,16 @@
         <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>0</v>
+        <v>110.8320796684431</v>
       </c>
       <c r="E42" t="n">
         <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -3866,28 +3866,28 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>64.38401073897953</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U42" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V42" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W42" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X42" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y42" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -3948,13 +3948,13 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
+        <v>0</v>
+      </c>
+      <c r="T43" t="n">
+        <v>0</v>
+      </c>
+      <c r="U43" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="T43" t="n">
-        <v>0</v>
-      </c>
-      <c r="U43" t="n">
-        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -3985,10 +3985,10 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>11.19305615617957</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G44" t="n">
         <v>241.0142888776591</v>
@@ -4000,7 +4000,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -4021,19 +4021,19 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R44" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T44" t="n">
         <v>223.0958495641314</v>
       </c>
       <c r="U44" t="n">
-        <v>68.38541766120755</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -4042,7 +4042,7 @@
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -4055,25 +4055,25 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D45" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -4112,16 +4112,16 @@
         <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>69.05674881342119</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V45" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W45" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X45" t="n">
-        <v>0</v>
+        <v>62.86349518004438</v>
       </c>
       <c r="Y45" t="n">
         <v>0</v>
@@ -4188,10 +4188,10 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="U46" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -4306,22 +4306,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>19.28114311021272</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C2" t="n">
-        <v>19.28114311021272</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="D2" t="n">
-        <v>19.28114311021272</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="E2" t="n">
-        <v>19.28114311021272</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="F2" t="n">
-        <v>19.28114311021272</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="G2" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="H2" t="n">
         <v>19.28114311021272</v>
@@ -4354,28 +4354,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R2" t="n">
-        <v>812.6742080953335</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S2" t="n">
-        <v>601.5428246748836</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T2" t="n">
-        <v>376.1934816808115</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U2" t="n">
-        <v>262.7299197543128</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V2" t="n">
-        <v>19.28114311021272</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="W2" t="n">
-        <v>19.28114311021272</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="X2" t="n">
-        <v>19.28114311021272</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="Y2" t="n">
-        <v>19.28114311021272</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="3">
@@ -4385,7 +4385,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>19.28114311021272</v>
+        <v>55.04605772994853</v>
       </c>
       <c r="C3" t="n">
         <v>19.28114311021272</v>
@@ -4418,13 +4418,13 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M3" t="n">
-        <v>486.8488635328713</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N3" t="n">
-        <v>725.4530095217538</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="O3" t="n">
-        <v>964.0571555106362</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P3" t="n">
         <v>964.0571555106362</v>
@@ -4454,7 +4454,7 @@
         <v>55.04605772994853</v>
       </c>
       <c r="Y3" t="n">
-        <v>19.28114311021272</v>
+        <v>55.04605772994853</v>
       </c>
     </row>
     <row r="4">
@@ -4521,7 +4521,7 @@
         <v>153.8134336004835</v>
       </c>
       <c r="U4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V4" t="n">
         <v>19.28114311021272</v>
@@ -4543,22 +4543,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>19.28114311021272</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="C5" t="n">
-        <v>19.28114311021272</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="D5" t="n">
-        <v>19.28114311021272</v>
+        <v>710.516763498309</v>
       </c>
       <c r="E5" t="n">
-        <v>19.28114311021272</v>
+        <v>467.067986854209</v>
       </c>
       <c r="F5" t="n">
-        <v>19.28114311021272</v>
+        <v>223.6192102101089</v>
       </c>
       <c r="G5" t="n">
-        <v>19.28114311021272</v>
+        <v>223.6192102101089</v>
       </c>
       <c r="H5" t="n">
         <v>19.28114311021272</v>
@@ -4597,22 +4597,22 @@
         <v>953.9655401424092</v>
       </c>
       <c r="T5" t="n">
-        <v>749.627473042513</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U5" t="n">
-        <v>749.627473042513</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="V5" t="n">
-        <v>749.627473042513</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="W5" t="n">
-        <v>749.627473042513</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="X5" t="n">
-        <v>506.1786963984129</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="Y5" t="n">
-        <v>262.7299197543128</v>
+        <v>953.9655401424092</v>
       </c>
     </row>
     <row r="6">
@@ -4622,13 +4622,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>352.9716273967953</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C6" t="n">
-        <v>178.5185981156682</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D6" t="n">
-        <v>178.5185981156682</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E6" t="n">
         <v>19.28114311021272</v>
@@ -4649,16 +4649,16 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K6" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L6" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M6" t="n">
-        <v>487.8483949674443</v>
+        <v>542.809531908403</v>
       </c>
       <c r="N6" t="n">
-        <v>726.4525409563269</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O6" t="n">
         <v>781.4136778972854</v>
@@ -4673,25 +4673,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S6" t="n">
-        <v>964.0571555106362</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T6" t="n">
-        <v>964.0571555106362</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="U6" t="n">
-        <v>735.8335372470253</v>
+        <v>562.4161926976942</v>
       </c>
       <c r="V6" t="n">
-        <v>596.4204040408954</v>
+        <v>327.2640844659515</v>
       </c>
       <c r="W6" t="n">
-        <v>352.9716273967953</v>
+        <v>327.2640844659515</v>
       </c>
       <c r="X6" t="n">
-        <v>352.9716273967953</v>
+        <v>119.4125842604187</v>
       </c>
       <c r="Y6" t="n">
-        <v>352.9716273967953</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="7">
@@ -4758,10 +4758,10 @@
         <v>153.8134336004835</v>
       </c>
       <c r="U7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W7" t="n">
         <v>19.28114311021272</v>
@@ -4892,10 +4892,10 @@
         <v>249.2442489785619</v>
       </c>
       <c r="M9" t="n">
-        <v>486.8488635328713</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N9" t="n">
-        <v>725.4530095217538</v>
+        <v>726.4525409563269</v>
       </c>
       <c r="O9" t="n">
         <v>964.0571555106362</v>
@@ -4913,19 +4913,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T9" t="n">
-        <v>964.0571555106362</v>
+        <v>933.9571464551993</v>
       </c>
       <c r="U9" t="n">
-        <v>735.8335372470253</v>
+        <v>705.7335281915883</v>
       </c>
       <c r="V9" t="n">
-        <v>500.6814290152826</v>
+        <v>470.5814199598456</v>
       </c>
       <c r="W9" t="n">
-        <v>257.2326523711826</v>
+        <v>227.1326433157456</v>
       </c>
       <c r="X9" t="n">
-        <v>49.38115216564972</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y9" t="n">
         <v>19.28114311021272</v>
@@ -5017,22 +5017,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C11" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D11" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E11" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F11" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G11" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H11" t="n">
         <v>19.28114311021272</v>
@@ -5062,31 +5062,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q11" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R11" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S11" t="n">
-        <v>964.0571555106362</v>
+        <v>742.8341567219593</v>
       </c>
       <c r="T11" t="n">
-        <v>964.0571555106362</v>
+        <v>517.4848137278872</v>
       </c>
       <c r="U11" t="n">
-        <v>749.627473042513</v>
+        <v>517.4848137278872</v>
       </c>
       <c r="V11" t="n">
-        <v>506.1786963984129</v>
+        <v>517.4848137278872</v>
       </c>
       <c r="W11" t="n">
-        <v>506.1786963984129</v>
+        <v>274.0360370837871</v>
       </c>
       <c r="X11" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="Y11" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="12">
@@ -5096,7 +5096,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>19.28114311021272</v>
+        <v>193.7341723913397</v>
       </c>
       <c r="C12" t="n">
         <v>19.28114311021272</v>
@@ -5123,16 +5123,16 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K12" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L12" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M12" t="n">
-        <v>487.8483949674443</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N12" t="n">
-        <v>726.4525409563269</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="O12" t="n">
         <v>781.4136778972854</v>
@@ -5144,28 +5144,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R12" t="n">
-        <v>898.2686685760532</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S12" t="n">
-        <v>898.2686685760532</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T12" t="n">
-        <v>898.2686685760532</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="U12" t="n">
-        <v>670.0450503124422</v>
+        <v>672.3350572671825</v>
       </c>
       <c r="V12" t="n">
-        <v>434.8929420806995</v>
+        <v>437.1829490354398</v>
       </c>
       <c r="W12" t="n">
-        <v>434.8929420806995</v>
+        <v>193.7341723913397</v>
       </c>
       <c r="X12" t="n">
-        <v>227.0414418751666</v>
+        <v>193.7341723913397</v>
       </c>
       <c r="Y12" t="n">
-        <v>19.28114311021272</v>
+        <v>193.7341723913397</v>
       </c>
     </row>
     <row r="13">
@@ -5254,19 +5254,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>132.7447050367114</v>
+        <v>376.1934816808115</v>
       </c>
       <c r="C14" t="n">
-        <v>132.7447050367114</v>
+        <v>376.1934816808115</v>
       </c>
       <c r="D14" t="n">
-        <v>132.7447050367114</v>
+        <v>376.1934816808115</v>
       </c>
       <c r="E14" t="n">
-        <v>132.7447050367114</v>
+        <v>376.1934816808115</v>
       </c>
       <c r="F14" t="n">
-        <v>132.7447050367114</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G14" t="n">
         <v>19.28114311021272</v>
@@ -5360,19 +5360,19 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K15" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L15" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M15" t="n">
-        <v>487.8483949674443</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="N15" t="n">
-        <v>726.4525409563269</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O15" t="n">
-        <v>964.0571555106362</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P15" t="n">
         <v>964.0571555106362</v>
@@ -5387,22 +5387,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T15" t="n">
-        <v>761.8705608694022</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U15" t="n">
-        <v>761.8705608694022</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V15" t="n">
-        <v>526.7184526376595</v>
+        <v>728.9050472788936</v>
       </c>
       <c r="W15" t="n">
-        <v>434.8929420806995</v>
+        <v>485.4562706347935</v>
       </c>
       <c r="X15" t="n">
-        <v>227.0414418751666</v>
+        <v>277.6047704292607</v>
       </c>
       <c r="Y15" t="n">
-        <v>19.28114311021272</v>
+        <v>69.84447166430675</v>
       </c>
     </row>
     <row r="16">
@@ -5463,16 +5463,16 @@
         <v>153.8134336004835</v>
       </c>
       <c r="S16" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T16" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U16" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V16" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W16" t="n">
         <v>19.28114311021272</v>
@@ -5491,19 +5491,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C17" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D17" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E17" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F17" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G17" t="n">
         <v>19.28114311021272</v>
@@ -5536,31 +5536,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q17" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R17" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S17" t="n">
-        <v>731.528039392485</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T17" t="n">
+        <v>738.7078125165641</v>
+      </c>
+      <c r="U17" t="n">
+        <v>738.7078125165641</v>
+      </c>
+      <c r="V17" t="n">
+        <v>738.7078125165641</v>
+      </c>
+      <c r="W17" t="n">
         <v>506.1786963984129</v>
-      </c>
-      <c r="U17" t="n">
-        <v>262.7299197543128</v>
-      </c>
-      <c r="V17" t="n">
-        <v>262.7299197543128</v>
-      </c>
-      <c r="W17" t="n">
-        <v>262.7299197543128</v>
       </c>
       <c r="X17" t="n">
         <v>262.7299197543128</v>
       </c>
       <c r="Y17" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="18">
@@ -5597,16 +5597,16 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K18" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L18" t="n">
-        <v>374.6018090363993</v>
+        <v>65.60123993063803</v>
       </c>
       <c r="M18" t="n">
-        <v>613.2059550252818</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="N18" t="n">
-        <v>781.4136778972854</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O18" t="n">
         <v>781.4136778972854</v>
@@ -5621,22 +5621,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S18" t="n">
-        <v>964.0571555106362</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T18" t="n">
-        <v>964.0571555106362</v>
+        <v>726.1056462496665</v>
       </c>
       <c r="U18" t="n">
-        <v>913.4938269565423</v>
+        <v>497.8820279860555</v>
       </c>
       <c r="V18" t="n">
-        <v>678.3417187247995</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="W18" t="n">
-        <v>434.8929420806995</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X18" t="n">
-        <v>227.0414418751666</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y18" t="n">
         <v>19.28114311021272</v>
@@ -5712,10 +5712,10 @@
         <v>153.8134336004835</v>
       </c>
       <c r="W19" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X19" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y19" t="n">
         <v>19.28114311021272</v>
@@ -5728,16 +5728,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C20" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D20" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E20" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F20" t="n">
         <v>262.7299197543128</v>
@@ -5776,28 +5776,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R20" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S20" t="n">
-        <v>964.0571555106362</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="T20" t="n">
-        <v>749.627473042513</v>
+        <v>376.1934816808115</v>
       </c>
       <c r="U20" t="n">
-        <v>749.627473042513</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="V20" t="n">
-        <v>749.627473042513</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="W20" t="n">
-        <v>749.627473042513</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="X20" t="n">
-        <v>749.627473042513</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="Y20" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="21">
@@ -5807,25 +5807,25 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>19.28114311021272</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="C21" t="n">
-        <v>19.28114311021272</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="D21" t="n">
-        <v>19.28114311021272</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="E21" t="n">
-        <v>19.28114311021272</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="F21" t="n">
-        <v>19.28114311021272</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="G21" t="n">
-        <v>19.28114311021272</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="H21" t="n">
-        <v>19.28114311021272</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="I21" t="n">
         <v>19.28114311021272</v>
@@ -5840,16 +5840,16 @@
         <v>249.2442489785619</v>
       </c>
       <c r="M21" t="n">
-        <v>304.2053859195205</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N21" t="n">
-        <v>542.809531908403</v>
+        <v>712.019119383956</v>
       </c>
       <c r="O21" t="n">
-        <v>781.4136778972854</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P21" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q21" t="n">
         <v>964.0571555106362</v>
@@ -5861,22 +5861,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T21" t="n">
-        <v>964.0571555106362</v>
+        <v>816.40527539251</v>
       </c>
       <c r="U21" t="n">
-        <v>735.8335372470253</v>
+        <v>588.181657128899</v>
       </c>
       <c r="V21" t="n">
-        <v>500.6814290152826</v>
+        <v>353.0295488971563</v>
       </c>
       <c r="W21" t="n">
-        <v>257.2326523711826</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="X21" t="n">
-        <v>49.38115216564972</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="Y21" t="n">
-        <v>19.28114311021272</v>
+        <v>109.5807722530562</v>
       </c>
     </row>
     <row r="22">
@@ -5949,13 +5949,13 @@
         <v>153.8134336004835</v>
       </c>
       <c r="W22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="23">
@@ -6013,28 +6013,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R23" t="n">
-        <v>812.6742080953335</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S23" t="n">
-        <v>731.528039392485</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="T23" t="n">
-        <v>506.1786963984129</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="U23" t="n">
-        <v>506.1786963984129</v>
+        <v>509.4769954460863</v>
       </c>
       <c r="V23" t="n">
-        <v>506.1786963984129</v>
+        <v>266.0282188019862</v>
       </c>
       <c r="W23" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="X23" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="Y23" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="24">
@@ -6044,16 +6044,16 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>19.28114311021272</v>
+        <v>499.5061853699102</v>
       </c>
       <c r="C24" t="n">
-        <v>19.28114311021272</v>
+        <v>325.0531560887832</v>
       </c>
       <c r="D24" t="n">
-        <v>19.28114311021272</v>
+        <v>325.0531560887832</v>
       </c>
       <c r="E24" t="n">
-        <v>19.28114311021272</v>
+        <v>165.8157010833278</v>
       </c>
       <c r="F24" t="n">
         <v>19.28114311021272</v>
@@ -6074,13 +6074,13 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L24" t="n">
-        <v>249.2442489785619</v>
+        <v>248.2447175439888</v>
       </c>
       <c r="M24" t="n">
-        <v>487.8483949674443</v>
+        <v>486.8488635328713</v>
       </c>
       <c r="N24" t="n">
-        <v>726.4525409563269</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O24" t="n">
         <v>964.0571555106362</v>
@@ -6092,28 +6092,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R24" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S24" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T24" t="n">
-        <v>933.9571464551993</v>
+        <v>742.9549620140103</v>
       </c>
       <c r="U24" t="n">
-        <v>705.7335281915883</v>
+        <v>742.9549620140103</v>
       </c>
       <c r="V24" t="n">
-        <v>470.5814199598456</v>
+        <v>742.9549620140103</v>
       </c>
       <c r="W24" t="n">
-        <v>227.1326433157456</v>
+        <v>499.5061853699102</v>
       </c>
       <c r="X24" t="n">
-        <v>19.28114311021272</v>
+        <v>499.5061853699102</v>
       </c>
       <c r="Y24" t="n">
-        <v>19.28114311021272</v>
+        <v>499.5061853699102</v>
       </c>
     </row>
     <row r="25">
@@ -6138,7 +6138,7 @@
         <v>153.8134336004835</v>
       </c>
       <c r="G25" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H25" t="n">
         <v>19.28114311021272</v>
@@ -6202,25 +6202,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>262.7299197543128</v>
+        <v>517.4848137278872</v>
       </c>
       <c r="C26" t="n">
-        <v>262.7299197543128</v>
+        <v>517.4848137278872</v>
       </c>
       <c r="D26" t="n">
-        <v>262.7299197543128</v>
+        <v>517.4848137278872</v>
       </c>
       <c r="E26" t="n">
-        <v>19.28114311021272</v>
+        <v>517.4848137278872</v>
       </c>
       <c r="F26" t="n">
-        <v>19.28114311021272</v>
+        <v>517.4848137278872</v>
       </c>
       <c r="G26" t="n">
-        <v>19.28114311021272</v>
+        <v>274.0360370837871</v>
       </c>
       <c r="H26" t="n">
-        <v>19.28114311021272</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="I26" t="n">
         <v>19.28114311021272</v>
@@ -6247,31 +6247,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q26" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R26" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S26" t="n">
-        <v>964.0571555106362</v>
+        <v>742.8341567219593</v>
       </c>
       <c r="T26" t="n">
-        <v>749.627473042513</v>
+        <v>517.4848137278872</v>
       </c>
       <c r="U26" t="n">
-        <v>749.627473042513</v>
+        <v>517.4848137278872</v>
       </c>
       <c r="V26" t="n">
-        <v>749.627473042513</v>
+        <v>517.4848137278872</v>
       </c>
       <c r="W26" t="n">
-        <v>506.1786963984129</v>
+        <v>517.4848137278872</v>
       </c>
       <c r="X26" t="n">
-        <v>506.1786963984129</v>
+        <v>517.4848137278872</v>
       </c>
       <c r="Y26" t="n">
-        <v>506.1786963984129</v>
+        <v>517.4848137278872</v>
       </c>
     </row>
     <row r="27">
@@ -6308,19 +6308,19 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K27" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L27" t="n">
-        <v>249.2442489785619</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="M27" t="n">
-        <v>487.8483949674443</v>
+        <v>383.2428491569326</v>
       </c>
       <c r="N27" t="n">
-        <v>726.4525409563269</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O27" t="n">
-        <v>894.6625969973069</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P27" t="n">
         <v>894.6625969973069</v>
@@ -6329,25 +6329,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R27" t="n">
-        <v>913.4938269565423</v>
+        <v>892.6949644523331</v>
       </c>
       <c r="S27" t="n">
-        <v>913.4938269565423</v>
+        <v>892.6949644523331</v>
       </c>
       <c r="T27" t="n">
-        <v>913.4938269565423</v>
+        <v>690.5083698110992</v>
       </c>
       <c r="U27" t="n">
-        <v>913.4938269565423</v>
+        <v>462.2847515474883</v>
       </c>
       <c r="V27" t="n">
-        <v>678.3417187247995</v>
+        <v>227.1326433157456</v>
       </c>
       <c r="W27" t="n">
-        <v>434.8929420806995</v>
+        <v>227.1326433157456</v>
       </c>
       <c r="X27" t="n">
-        <v>227.0414418751666</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y27" t="n">
         <v>19.28114311021272</v>
@@ -6360,16 +6360,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C28" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D28" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E28" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F28" t="n">
         <v>19.28114311021272</v>
@@ -6423,13 +6423,13 @@
         <v>153.8134336004835</v>
       </c>
       <c r="W28" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X28" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y28" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="29">
@@ -6439,10 +6439,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>262.7299197543128</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C29" t="n">
-        <v>262.7299197543128</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="D29" t="n">
         <v>262.7299197543128</v>
@@ -6484,31 +6484,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q29" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R29" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S29" t="n">
-        <v>752.9257720901863</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T29" t="n">
-        <v>527.5764290961142</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U29" t="n">
-        <v>527.5764290961142</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="V29" t="n">
-        <v>284.1276524520142</v>
+        <v>749.627473042513</v>
       </c>
       <c r="W29" t="n">
-        <v>284.1276524520142</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="X29" t="n">
-        <v>262.7299197543128</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="Y29" t="n">
-        <v>262.7299197543128</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="30">
@@ -6518,7 +6518,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>193.7341723913397</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C30" t="n">
         <v>19.28114311021272</v>
@@ -6554,7 +6554,7 @@
         <v>613.2059550252818</v>
       </c>
       <c r="N30" t="n">
-        <v>851.8101010141643</v>
+        <v>656.0584510084244</v>
       </c>
       <c r="O30" t="n">
         <v>894.6625969973069</v>
@@ -6572,22 +6572,22 @@
         <v>790.6398109613051</v>
       </c>
       <c r="T30" t="n">
-        <v>588.4532163200711</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="U30" t="n">
-        <v>360.2295980564601</v>
+        <v>562.4161926976942</v>
       </c>
       <c r="V30" t="n">
-        <v>360.2295980564601</v>
+        <v>327.2640844659515</v>
       </c>
       <c r="W30" t="n">
-        <v>360.2295980564601</v>
+        <v>83.81530782185143</v>
       </c>
       <c r="X30" t="n">
-        <v>360.2295980564601</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y30" t="n">
-        <v>193.7341723913397</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="31">
@@ -6648,10 +6648,10 @@
         <v>153.8134336004835</v>
       </c>
       <c r="S31" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T31" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U31" t="n">
         <v>19.28114311021272</v>
@@ -6676,22 +6676,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>728.6161971483371</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C32" t="n">
-        <v>728.6161971483371</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D32" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E32" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F32" t="n">
-        <v>506.1786963984129</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G32" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H32" t="n">
         <v>19.28114311021272</v>
@@ -6721,31 +6721,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q32" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R32" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S32" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T32" t="n">
-        <v>728.6161971483371</v>
+        <v>749.627473042513</v>
       </c>
       <c r="U32" t="n">
-        <v>728.6161971483371</v>
+        <v>749.627473042513</v>
       </c>
       <c r="V32" t="n">
-        <v>728.6161971483371</v>
+        <v>749.627473042513</v>
       </c>
       <c r="W32" t="n">
-        <v>728.6161971483371</v>
+        <v>749.627473042513</v>
       </c>
       <c r="X32" t="n">
-        <v>728.6161971483371</v>
+        <v>749.627473042513</v>
       </c>
       <c r="Y32" t="n">
-        <v>728.6161971483371</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="33">
@@ -6755,19 +6755,19 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>165.8157010833278</v>
+        <v>350.2064472052342</v>
       </c>
       <c r="C33" t="n">
-        <v>165.8157010833278</v>
+        <v>350.2064472052342</v>
       </c>
       <c r="D33" t="n">
-        <v>165.8157010833278</v>
+        <v>350.2064472052342</v>
       </c>
       <c r="E33" t="n">
-        <v>165.8157010833278</v>
+        <v>190.9689921997787</v>
       </c>
       <c r="F33" t="n">
-        <v>19.28114311021272</v>
+        <v>44.43443422666363</v>
       </c>
       <c r="G33" t="n">
         <v>19.28114311021272</v>
@@ -6788,16 +6788,16 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M33" t="n">
-        <v>473.4149733950735</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N33" t="n">
-        <v>473.4149733950735</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="O33" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P33" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q33" t="n">
         <v>964.0571555106362</v>
@@ -6809,22 +6809,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T33" t="n">
-        <v>964.0571555106362</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="U33" t="n">
-        <v>735.8335372470253</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="V33" t="n">
-        <v>500.6814290152826</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="W33" t="n">
-        <v>257.2326523711826</v>
+        <v>518.4217842253022</v>
       </c>
       <c r="X33" t="n">
-        <v>165.8157010833278</v>
+        <v>518.4217842253022</v>
       </c>
       <c r="Y33" t="n">
-        <v>165.8157010833278</v>
+        <v>518.4217842253022</v>
       </c>
     </row>
     <row r="34">
@@ -6834,10 +6834,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C34" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D34" t="n">
         <v>19.28114311021272</v>
@@ -6913,19 +6913,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>262.7299197543128</v>
+        <v>495.259035872464</v>
       </c>
       <c r="C35" t="n">
         <v>262.7299197543128</v>
       </c>
       <c r="D35" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E35" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F35" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G35" t="n">
         <v>19.28114311021272</v>
@@ -6964,25 +6964,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S35" t="n">
-        <v>752.9257720901863</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T35" t="n">
-        <v>527.5764290961142</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="U35" t="n">
-        <v>284.1276524520142</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="V35" t="n">
-        <v>262.7299197543128</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="W35" t="n">
-        <v>262.7299197543128</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="X35" t="n">
-        <v>262.7299197543128</v>
+        <v>495.259035872464</v>
       </c>
       <c r="Y35" t="n">
-        <v>262.7299197543128</v>
+        <v>495.259035872464</v>
       </c>
     </row>
     <row r="36">
@@ -6992,28 +6992,28 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>485.4562706347935</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C36" t="n">
-        <v>485.4562706347935</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D36" t="n">
-        <v>336.5218609735422</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E36" t="n">
-        <v>336.5218609735422</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F36" t="n">
-        <v>272.1352367728036</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G36" t="n">
-        <v>133.4044113554191</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H36" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I36" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J36" t="n">
         <v>19.28114311021272</v>
@@ -7022,19 +7022,19 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L36" t="n">
-        <v>19.28114311021272</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M36" t="n">
-        <v>257.8852890990952</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N36" t="n">
-        <v>496.4894350879777</v>
+        <v>726.4525409563269</v>
       </c>
       <c r="O36" t="n">
-        <v>735.0935810768601</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P36" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q36" t="n">
         <v>964.0571555106362</v>
@@ -7046,22 +7046,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T36" t="n">
-        <v>964.0571555106362</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="U36" t="n">
-        <v>964.0571555106362</v>
+        <v>533.6469426057913</v>
       </c>
       <c r="V36" t="n">
-        <v>728.9050472788936</v>
+        <v>298.4948343740486</v>
       </c>
       <c r="W36" t="n">
-        <v>485.4562706347935</v>
+        <v>55.04605772994853</v>
       </c>
       <c r="X36" t="n">
-        <v>485.4562706347935</v>
+        <v>55.04605772994853</v>
       </c>
       <c r="Y36" t="n">
-        <v>485.4562706347935</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="37">
@@ -7071,16 +7071,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C37" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D37" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E37" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F37" t="n">
         <v>19.28114311021272</v>
@@ -7134,13 +7134,13 @@
         <v>153.8134336004835</v>
       </c>
       <c r="W37" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X37" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y37" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="38">
@@ -7150,16 +7150,16 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C38" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D38" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E38" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F38" t="n">
         <v>19.28114311021272</v>
@@ -7195,31 +7195,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q38" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R38" t="n">
-        <v>802.5825927271064</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S38" t="n">
-        <v>731.528039392485</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="T38" t="n">
-        <v>506.1786963984129</v>
+        <v>376.1934816808115</v>
       </c>
       <c r="U38" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="V38" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="W38" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="X38" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="Y38" t="n">
-        <v>506.1786963984129</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="39">
@@ -7229,28 +7229,28 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>20.03527576299844</v>
+        <v>193.7341723913397</v>
       </c>
       <c r="C39" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D39" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E39" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F39" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G39" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H39" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I39" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J39" t="n">
         <v>19.28114311021272</v>
@@ -7277,28 +7277,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R39" t="n">
-        <v>964.0571555106362</v>
+        <v>900.5586755307934</v>
       </c>
       <c r="S39" t="n">
-        <v>964.0571555106362</v>
+        <v>900.5586755307934</v>
       </c>
       <c r="T39" t="n">
-        <v>914.2479596093278</v>
+        <v>900.5586755307934</v>
       </c>
       <c r="U39" t="n">
-        <v>914.2479596093278</v>
+        <v>672.3350572671825</v>
       </c>
       <c r="V39" t="n">
-        <v>679.0958513775852</v>
+        <v>437.1829490354398</v>
       </c>
       <c r="W39" t="n">
-        <v>435.6470747334852</v>
+        <v>193.7341723913397</v>
       </c>
       <c r="X39" t="n">
-        <v>227.7955745279523</v>
+        <v>193.7341723913397</v>
       </c>
       <c r="Y39" t="n">
-        <v>20.03527576299844</v>
+        <v>193.7341723913397</v>
       </c>
     </row>
     <row r="40">
@@ -7308,22 +7308,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C40" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D40" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E40" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F40" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G40" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H40" t="n">
         <v>19.28114311021272</v>
@@ -7359,25 +7359,25 @@
         <v>153.8134336004835</v>
       </c>
       <c r="S40" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T40" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U40" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V40" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W40" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X40" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y40" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="41">
@@ -7387,28 +7387,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>348.0024326625565</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C41" t="n">
-        <v>348.0024326625565</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D41" t="n">
-        <v>348.0024326625565</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E41" t="n">
-        <v>348.0024326625565</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F41" t="n">
-        <v>348.0024326625565</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G41" t="n">
-        <v>274.7999090013961</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H41" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I41" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J41" t="n">
         <v>19.28114311021272</v>
@@ -7432,31 +7432,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q41" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R41" t="n">
-        <v>802.5825927271064</v>
+        <v>942.6594228129348</v>
       </c>
       <c r="S41" t="n">
-        <v>591.4512093066566</v>
+        <v>731.528039392485</v>
       </c>
       <c r="T41" t="n">
-        <v>591.4512093066566</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="U41" t="n">
-        <v>348.0024326625565</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="V41" t="n">
-        <v>348.0024326625565</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="W41" t="n">
-        <v>348.0024326625565</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="X41" t="n">
-        <v>348.0024326625565</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="Y41" t="n">
-        <v>348.0024326625565</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="42">
@@ -7466,19 +7466,19 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>20.03527576299844</v>
+        <v>417.2522547781879</v>
       </c>
       <c r="C42" t="n">
-        <v>20.03527576299844</v>
+        <v>417.2522547781879</v>
       </c>
       <c r="D42" t="n">
-        <v>20.03527576299844</v>
+        <v>305.3006591534979</v>
       </c>
       <c r="E42" t="n">
-        <v>20.03527576299844</v>
+        <v>305.3006591534979</v>
       </c>
       <c r="F42" t="n">
-        <v>20.03527576299844</v>
+        <v>158.7661011803829</v>
       </c>
       <c r="G42" t="n">
         <v>20.03527576299844</v>
@@ -7493,49 +7493,49 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K42" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L42" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M42" t="n">
-        <v>487.8483949674443</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="N42" t="n">
-        <v>725.4530095217538</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O42" t="n">
-        <v>964.0571555106362</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P42" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q42" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R42" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S42" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T42" t="n">
-        <v>899.0228012288387</v>
+        <v>660.701031422288</v>
       </c>
       <c r="U42" t="n">
-        <v>670.7991829652278</v>
+        <v>660.701031422288</v>
       </c>
       <c r="V42" t="n">
-        <v>435.6470747334852</v>
+        <v>660.701031422288</v>
       </c>
       <c r="W42" t="n">
-        <v>435.6470747334852</v>
+        <v>417.2522547781879</v>
       </c>
       <c r="X42" t="n">
-        <v>227.7955745279523</v>
+        <v>417.2522547781879</v>
       </c>
       <c r="Y42" t="n">
-        <v>20.03527576299844</v>
+        <v>417.2522547781879</v>
       </c>
     </row>
     <row r="43">
@@ -7596,10 +7596,10 @@
         <v>153.8134336004835</v>
       </c>
       <c r="S43" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T43" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U43" t="n">
         <v>19.28114311021272</v>
@@ -7624,28 +7624,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>274.7999090013961</v>
+        <v>517.4848137278872</v>
       </c>
       <c r="C44" t="n">
-        <v>274.7999090013961</v>
+        <v>517.4848137278872</v>
       </c>
       <c r="D44" t="n">
-        <v>274.7999090013961</v>
+        <v>517.4848137278872</v>
       </c>
       <c r="E44" t="n">
-        <v>274.7999090013961</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="F44" t="n">
-        <v>274.7999090013961</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G44" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H44" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I44" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J44" t="n">
         <v>19.28114311021272</v>
@@ -7669,31 +7669,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q44" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R44" t="n">
-        <v>812.6742080953335</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S44" t="n">
-        <v>812.6742080953335</v>
+        <v>742.8341567219593</v>
       </c>
       <c r="T44" t="n">
-        <v>587.3248651012614</v>
+        <v>517.4848137278872</v>
       </c>
       <c r="U44" t="n">
-        <v>518.2486856454962</v>
+        <v>517.4848137278872</v>
       </c>
       <c r="V44" t="n">
-        <v>518.2486856454962</v>
+        <v>517.4848137278872</v>
       </c>
       <c r="W44" t="n">
-        <v>518.2486856454962</v>
+        <v>517.4848137278872</v>
       </c>
       <c r="X44" t="n">
-        <v>274.7999090013961</v>
+        <v>517.4848137278872</v>
       </c>
       <c r="Y44" t="n">
-        <v>274.7999090013961</v>
+        <v>517.4848137278872</v>
       </c>
     </row>
     <row r="45">
@@ -7703,22 +7703,22 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>726.0875267598396</v>
+        <v>193.7341723913397</v>
       </c>
       <c r="C45" t="n">
-        <v>726.0875267598396</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D45" t="n">
-        <v>577.1531170985884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E45" t="n">
-        <v>417.9156620931329</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F45" t="n">
-        <v>271.3811041200179</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G45" t="n">
-        <v>132.6502787026334</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H45" t="n">
         <v>19.28114311021272</v>
@@ -7730,13 +7730,13 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K45" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L45" t="n">
-        <v>65.60123993063803</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M45" t="n">
-        <v>304.2053859195205</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="N45" t="n">
         <v>542.809531908403</v>
@@ -7760,19 +7760,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="U45" t="n">
-        <v>894.3028637799077</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V45" t="n">
-        <v>894.3028637799077</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="W45" t="n">
-        <v>894.3028637799077</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="X45" t="n">
-        <v>894.3028637799077</v>
+        <v>193.7341723913397</v>
       </c>
       <c r="Y45" t="n">
-        <v>894.3028637799077</v>
+        <v>193.7341723913397</v>
       </c>
     </row>
     <row r="46">
@@ -7836,7 +7836,7 @@
         <v>153.8134336004835</v>
       </c>
       <c r="T46" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U46" t="n">
         <v>19.28114311021272</v>
@@ -8066,16 +8066,16 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>255.5148970497678</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N3" t="n">
-        <v>372.3560009609923</v>
+        <v>301.2485028631349</v>
       </c>
       <c r="O3" t="n">
-        <v>383.6105333221035</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P3" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
         <v>139.9817740860215</v>
@@ -8297,19 +8297,19 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>383.1483227996774</v>
+        <v>312.04082470182</v>
       </c>
       <c r="N6" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O6" t="n">
-        <v>198.1125443848066</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P6" t="n">
         <v>318.4627686399372</v>
@@ -8540,13 +8540,13 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>382.1386950879875</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N9" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O9" t="n">
-        <v>383.6105333221035</v>
+        <v>382.6009056104135</v>
       </c>
       <c r="P9" t="n">
         <v>133.9744074143302</v>
@@ -8771,7 +8771,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
         <v>370.8403453034592</v>
@@ -8780,10 +8780,10 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N12" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
-        <v>198.1125443848066</v>
+        <v>312.5030352242461</v>
       </c>
       <c r="P12" t="n">
         <v>318.4627686399372</v>
@@ -8929,7 +8929,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K14" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711648</v>
       </c>
       <c r="L14" t="n">
         <v>417.6612145504504</v>
@@ -9008,22 +9008,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M15" t="n">
-        <v>383.1483227996774</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N15" t="n">
-        <v>372.3560009609923</v>
+        <v>301.248502863135</v>
       </c>
       <c r="O15" t="n">
-        <v>382.6009056104135</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P15" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
@@ -9245,19 +9245,19 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
-        <v>370.8403453034592</v>
+        <v>185.3423563661624</v>
       </c>
       <c r="M18" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N18" t="n">
-        <v>301.2485028631349</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O18" t="n">
-        <v>142.5962444444444</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P18" t="n">
         <v>318.4627686399372</v>
@@ -9488,19 +9488,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
-        <v>197.6503338623806</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N21" t="n">
-        <v>372.3560009609923</v>
+        <v>357.7767872515269</v>
       </c>
       <c r="O21" t="n">
-        <v>383.6105333221035</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P21" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9722,7 +9722,7 @@
         <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
-        <v>370.8403453034592</v>
+        <v>369.8307175917693</v>
       </c>
       <c r="M24" t="n">
         <v>383.1483227996774</v>
@@ -9731,7 +9731,7 @@
         <v>372.3560009609923</v>
       </c>
       <c r="O24" t="n">
-        <v>382.6009056104135</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
@@ -9956,22 +9956,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M27" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N27" t="n">
-        <v>372.3560009609923</v>
+        <v>222.4246658592332</v>
       </c>
       <c r="O27" t="n">
-        <v>312.5053919605859</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P27" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
@@ -10202,10 +10202,10 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N30" t="n">
-        <v>372.3560009609923</v>
+        <v>174.6270615612551</v>
       </c>
       <c r="O30" t="n">
-        <v>185.8815939223662</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P30" t="n">
         <v>133.9744074143302</v>
@@ -10436,19 +10436,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
-        <v>241.9453110519923</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N33" t="n">
-        <v>131.3417120833333</v>
+        <v>301.2485028631349</v>
       </c>
       <c r="O33" t="n">
-        <v>383.6105333221035</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P33" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10670,7 +10670,7 @@
         <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
         <v>383.1483227996774</v>
@@ -10679,13 +10679,13 @@
         <v>372.3560009609923</v>
       </c>
       <c r="O36" t="n">
-        <v>383.6105333221035</v>
+        <v>382.6009056104135</v>
       </c>
       <c r="P36" t="n">
-        <v>295.1552315763977</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10825,7 +10825,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K38" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711648</v>
       </c>
       <c r="L38" t="n">
         <v>417.6612145504504</v>
@@ -11141,25 +11141,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M42" t="n">
-        <v>383.1483227996774</v>
+        <v>241.9453110519923</v>
       </c>
       <c r="N42" t="n">
-        <v>371.3463732493024</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O42" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P42" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11378,16 +11378,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
-        <v>185.3423563661624</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M45" t="n">
-        <v>383.1483227996774</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N45" t="n">
-        <v>372.3560009609923</v>
+        <v>301.248502863135</v>
       </c>
       <c r="O45" t="n">
         <v>383.6105333221035</v>
@@ -22561,10 +22561,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H2" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I2" t="n">
         <v>210.4758895704059</v>
@@ -22594,22 +22594,22 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U2" t="n">
-        <v>139.0167266006028</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V2" t="n">
         <v>86.73796959247585</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>136.9555830739709</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -22628,7 +22628,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>137.3012335147773</v>
       </c>
       <c r="D3" t="n">
         <v>147.4450655646388</v>
@@ -22694,7 +22694,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>170.2754303037659</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -22761,10 +22761,10 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U4" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V4" t="n">
-        <v>118.95067573846</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -22783,25 +22783,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G5" t="n">
         <v>415.302737515135</v>
       </c>
       <c r="H5" t="n">
-        <v>339.4748021157671</v>
+        <v>137.1801156868699</v>
       </c>
       <c r="I5" t="n">
         <v>210.4758895704059</v>
@@ -22837,7 +22837,7 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T5" t="n">
-        <v>20.80116313523413</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U5" t="n">
         <v>251.3456529078365</v>
@@ -22849,10 +22849,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -22865,13 +22865,13 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
         <v>145.0692123933839</v>
@@ -22913,7 +22913,7 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S6" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
         <v>200.1647286948216</v>
@@ -22922,16 +22922,16 @@
         <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>94.78158527535663</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>106.5525690386005</v>
       </c>
     </row>
     <row r="7">
@@ -22998,13 +22998,13 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U7" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -23153,7 +23153,7 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T9" t="n">
-        <v>200.1647286948216</v>
+        <v>170.3657197299391</v>
       </c>
       <c r="U9" t="n">
         <v>0</v>
@@ -23168,7 +23168,7 @@
         <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>175.8836868124217</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="10">
@@ -23275,7 +23275,7 @@
         <v>174.288448637476</v>
       </c>
       <c r="H11" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I11" t="n">
         <v>210.4758895704059</v>
@@ -23302,28 +23302,28 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S11" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>39.0602672643945</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V11" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>358.5380445222895</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -23339,7 +23339,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C12" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
         <v>147.4450655646388</v>
@@ -23384,28 +23384,28 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>35.02723208740593</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S12" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T12" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>0</v>
+        <v>137.3012335147773</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
       </c>
       <c r="W12" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X12" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y12" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="13">
@@ -23494,7 +23494,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -23506,10 +23506,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>294.5471194344777</v>
       </c>
       <c r="G14" t="n">
-        <v>302.9738112079013</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H14" t="n">
         <v>339.4748021157671</v>
@@ -23573,7 +23573,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>166.5331836498673</v>
+        <v>116.4754883813142</v>
       </c>
       <c r="C15" t="n">
         <v>172.7084989883157</v>
@@ -23627,7 +23627,7 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U15" t="n">
         <v>225.9413820809748</v>
@@ -23636,7 +23636,7 @@
         <v>0</v>
       </c>
       <c r="W15" t="n">
-        <v>160.7877277095291</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X15" t="n">
         <v>0</v>
@@ -23703,7 +23703,7 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S16" t="n">
-        <v>90.82963045160423</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T16" t="n">
         <v>227.9455894282815</v>
@@ -23715,7 +23715,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -23746,7 +23746,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H17" t="n">
         <v>339.4748021157671</v>
@@ -23776,31 +23776,31 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S17" t="n">
-        <v>138.6760617849701</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>119.0371437604433</v>
       </c>
       <c r="X17" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="18">
@@ -23861,13 +23861,13 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S18" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>200.1647286948216</v>
+        <v>136.2759056302994</v>
       </c>
       <c r="U18" t="n">
-        <v>175.8836868124218</v>
+        <v>0</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -23876,10 +23876,10 @@
         <v>10.68069428326055</v>
       </c>
       <c r="X18" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y18" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="19">
@@ -23952,13 +23952,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>85.39768576672677</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -23980,7 +23980,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
         <v>174.288448637476</v>
@@ -24016,16 +24016,16 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R20" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>10.81046392068936</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>251.3456529078365</v>
+        <v>139.0167266006028</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -24037,7 +24037,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -24068,7 +24068,7 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I21" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>0.7465913262578567</v>
@@ -24101,7 +24101,7 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T21" t="n">
-        <v>200.1647286948216</v>
+        <v>53.98936737787668</v>
       </c>
       <c r="U21" t="n">
         <v>0</v>
@@ -24113,10 +24113,10 @@
         <v>10.68069428326055</v>
       </c>
       <c r="X21" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y21" t="n">
-        <v>175.8836868124217</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="22">
@@ -24126,7 +24126,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>46.64501259656927</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -24189,7 +24189,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -24205,7 +24205,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
         <v>365.2728917710076</v>
@@ -24253,22 +24253,22 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S23" t="n">
-        <v>128.6853625704253</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U23" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W23" t="n">
-        <v>349.240968717413</v>
+        <v>345.9756526602163</v>
       </c>
       <c r="X23" t="n">
         <v>369.731100678469</v>
@@ -24287,16 +24287,16 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C24" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E24" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
         <v>137.3435171632106</v>
@@ -24332,25 +24332,25 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T24" t="n">
-        <v>170.3657197299391</v>
+        <v>81.43139128580516</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V24" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W24" t="n">
         <v>10.68069428326055</v>
       </c>
       <c r="X24" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y24" t="n">
         <v>205.6826957773044</v>
@@ -24378,10 +24378,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>167.9909793584588</v>
+        <v>34.80401177309074</v>
       </c>
       <c r="H25" t="n">
-        <v>29.04020492207155</v>
+        <v>162.2271725074396</v>
       </c>
       <c r="I25" t="n">
         <v>155.4504749272583</v>
@@ -24442,7 +24442,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
@@ -24451,19 +24451,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H26" t="n">
-        <v>339.4748021157671</v>
+        <v>297.7433466523345</v>
       </c>
       <c r="I26" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>11.94928935461252</v>
@@ -24487,16 +24487,16 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S26" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>10.81046392068936</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
         <v>251.3456529078365</v>
@@ -24505,7 +24505,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
         <v>369.731100678469</v>
@@ -24569,28 +24569,28 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>50.10013888409016</v>
+        <v>29.50926500492307</v>
       </c>
       <c r="S27" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T27" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
       </c>
       <c r="W27" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X27" t="n">
         <v>0</v>
       </c>
       <c r="Y27" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="28">
@@ -24612,7 +24612,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>12.23408043756322</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>167.9909793584588</v>
@@ -24663,7 +24663,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -24685,7 +24685,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E29" t="n">
         <v>381.9303700722618</v>
@@ -24724,28 +24724,28 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U29" t="n">
         <v>251.3456529078365</v>
       </c>
       <c r="V29" t="n">
-        <v>86.73796959247585</v>
+        <v>125.4575720412377</v>
       </c>
       <c r="W29" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X29" t="n">
-        <v>348.5473453077446</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
         <v>386.2379386560536</v>
@@ -24761,7 +24761,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D30" t="n">
         <v>147.4450655646388</v>
@@ -24812,22 +24812,22 @@
         <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U30" t="n">
         <v>0</v>
       </c>
       <c r="V30" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W30" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X30" t="n">
-        <v>205.7729852034775</v>
+        <v>141.8841621389552</v>
       </c>
       <c r="Y30" t="n">
-        <v>40.85222436883518</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="31">
@@ -24888,13 +24888,13 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S31" t="n">
-        <v>224.0165980369723</v>
+        <v>90.82963045160423</v>
       </c>
       <c r="T31" t="n">
         <v>227.9455894282815</v>
       </c>
       <c r="U31" t="n">
-        <v>153.1320617711229</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -24919,22 +24919,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D32" t="n">
-        <v>134.469915878258</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G32" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H32" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I32" t="n">
         <v>210.4758895704059</v>
@@ -24961,7 +24961,7 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R32" t="n">
         <v>149.8691179411497</v>
@@ -24970,7 +24970,7 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>10.81046392068936</v>
       </c>
       <c r="U32" t="n">
         <v>251.3456529078365</v>
@@ -24985,7 +24985,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="33">
@@ -24995,7 +24995,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C33" t="n">
         <v>172.7084989883157</v>
@@ -25004,13 +25004,13 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E33" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F33" t="n">
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>137.3435171632106</v>
+        <v>112.4417589579242</v>
       </c>
       <c r="H33" t="n">
         <v>112.2354442364965</v>
@@ -25049,19 +25049,19 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T33" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V33" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W33" t="n">
         <v>10.68069428326055</v>
       </c>
       <c r="X33" t="n">
-        <v>115.2702034285012</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y33" t="n">
         <v>205.6826957773044</v>
@@ -25074,13 +25074,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>46.64501259656927</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>15.42850543284433</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
@@ -25156,10 +25156,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710076</v>
+        <v>135.0690668140378</v>
       </c>
       <c r="D35" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E35" t="n">
         <v>381.9303700722618</v>
@@ -25168,7 +25168,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H35" t="n">
         <v>339.4748021157671</v>
@@ -25204,22 +25204,22 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V35" t="n">
-        <v>306.5685030994106</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y35" t="n">
         <v>386.2379386560536</v>
@@ -25238,25 +25238,25 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E36" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F36" t="n">
-        <v>81.32645443465267</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I36" t="n">
         <v>89.39663285141508</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -25286,10 +25286,10 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T36" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -25301,7 +25301,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y36" t="n">
-        <v>205.6826957773044</v>
+        <v>170.2754303037659</v>
       </c>
     </row>
     <row r="37">
@@ -25323,7 +25323,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>12.23408043756322</v>
       </c>
       <c r="G37" t="n">
         <v>167.9909793584588</v>
@@ -25374,7 +25374,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -25390,7 +25390,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
@@ -25402,7 +25402,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
         <v>415.302737515135</v>
@@ -25435,19 +25435,19 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>138.6760617849701</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>251.3456529078365</v>
+        <v>139.0167266006028</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -25459,7 +25459,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="39">
@@ -25472,7 +25472,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C39" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D39" t="n">
         <v>147.4450655646388</v>
@@ -25493,7 +25493,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -25517,16 +25517,16 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>100.1578341526431</v>
+        <v>37.29433897259872</v>
       </c>
       <c r="S39" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T39" t="n">
-        <v>150.8536247525263</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U39" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -25535,10 +25535,10 @@
         <v>10.68069428326055</v>
       </c>
       <c r="X39" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y39" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="40">
@@ -25566,7 +25566,7 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H40" t="n">
-        <v>29.04020492207155</v>
+        <v>162.2271725074396</v>
       </c>
       <c r="I40" t="n">
         <v>155.4504749272583</v>
@@ -25599,7 +25599,7 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S40" t="n">
-        <v>224.0165980369723</v>
+        <v>90.82963045160423</v>
       </c>
       <c r="T40" t="n">
         <v>227.9455894282815</v>
@@ -25630,7 +25630,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D41" t="n">
         <v>354.683041620683</v>
@@ -25642,16 +25642,16 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>342.8322390905863</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H41" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I41" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
@@ -25672,16 +25672,16 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>128.6853625704253</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
         <v>10.33136403017744</v>
@@ -25712,16 +25712,16 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D42" t="n">
-        <v>147.4450655646388</v>
+        <v>36.61298589619565</v>
       </c>
       <c r="E42" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F42" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
         <v>112.2354442364965</v>
@@ -25754,28 +25754,28 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T42" t="n">
-        <v>135.7807179558421</v>
+        <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V42" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W42" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X42" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y42" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="43">
@@ -25836,13 +25836,13 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S43" t="n">
-        <v>90.82963045160423</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T43" t="n">
         <v>227.9455894282815</v>
       </c>
       <c r="U43" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -25873,10 +25873,10 @@
         <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>381.9303700722618</v>
+        <v>370.7373139160822</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G44" t="n">
         <v>174.288448637476</v>
@@ -25888,7 +25888,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -25909,19 +25909,19 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S44" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>182.9602352466289</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
@@ -25930,7 +25930,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
         <v>386.2379386560536</v>
@@ -25943,25 +25943,25 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C45" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I45" t="n">
         <v>89.39663285141508</v>
@@ -26000,16 +26000,16 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U45" t="n">
-        <v>156.8846332675536</v>
+        <v>0</v>
       </c>
       <c r="V45" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W45" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X45" t="n">
-        <v>205.7729852034775</v>
+        <v>142.9094900234331</v>
       </c>
       <c r="Y45" t="n">
         <v>205.6826957773044</v>
@@ -26076,10 +26076,10 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T46" t="n">
-        <v>227.9455894282815</v>
+        <v>94.75862184291347</v>
       </c>
       <c r="U46" t="n">
-        <v>153.1320617711229</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>490233.5289125026</v>
+        <v>490233.5289125028</v>
       </c>
     </row>
     <row r="4">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>490233.5289125026</v>
+        <v>490233.5289125027</v>
       </c>
     </row>
     <row r="6">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>490233.5289125025</v>
+        <v>490233.5289125026</v>
       </c>
     </row>
     <row r="8">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>490233.5289125026</v>
+        <v>490233.5289125028</v>
       </c>
     </row>
     <row r="13">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>490233.5289125026</v>
+        <v>490233.5289125025</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>490233.5289125026</v>
+        <v>490233.5289125025</v>
       </c>
     </row>
     <row r="16">
@@ -26313,40 +26313,40 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>99696.40351879936</v>
+      </c>
+      <c r="C2" t="n">
         <v>99696.4035187994</v>
       </c>
-      <c r="C2" t="n">
-        <v>99696.40351879937</v>
-      </c>
       <c r="D2" t="n">
-        <v>99696.40351879939</v>
+        <v>99696.4035187994</v>
       </c>
       <c r="E2" t="n">
         <v>99696.40351879937</v>
       </c>
       <c r="F2" t="n">
-        <v>99696.40351879942</v>
+        <v>99696.40351879939</v>
       </c>
       <c r="G2" t="n">
+        <v>99696.40351879939</v>
+      </c>
+      <c r="H2" t="n">
+        <v>99696.40351879936</v>
+      </c>
+      <c r="I2" t="n">
         <v>99696.40351879937</v>
       </c>
-      <c r="H2" t="n">
+      <c r="J2" t="n">
         <v>99696.40351879937</v>
-      </c>
-      <c r="I2" t="n">
-        <v>99696.40351879939</v>
-      </c>
-      <c r="J2" t="n">
-        <v>99696.40351879939</v>
       </c>
       <c r="K2" t="n">
         <v>99696.40351879937</v>
       </c>
       <c r="L2" t="n">
+        <v>99696.40351879934</v>
+      </c>
+      <c r="M2" t="n">
         <v>99696.40351879937</v>
-      </c>
-      <c r="M2" t="n">
-        <v>99696.40351879936</v>
       </c>
       <c r="N2" t="n">
         <v>99696.40351879937</v>
@@ -26355,7 +26355,7 @@
         <v>99696.40351879937</v>
       </c>
       <c r="P2" t="n">
-        <v>99696.4035187994</v>
+        <v>99696.40351879936</v>
       </c>
     </row>
     <row r="3">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-50119.41846589286</v>
+        <v>-39123.20890785649</v>
       </c>
       <c r="C6" t="n">
-        <v>30650.01306565484</v>
+        <v>41646.22262369129</v>
       </c>
       <c r="D6" t="n">
-        <v>30650.01306565486</v>
+        <v>41646.22262369129</v>
       </c>
       <c r="E6" t="n">
-        <v>64277.61306565484</v>
+        <v>75273.82262369126</v>
       </c>
       <c r="F6" t="n">
-        <v>64277.61306565488</v>
+        <v>75273.82262369127</v>
       </c>
       <c r="G6" t="n">
-        <v>64277.61306565483</v>
+        <v>75273.82262369127</v>
       </c>
       <c r="H6" t="n">
-        <v>64277.61306565484</v>
+        <v>75273.82262369125</v>
       </c>
       <c r="I6" t="n">
-        <v>64277.61306565486</v>
+        <v>75273.82262369126</v>
       </c>
       <c r="J6" t="n">
-        <v>1217.67046654862</v>
+        <v>12213.88002458502</v>
       </c>
       <c r="K6" t="n">
-        <v>64277.61306565484</v>
+        <v>75273.82262369126</v>
       </c>
       <c r="L6" t="n">
-        <v>64277.61306565484</v>
+        <v>75273.82262369123</v>
       </c>
       <c r="M6" t="n">
-        <v>64277.61306565483</v>
+        <v>75273.82262369126</v>
       </c>
       <c r="N6" t="n">
-        <v>64277.61306565483</v>
+        <v>75273.82262369126</v>
       </c>
       <c r="O6" t="n">
-        <v>64277.61306565484</v>
+        <v>75273.82262369126</v>
       </c>
       <c r="P6" t="n">
-        <v>64277.61306565487</v>
+        <v>75273.82262369125</v>
       </c>
     </row>
   </sheetData>
@@ -34786,16 +34786,16 @@
         <v>232.285965523585</v>
       </c>
       <c r="M3" t="n">
-        <v>113.3808631277495</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N3" t="n">
-        <v>241.0142888776591</v>
+        <v>169.9067907798016</v>
       </c>
       <c r="O3" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
@@ -35017,19 +35017,19 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L6" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M6" t="n">
+        <v>169.9067907798017</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="N6" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="O6" t="n">
-        <v>55.51629994036219</v>
       </c>
       <c r="P6" t="n">
         <v>184.4883612256069</v>
@@ -35260,13 +35260,13 @@
         <v>232.285965523585</v>
       </c>
       <c r="M9" t="n">
-        <v>240.0046611659691</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N9" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O9" t="n">
-        <v>241.0142888776591</v>
+        <v>240.0046611659691</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
@@ -35491,7 +35491,7 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L12" t="n">
         <v>232.285965523585</v>
@@ -35500,10 +35500,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N12" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>55.51629994036219</v>
+        <v>169.9067907798016</v>
       </c>
       <c r="P12" t="n">
         <v>184.4883612256069</v>
@@ -35728,22 +35728,22 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L15" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" t="n">
+        <v>169.9067907798017</v>
+      </c>
+      <c r="O15" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="N15" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="O15" t="n">
-        <v>240.0046611659691</v>
-      </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35898,7 +35898,7 @@
         <v>207.9338608153932</v>
       </c>
       <c r="O17" t="n">
-        <v>150.7019698410586</v>
+        <v>150.7019698410587</v>
       </c>
       <c r="P17" t="n">
         <v>90.5657124162131</v>
@@ -35965,19 +35965,19 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>232.285965523585</v>
+        <v>46.78797658628819</v>
       </c>
       <c r="M18" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N18" t="n">
-        <v>169.9067907798016</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P18" t="n">
         <v>184.4883612256069</v>
@@ -36208,19 +36208,19 @@
         <v>232.285965523585</v>
       </c>
       <c r="M21" t="n">
-        <v>55.51629994036225</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N21" t="n">
-        <v>241.0142888776591</v>
+        <v>226.4350751681936</v>
       </c>
       <c r="O21" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36442,7 +36442,7 @@
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>232.285965523585</v>
+        <v>231.276337811895</v>
       </c>
       <c r="M24" t="n">
         <v>241.0142888776591</v>
@@ -36451,7 +36451,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="O24" t="n">
-        <v>240.0046611659691</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -36676,22 +36676,22 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L27" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N27" t="n">
+        <v>91.0829537758999</v>
+      </c>
+      <c r="O27" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="O27" t="n">
-        <v>169.9091475161414</v>
-      </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q27" t="n">
         <v>70.09551364982758</v>
@@ -36840,13 +36840,13 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M29" t="n">
-        <v>219.1673002655598</v>
+        <v>219.1673002655597</v>
       </c>
       <c r="N29" t="n">
         <v>207.9338608153932</v>
       </c>
       <c r="O29" t="n">
-        <v>150.7019698410587</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P29" t="n">
         <v>90.5657124162131</v>
@@ -36922,10 +36922,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N30" t="n">
+        <v>43.28534947792182</v>
+      </c>
+      <c r="O30" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="O30" t="n">
-        <v>43.28534947792182</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -37156,19 +37156,19 @@
         <v>232.285965523585</v>
       </c>
       <c r="M33" t="n">
-        <v>99.81127712997396</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>169.9067907798016</v>
       </c>
       <c r="O33" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q33" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37390,7 +37390,7 @@
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M36" t="n">
         <v>241.0142888776591</v>
@@ -37399,13 +37399,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="O36" t="n">
-        <v>241.0142888776591</v>
+        <v>240.0046611659691</v>
       </c>
       <c r="P36" t="n">
-        <v>161.1808241620674</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37861,25 +37861,25 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L42" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M42" t="n">
-        <v>241.0142888776591</v>
+        <v>99.81127712997396</v>
       </c>
       <c r="N42" t="n">
-        <v>240.0046611659691</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38098,16 +38098,16 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L45" t="n">
-        <v>46.78797658628819</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M45" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>241.0142888776591</v>
+        <v>169.9067907798017</v>
       </c>
       <c r="O45" t="n">
         <v>241.0142888776591</v>
